--- a/tabibi/730AN01.xlsx
+++ b/tabibi/730AN01.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.tabibi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس طبیبی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FACEBBA-89E8-4737-8C75-3018D398708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D76FB6FE-663B-48F1-ACD4-B7E4F9B861FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0730AN01" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0730AN01'!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4826,12 +4825,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4846,7 +4845,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4854,7 +4853,7 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4869,7 +4868,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4882,7 +4881,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4890,13 +4889,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -5364,29 +5363,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C21DA38B-87BB-4172-892E-63B5B7116781}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K965"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="63.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="34" style="28" customWidth="1"/>
     <col min="8" max="8" width="36" style="28" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>11</v>
@@ -5444,7 +5443,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="26.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
@@ -5467,7 +5466,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="s">
@@ -5490,7 +5489,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
@@ -5513,7 +5512,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="16" t="s">
@@ -5536,7 +5535,7 @@
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="16" t="s">
@@ -5559,7 +5558,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19" t="s">
@@ -5582,7 +5581,7 @@
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="16" t="s">
@@ -5605,7 +5604,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="16" t="s">
@@ -5628,7 +5627,7 @@
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="16" t="s">
@@ -5651,7 +5650,7 @@
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="16" t="s">
@@ -5674,7 +5673,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="16" t="s">
@@ -5697,7 +5696,7 @@
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="16" t="s">
@@ -5720,7 +5719,7 @@
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="16" t="s">
@@ -5743,7 +5742,7 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="16" t="s">
@@ -5766,7 +5765,7 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.75">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19" t="s">
@@ -5789,7 +5788,7 @@
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16" t="s">
@@ -5812,7 +5811,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
@@ -5835,7 +5834,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.75">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19" t="s">
@@ -5858,7 +5857,7 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="16" t="s">
@@ -5881,7 +5880,7 @@
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="16" t="s">
@@ -5904,7 +5903,7 @@
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="16" t="s">
@@ -5927,7 +5926,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="16" t="s">
@@ -5950,7 +5949,7 @@
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="16" t="s">
@@ -5973,7 +5972,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="16" t="s">
@@ -5996,7 +5995,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="16" t="s">
@@ -6019,7 +6018,7 @@
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="16" t="s">
@@ -6042,7 +6041,7 @@
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="16" t="s">
@@ -6065,7 +6064,7 @@
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="16" t="s">
@@ -6088,7 +6087,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="16" t="s">
@@ -6111,7 +6110,7 @@
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="16" t="s">
@@ -6134,7 +6133,7 @@
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="16" t="s">
@@ -6157,7 +6156,7 @@
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="16" t="s">
@@ -6180,7 +6179,7 @@
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="16" t="s">
@@ -6203,7 +6202,7 @@
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="16" t="s">
@@ -6226,7 +6225,7 @@
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="16" t="s">
@@ -6249,7 +6248,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="16" t="s">
@@ -6272,7 +6271,7 @@
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="16" t="s">
@@ -6295,7 +6294,7 @@
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="16" t="s">
@@ -6318,7 +6317,7 @@
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="16" t="s">
@@ -6341,7 +6340,7 @@
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="16" t="s">
@@ -6364,7 +6363,7 @@
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="16" t="s">
@@ -6387,7 +6386,7 @@
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="16" t="s">
@@ -6410,7 +6409,7 @@
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="16" t="s">
@@ -6433,7 +6432,7 @@
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="16" t="s">
@@ -6456,7 +6455,7 @@
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="15.75">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="16" t="s">
@@ -6479,7 +6478,7 @@
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="15.75">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="16" t="s">
@@ -6502,7 +6501,7 @@
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="15.75">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="16" t="s">
@@ -6525,7 +6524,7 @@
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
     </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="15.75">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="16" t="s">
@@ -6548,7 +6547,7 @@
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="18.75">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="19" t="s">
@@ -6571,7 +6570,7 @@
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="15.75">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="16" t="s">
@@ -6594,7 +6593,7 @@
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
     </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="15.75">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="16" t="s">
@@ -6617,7 +6616,7 @@
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
     </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="16" t="s">
@@ -6640,7 +6639,7 @@
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
     </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="15.75">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="16" t="s">
@@ -6663,7 +6662,7 @@
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="15.75">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="16" t="s">
@@ -6686,7 +6685,7 @@
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
     </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="15.75">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="16" t="s">
@@ -6709,7 +6708,7 @@
       <c r="J57" s="22"/>
       <c r="K57" s="22"/>
     </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="15.75">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="16" t="s">
@@ -6732,7 +6731,7 @@
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
     </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15.75">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="16" t="s">
@@ -6755,7 +6754,7 @@
       <c r="J59" s="22"/>
       <c r="K59" s="22"/>
     </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="15.75">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="16" t="s">
@@ -6778,7 +6777,7 @@
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
     </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="15.75">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="16" t="s">
@@ -6801,7 +6800,7 @@
       <c r="J61" s="22"/>
       <c r="K61" s="22"/>
     </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="15.75">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="16" t="s">
@@ -6824,7 +6823,7 @@
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="15.75">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="16" t="s">
@@ -6847,7 +6846,7 @@
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
     </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="15.75">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="16" t="s">
@@ -6870,7 +6869,7 @@
       <c r="J64" s="22"/>
       <c r="K64" s="22"/>
     </row>
-    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="18.75">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="19" t="s">
@@ -6893,7 +6892,7 @@
       <c r="J65" s="18"/>
       <c r="K65" s="18"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="15.75">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="16" t="s">
@@ -6916,7 +6915,7 @@
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
     </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="15.75">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="16" t="s">
@@ -6939,7 +6938,7 @@
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
     </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="15.75">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="16" t="s">
@@ -6962,7 +6961,7 @@
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
     </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="15.75">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="16" t="s">
@@ -6985,7 +6984,7 @@
       <c r="J69" s="22"/>
       <c r="K69" s="22"/>
     </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="15.75">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="16" t="s">
@@ -7008,7 +7007,7 @@
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
     </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="15.75">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="16" t="s">
@@ -7031,7 +7030,7 @@
       <c r="J71" s="22"/>
       <c r="K71" s="22"/>
     </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="15.75">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="16" t="s">
@@ -7054,7 +7053,7 @@
       <c r="J72" s="22"/>
       <c r="K72" s="22"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="15.75">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="16" t="s">
@@ -7077,7 +7076,7 @@
       <c r="J73" s="22"/>
       <c r="K73" s="22"/>
     </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="15.75">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="16" t="s">
@@ -7100,7 +7099,7 @@
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
     </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="15.75">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="16" t="s">
@@ -7123,7 +7122,7 @@
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
     </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="15.75">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="16" t="s">
@@ -7146,7 +7145,7 @@
       <c r="J76" s="22"/>
       <c r="K76" s="22"/>
     </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="15.75">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="16" t="s">
@@ -7169,7 +7168,7 @@
       <c r="J77" s="22"/>
       <c r="K77" s="22"/>
     </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="15.75">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="16" t="s">
@@ -7192,7 +7191,7 @@
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
     </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="15.75">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="16" t="s">
@@ -7215,7 +7214,7 @@
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
     </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="15.75">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="16" t="s">
@@ -7238,7 +7237,7 @@
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="16" t="s">
@@ -7261,7 +7260,7 @@
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="16" t="s">
@@ -7284,7 +7283,7 @@
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="16" t="s">
@@ -7307,7 +7306,7 @@
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
     </row>
-    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15.75">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="16" t="s">
@@ -7330,7 +7329,7 @@
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
     </row>
-    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15.75">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="16" t="s">
@@ -7353,7 +7352,7 @@
       <c r="J85" s="22"/>
       <c r="K85" s="22"/>
     </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="15.75">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="16" t="s">
@@ -7376,7 +7375,7 @@
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
     </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15.75">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="16" t="s">
@@ -7399,7 +7398,7 @@
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
     </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15.75">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="16" t="s">
@@ -7422,7 +7421,7 @@
       <c r="J88" s="22"/>
       <c r="K88" s="22"/>
     </row>
-    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15.75">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="16" t="s">
@@ -7445,7 +7444,7 @@
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
     </row>
-    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="16" t="s">
@@ -7468,7 +7467,7 @@
       <c r="J90" s="22"/>
       <c r="K90" s="22"/>
     </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="15.75">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="16" t="s">
@@ -7491,7 +7490,7 @@
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
     </row>
-    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="15.75">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="16" t="s">
@@ -7514,7 +7513,7 @@
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
     </row>
-    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15.75">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="16" t="s">
@@ -7537,7 +7536,7 @@
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
     </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15.75">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="16" t="s">
@@ -7560,7 +7559,7 @@
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
     </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="15.75">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="16" t="s">
@@ -7583,7 +7582,7 @@
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
     </row>
-    <row r="96" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="26.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="12" t="s">
@@ -7606,7 +7605,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="18.75">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="19" t="s">
@@ -7629,7 +7628,7 @@
       <c r="J97" s="18"/>
       <c r="K97" s="18"/>
     </row>
-    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="15.75">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="16" t="s">
@@ -7652,7 +7651,7 @@
       <c r="J98" s="22"/>
       <c r="K98" s="22"/>
     </row>
-    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15.75">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="16" t="s">
@@ -7675,7 +7674,7 @@
       <c r="J99" s="22"/>
       <c r="K99" s="22"/>
     </row>
-    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15.75">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="16" t="s">
@@ -7698,7 +7697,7 @@
       <c r="J100" s="22"/>
       <c r="K100" s="22"/>
     </row>
-    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15.75">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="16" t="s">
@@ -7721,7 +7720,7 @@
       <c r="J101" s="22"/>
       <c r="K101" s="22"/>
     </row>
-    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15.75">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="16" t="s">
@@ -7744,7 +7743,7 @@
       <c r="J102" s="22"/>
       <c r="K102" s="22"/>
     </row>
-    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="15.75">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="16" t="s">
@@ -7767,7 +7766,7 @@
       <c r="J103" s="22"/>
       <c r="K103" s="22"/>
     </row>
-    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="15.75">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="16" t="s">
@@ -7790,7 +7789,7 @@
       <c r="J104" s="22"/>
       <c r="K104" s="22"/>
     </row>
-    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15.75">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="16" t="s">
@@ -7813,7 +7812,7 @@
       <c r="J105" s="22"/>
       <c r="K105" s="22"/>
     </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15.75">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="16" t="s">
@@ -7836,7 +7835,7 @@
       <c r="J106" s="22"/>
       <c r="K106" s="22"/>
     </row>
-    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="15.75">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="16" t="s">
@@ -7859,7 +7858,7 @@
       <c r="J107" s="22"/>
       <c r="K107" s="22"/>
     </row>
-    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="15.75">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="16" t="s">
@@ -7882,7 +7881,7 @@
       <c r="J108" s="22"/>
       <c r="K108" s="22"/>
     </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="15.75">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="16" t="s">
@@ -7905,7 +7904,7 @@
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
     </row>
-    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15.75">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="16" t="s">
@@ -7928,7 +7927,7 @@
       <c r="J110" s="22"/>
       <c r="K110" s="22"/>
     </row>
-    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15.75">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="16" t="s">
@@ -7951,7 +7950,7 @@
       <c r="J111" s="22"/>
       <c r="K111" s="22"/>
     </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="15.75">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="16" t="s">
@@ -7974,7 +7973,7 @@
       <c r="J112" s="22"/>
       <c r="K112" s="22"/>
     </row>
-    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="15.75">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="16" t="s">
@@ -7997,7 +7996,7 @@
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
     </row>
-    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="15.75">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="16" t="s">
@@ -8020,7 +8019,7 @@
       <c r="J114" s="22"/>
       <c r="K114" s="22"/>
     </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="15.75">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="16" t="s">
@@ -8043,7 +8042,7 @@
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
     </row>
-    <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="15.75">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="16" t="s">
@@ -8066,7 +8065,7 @@
       <c r="J116" s="22"/>
       <c r="K116" s="22"/>
     </row>
-    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15.75">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="16" t="s">
@@ -8089,7 +8088,7 @@
       <c r="J117" s="22"/>
       <c r="K117" s="22"/>
     </row>
-    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15.75">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="16" t="s">
@@ -8112,7 +8111,7 @@
       <c r="J118" s="22"/>
       <c r="K118" s="22"/>
     </row>
-    <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="15.75">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="16" t="s">
@@ -8135,7 +8134,7 @@
       <c r="J119" s="22"/>
       <c r="K119" s="22"/>
     </row>
-    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="15.75">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="16" t="s">
@@ -8158,7 +8157,7 @@
       <c r="J120" s="22"/>
       <c r="K120" s="22"/>
     </row>
-    <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="15.75">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="16" t="s">
@@ -8181,7 +8180,7 @@
       <c r="J121" s="22"/>
       <c r="K121" s="22"/>
     </row>
-    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="18.75">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="19" t="s">
@@ -8204,7 +8203,7 @@
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
     </row>
-    <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="15.75">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="16" t="s">
@@ -8227,7 +8226,7 @@
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
     </row>
-    <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="15.75">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="16" t="s">
@@ -8250,7 +8249,7 @@
       <c r="J124" s="22"/>
       <c r="K124" s="22"/>
     </row>
-    <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="15.75">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="16" t="s">
@@ -8273,7 +8272,7 @@
       <c r="J125" s="22"/>
       <c r="K125" s="22"/>
     </row>
-    <row r="126" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="15.75">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="16" t="s">
@@ -8296,7 +8295,7 @@
       <c r="J126" s="22"/>
       <c r="K126" s="22"/>
     </row>
-    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="15.75">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="16" t="s">
@@ -8319,7 +8318,7 @@
       <c r="J127" s="22"/>
       <c r="K127" s="22"/>
     </row>
-    <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="15.75">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="16" t="s">
@@ -8342,7 +8341,7 @@
       <c r="J128" s="22"/>
       <c r="K128" s="22"/>
     </row>
-    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="15.75">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="16" t="s">
@@ -8365,7 +8364,7 @@
       <c r="J129" s="22"/>
       <c r="K129" s="22"/>
     </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="15.75">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="16" t="s">
@@ -8388,7 +8387,7 @@
       <c r="J130" s="22"/>
       <c r="K130" s="22"/>
     </row>
-    <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="15.75">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="16" t="s">
@@ -8411,7 +8410,7 @@
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
     </row>
-    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="18.75">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="19" t="s">
@@ -8434,7 +8433,7 @@
       <c r="J132" s="18"/>
       <c r="K132" s="18"/>
     </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="15.75">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="16" t="s">
@@ -8457,7 +8456,7 @@
       <c r="J133" s="22"/>
       <c r="K133" s="22"/>
     </row>
-    <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="15.75">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="16" t="s">
@@ -8480,7 +8479,7 @@
       <c r="J134" s="22"/>
       <c r="K134" s="22"/>
     </row>
-    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" ht="15.75">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="16" t="s">
@@ -8503,7 +8502,7 @@
       <c r="J135" s="22"/>
       <c r="K135" s="22"/>
     </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" ht="15.75">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="16" t="s">
@@ -8526,7 +8525,7 @@
       <c r="J136" s="22"/>
       <c r="K136" s="22"/>
     </row>
-    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" ht="15.75">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="16" t="s">
@@ -8549,7 +8548,7 @@
       <c r="J137" s="22"/>
       <c r="K137" s="22"/>
     </row>
-    <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="15.75">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="16" t="s">
@@ -8572,7 +8571,7 @@
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
     </row>
-    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15.75">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="16" t="s">
@@ -8595,7 +8594,7 @@
       <c r="J139" s="22"/>
       <c r="K139" s="22"/>
     </row>
-    <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="15.75">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="16" t="s">
@@ -8618,7 +8617,7 @@
       <c r="J140" s="22"/>
       <c r="K140" s="22"/>
     </row>
-    <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="15.75">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="16" t="s">
@@ -8641,7 +8640,7 @@
       <c r="J141" s="22"/>
       <c r="K141" s="22"/>
     </row>
-    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="15.75">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="16" t="s">
@@ -8664,7 +8663,7 @@
       <c r="J142" s="22"/>
       <c r="K142" s="22"/>
     </row>
-    <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="15.75">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="16" t="s">
@@ -8687,7 +8686,7 @@
       <c r="J143" s="22"/>
       <c r="K143" s="22"/>
     </row>
-    <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="15.75">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="16" t="s">
@@ -8710,7 +8709,7 @@
       <c r="J144" s="22"/>
       <c r="K144" s="22"/>
     </row>
-    <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="18.75">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="19" t="s">
@@ -8733,7 +8732,7 @@
       <c r="J145" s="18"/>
       <c r="K145" s="18"/>
     </row>
-    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="15.75">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="16" t="s">
@@ -8756,7 +8755,7 @@
       <c r="J146" s="22"/>
       <c r="K146" s="22"/>
     </row>
-    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="15.75">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="16" t="s">
@@ -8779,7 +8778,7 @@
       <c r="J147" s="22"/>
       <c r="K147" s="22"/>
     </row>
-    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="15.75">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="16" t="s">
@@ -8802,7 +8801,7 @@
       <c r="J148" s="22"/>
       <c r="K148" s="22"/>
     </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="15.75">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="16" t="s">
@@ -8825,7 +8824,7 @@
       <c r="J149" s="22"/>
       <c r="K149" s="22"/>
     </row>
-    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="15.75">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="16" t="s">
@@ -8848,7 +8847,7 @@
       <c r="J150" s="22"/>
       <c r="K150" s="22"/>
     </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="15.75">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="16" t="s">
@@ -8871,7 +8870,7 @@
       <c r="J151" s="22"/>
       <c r="K151" s="22"/>
     </row>
-    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="15.75">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="16" t="s">
@@ -8894,7 +8893,7 @@
       <c r="J152" s="22"/>
       <c r="K152" s="22"/>
     </row>
-    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="15.75">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="16" t="s">
@@ -8917,7 +8916,7 @@
       <c r="J153" s="22"/>
       <c r="K153" s="22"/>
     </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="15.75">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="16" t="s">
@@ -8940,7 +8939,7 @@
       <c r="J154" s="22"/>
       <c r="K154" s="22"/>
     </row>
-    <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="15.75">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="16" t="s">
@@ -8963,7 +8962,7 @@
       <c r="J155" s="22"/>
       <c r="K155" s="22"/>
     </row>
-    <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="15.75">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="16" t="s">
@@ -8986,7 +8985,7 @@
       <c r="J156" s="22"/>
       <c r="K156" s="22"/>
     </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="15.75">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="16" t="s">
@@ -9009,7 +9008,7 @@
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
     </row>
-    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="15.75">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="16" t="s">
@@ -9032,7 +9031,7 @@
       <c r="J158" s="22"/>
       <c r="K158" s="22"/>
     </row>
-    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="15.75">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="16" t="s">
@@ -9055,7 +9054,7 @@
       <c r="J159" s="22"/>
       <c r="K159" s="22"/>
     </row>
-    <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="15.75">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="16" t="s">
@@ -9078,7 +9077,7 @@
       <c r="J160" s="22"/>
       <c r="K160" s="22"/>
     </row>
-    <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="15.75">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="16" t="s">
@@ -9101,7 +9100,7 @@
       <c r="J161" s="22"/>
       <c r="K161" s="22"/>
     </row>
-    <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="15.75">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="16" t="s">
@@ -9124,7 +9123,7 @@
       <c r="J162" s="22"/>
       <c r="K162" s="22"/>
     </row>
-    <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="15.75">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="16" t="s">
@@ -9147,7 +9146,7 @@
       <c r="J163" s="22"/>
       <c r="K163" s="22"/>
     </row>
-    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="15.75">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="16" t="s">
@@ -9170,7 +9169,7 @@
       <c r="J164" s="22"/>
       <c r="K164" s="22"/>
     </row>
-    <row r="165" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="15.75">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="16" t="s">
@@ -9193,7 +9192,7 @@
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
     </row>
-    <row r="166" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="15.75">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="16" t="s">
@@ -9216,7 +9215,7 @@
       <c r="J166" s="22"/>
       <c r="K166" s="22"/>
     </row>
-    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="15.75">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="16" t="s">
@@ -9239,7 +9238,7 @@
       <c r="J167" s="22"/>
       <c r="K167" s="22"/>
     </row>
-    <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="15.75">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="16" t="s">
@@ -9262,7 +9261,7 @@
       <c r="J168" s="22"/>
       <c r="K168" s="22"/>
     </row>
-    <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="15.75">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="16" t="s">
@@ -9285,7 +9284,7 @@
       <c r="J169" s="22"/>
       <c r="K169" s="22"/>
     </row>
-    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="15.75">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="16" t="s">
@@ -9308,7 +9307,7 @@
       <c r="J170" s="22"/>
       <c r="K170" s="22"/>
     </row>
-    <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="15.75">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="16" t="s">
@@ -9331,7 +9330,7 @@
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
     </row>
-    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="15.75">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="16" t="s">
@@ -9354,7 +9353,7 @@
       <c r="J172" s="22"/>
       <c r="K172" s="22"/>
     </row>
-    <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="15.75">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="16" t="s">
@@ -9377,7 +9376,7 @@
       <c r="J173" s="22"/>
       <c r="K173" s="22"/>
     </row>
-    <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="15.75">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="16" t="s">
@@ -9400,7 +9399,7 @@
       <c r="J174" s="22"/>
       <c r="K174" s="22"/>
     </row>
-    <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="15.75">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="16" t="s">
@@ -9423,7 +9422,7 @@
       <c r="J175" s="22"/>
       <c r="K175" s="22"/>
     </row>
-    <row r="176" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="15.75">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="16" t="s">
@@ -9446,7 +9445,7 @@
       <c r="J176" s="22"/>
       <c r="K176" s="22"/>
     </row>
-    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="15.75">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="16" t="s">
@@ -9469,7 +9468,7 @@
       <c r="J177" s="22"/>
       <c r="K177" s="22"/>
     </row>
-    <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="15.75">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="16" t="s">
@@ -9492,7 +9491,7 @@
       <c r="J178" s="22"/>
       <c r="K178" s="22"/>
     </row>
-    <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="15.75">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="16" t="s">
@@ -9515,7 +9514,7 @@
       <c r="J179" s="22"/>
       <c r="K179" s="22"/>
     </row>
-    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="15.75">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="16" t="s">
@@ -9538,7 +9537,7 @@
       <c r="J180" s="22"/>
       <c r="K180" s="22"/>
     </row>
-    <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="15.75">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="16" t="s">
@@ -9561,7 +9560,7 @@
       <c r="J181" s="22"/>
       <c r="K181" s="22"/>
     </row>
-    <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="15.75">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="16" t="s">
@@ -9584,7 +9583,7 @@
       <c r="J182" s="22"/>
       <c r="K182" s="22"/>
     </row>
-    <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="15.75">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="16" t="s">
@@ -9607,7 +9606,7 @@
       <c r="J183" s="22"/>
       <c r="K183" s="22"/>
     </row>
-    <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="15.75">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="16" t="s">
@@ -9630,7 +9629,7 @@
       <c r="J184" s="22"/>
       <c r="K184" s="22"/>
     </row>
-    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="15.75">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="16" t="s">
@@ -9653,7 +9652,7 @@
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
     </row>
-    <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="15.75">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="16" t="s">
@@ -9676,7 +9675,7 @@
       <c r="J186" s="22"/>
       <c r="K186" s="22"/>
     </row>
-    <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="15.75">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="16" t="s">
@@ -9699,7 +9698,7 @@
       <c r="J187" s="22"/>
       <c r="K187" s="22"/>
     </row>
-    <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="15.75">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="16" t="s">
@@ -9722,7 +9721,7 @@
       <c r="J188" s="22"/>
       <c r="K188" s="22"/>
     </row>
-    <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="15.75">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="16" t="s">
@@ -9745,7 +9744,7 @@
       <c r="J189" s="22"/>
       <c r="K189" s="22"/>
     </row>
-    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="15.75">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="16" t="s">
@@ -9768,7 +9767,7 @@
       <c r="J190" s="22"/>
       <c r="K190" s="22"/>
     </row>
-    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="15.75">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="16" t="s">
@@ -9791,7 +9790,7 @@
       <c r="J191" s="22"/>
       <c r="K191" s="22"/>
     </row>
-    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="15.75">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="16" t="s">
@@ -9814,7 +9813,7 @@
       <c r="J192" s="22"/>
       <c r="K192" s="22"/>
     </row>
-    <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="15.75">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="16" t="s">
@@ -9837,7 +9836,7 @@
       <c r="J193" s="22"/>
       <c r="K193" s="22"/>
     </row>
-    <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="15.75">
       <c r="A194" s="22"/>
       <c r="B194" s="22"/>
       <c r="C194" s="16" t="s">
@@ -9860,7 +9859,7 @@
       <c r="J194" s="22"/>
       <c r="K194" s="22"/>
     </row>
-    <row r="195" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="15.75">
       <c r="A195" s="22"/>
       <c r="B195" s="22"/>
       <c r="C195" s="16" t="s">
@@ -9883,7 +9882,7 @@
       <c r="J195" s="22"/>
       <c r="K195" s="22"/>
     </row>
-    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="15.75">
       <c r="A196" s="22"/>
       <c r="B196" s="22"/>
       <c r="C196" s="16" t="s">
@@ -9906,7 +9905,7 @@
       <c r="J196" s="22"/>
       <c r="K196" s="22"/>
     </row>
-    <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="15.75">
       <c r="A197" s="22"/>
       <c r="B197" s="22"/>
       <c r="C197" s="16" t="s">
@@ -9929,7 +9928,7 @@
       <c r="J197" s="22"/>
       <c r="K197" s="22"/>
     </row>
-    <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="15.75">
       <c r="A198" s="22"/>
       <c r="B198" s="22"/>
       <c r="C198" s="16" t="s">
@@ -9952,7 +9951,7 @@
       <c r="J198" s="22"/>
       <c r="K198" s="22"/>
     </row>
-    <row r="199" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="15.75">
       <c r="A199" s="22"/>
       <c r="B199" s="22"/>
       <c r="C199" s="16" t="s">
@@ -9975,7 +9974,7 @@
       <c r="J199" s="22"/>
       <c r="K199" s="22"/>
     </row>
-    <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="15.75">
       <c r="A200" s="22"/>
       <c r="B200" s="22"/>
       <c r="C200" s="16" t="s">
@@ -9998,7 +9997,7 @@
       <c r="J200" s="22"/>
       <c r="K200" s="22"/>
     </row>
-    <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="15.75">
       <c r="A201" s="22"/>
       <c r="B201" s="22"/>
       <c r="C201" s="16" t="s">
@@ -10021,7 +10020,7 @@
       <c r="J201" s="22"/>
       <c r="K201" s="22"/>
     </row>
-    <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="15.75">
       <c r="A202" s="22"/>
       <c r="B202" s="22"/>
       <c r="C202" s="16" t="s">
@@ -10044,7 +10043,7 @@
       <c r="J202" s="22"/>
       <c r="K202" s="22"/>
     </row>
-    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="15.75">
       <c r="A203" s="22"/>
       <c r="B203" s="22"/>
       <c r="C203" s="16" t="s">
@@ -10067,7 +10066,7 @@
       <c r="J203" s="22"/>
       <c r="K203" s="22"/>
     </row>
-    <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="15.75">
       <c r="A204" s="22"/>
       <c r="B204" s="22"/>
       <c r="C204" s="16" t="s">
@@ -10090,7 +10089,7 @@
       <c r="J204" s="22"/>
       <c r="K204" s="22"/>
     </row>
-    <row r="205" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="15.75">
       <c r="A205" s="22"/>
       <c r="B205" s="22"/>
       <c r="C205" s="16" t="s">
@@ -10113,7 +10112,7 @@
       <c r="J205" s="22"/>
       <c r="K205" s="22"/>
     </row>
-    <row r="206" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="15.75">
       <c r="A206" s="22"/>
       <c r="B206" s="22"/>
       <c r="C206" s="16" t="s">
@@ -10136,7 +10135,7 @@
       <c r="J206" s="22"/>
       <c r="K206" s="22"/>
     </row>
-    <row r="207" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="15.75">
       <c r="A207" s="22"/>
       <c r="B207" s="22"/>
       <c r="C207" s="16" t="s">
@@ -10159,7 +10158,7 @@
       <c r="J207" s="22"/>
       <c r="K207" s="22"/>
     </row>
-    <row r="208" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="15.75">
       <c r="A208" s="22"/>
       <c r="B208" s="22"/>
       <c r="C208" s="16" t="s">
@@ -10182,7 +10181,7 @@
       <c r="J208" s="22"/>
       <c r="K208" s="22"/>
     </row>
-    <row r="209" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="15.75">
       <c r="A209" s="22"/>
       <c r="B209" s="22"/>
       <c r="C209" s="16" t="s">
@@ -10205,7 +10204,7 @@
       <c r="J209" s="22"/>
       <c r="K209" s="22"/>
     </row>
-    <row r="210" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="15.75">
       <c r="A210" s="22"/>
       <c r="B210" s="22"/>
       <c r="C210" s="16" t="s">
@@ -10228,7 +10227,7 @@
       <c r="J210" s="22"/>
       <c r="K210" s="22"/>
     </row>
-    <row r="211" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="15.75">
       <c r="A211" s="22"/>
       <c r="B211" s="22"/>
       <c r="C211" s="16" t="s">
@@ -10251,7 +10250,7 @@
       <c r="J211" s="22"/>
       <c r="K211" s="22"/>
     </row>
-    <row r="212" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="15.75">
       <c r="A212" s="22"/>
       <c r="B212" s="22"/>
       <c r="C212" s="16" t="s">
@@ -10274,7 +10273,7 @@
       <c r="J212" s="22"/>
       <c r="K212" s="22"/>
     </row>
-    <row r="213" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="15.75">
       <c r="A213" s="22"/>
       <c r="B213" s="22"/>
       <c r="C213" s="16" t="s">
@@ -10297,7 +10296,7 @@
       <c r="J213" s="22"/>
       <c r="K213" s="22"/>
     </row>
-    <row r="214" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="15.75">
       <c r="A214" s="22"/>
       <c r="B214" s="22"/>
       <c r="C214" s="16" t="s">
@@ -10320,7 +10319,7 @@
       <c r="J214" s="22"/>
       <c r="K214" s="22"/>
     </row>
-    <row r="215" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="15.75">
       <c r="A215" s="22"/>
       <c r="B215" s="22"/>
       <c r="C215" s="16" t="s">
@@ -10343,7 +10342,7 @@
       <c r="J215" s="22"/>
       <c r="K215" s="22"/>
     </row>
-    <row r="216" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="15.75">
       <c r="A216" s="22"/>
       <c r="B216" s="22"/>
       <c r="C216" s="16" t="s">
@@ -10366,7 +10365,7 @@
       <c r="J216" s="22"/>
       <c r="K216" s="22"/>
     </row>
-    <row r="217" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="15.75">
       <c r="A217" s="22"/>
       <c r="B217" s="22"/>
       <c r="C217" s="16" t="s">
@@ -10389,7 +10388,7 @@
       <c r="J217" s="22"/>
       <c r="K217" s="22"/>
     </row>
-    <row r="218" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="15.75">
       <c r="A218" s="22"/>
       <c r="B218" s="22"/>
       <c r="C218" s="16" t="s">
@@ -10412,7 +10411,7 @@
       <c r="J218" s="22"/>
       <c r="K218" s="22"/>
     </row>
-    <row r="219" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="15.75">
       <c r="A219" s="22"/>
       <c r="B219" s="22"/>
       <c r="C219" s="16" t="s">
@@ -10435,7 +10434,7 @@
       <c r="J219" s="22"/>
       <c r="K219" s="22"/>
     </row>
-    <row r="220" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="15.75">
       <c r="A220" s="22"/>
       <c r="B220" s="22"/>
       <c r="C220" s="16" t="s">
@@ -10458,7 +10457,7 @@
       <c r="J220" s="22"/>
       <c r="K220" s="22"/>
     </row>
-    <row r="221" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="15.75">
       <c r="A221" s="22"/>
       <c r="B221" s="22"/>
       <c r="C221" s="16" t="s">
@@ -10481,7 +10480,7 @@
       <c r="J221" s="22"/>
       <c r="K221" s="22"/>
     </row>
-    <row r="222" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="15.75">
       <c r="A222" s="22"/>
       <c r="B222" s="22"/>
       <c r="C222" s="16" t="s">
@@ -10504,7 +10503,7 @@
       <c r="J222" s="22"/>
       <c r="K222" s="22"/>
     </row>
-    <row r="223" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="15.75">
       <c r="A223" s="22"/>
       <c r="B223" s="22"/>
       <c r="C223" s="16" t="s">
@@ -10527,7 +10526,7 @@
       <c r="J223" s="22"/>
       <c r="K223" s="22"/>
     </row>
-    <row r="224" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="15.75">
       <c r="A224" s="22"/>
       <c r="B224" s="22"/>
       <c r="C224" s="16" t="s">
@@ -10550,7 +10549,7 @@
       <c r="J224" s="22"/>
       <c r="K224" s="22"/>
     </row>
-    <row r="225" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="15.75">
       <c r="A225" s="22"/>
       <c r="B225" s="22"/>
       <c r="C225" s="16" t="s">
@@ -10573,7 +10572,7 @@
       <c r="J225" s="22"/>
       <c r="K225" s="22"/>
     </row>
-    <row r="226" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="15.75">
       <c r="A226" s="22"/>
       <c r="B226" s="22"/>
       <c r="C226" s="16" t="s">
@@ -10596,7 +10595,7 @@
       <c r="J226" s="22"/>
       <c r="K226" s="22"/>
     </row>
-    <row r="227" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="15.75">
       <c r="A227" s="22"/>
       <c r="B227" s="22"/>
       <c r="C227" s="16" t="s">
@@ -10619,7 +10618,7 @@
       <c r="J227" s="22"/>
       <c r="K227" s="22"/>
     </row>
-    <row r="228" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="15.75">
       <c r="A228" s="22"/>
       <c r="B228" s="22"/>
       <c r="C228" s="16" t="s">
@@ -10642,7 +10641,7 @@
       <c r="J228" s="22"/>
       <c r="K228" s="22"/>
     </row>
-    <row r="229" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="15.75">
       <c r="A229" s="22"/>
       <c r="B229" s="22"/>
       <c r="C229" s="16" t="s">
@@ -10665,7 +10664,7 @@
       <c r="J229" s="22"/>
       <c r="K229" s="22"/>
     </row>
-    <row r="230" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="15.75">
       <c r="A230" s="22"/>
       <c r="B230" s="22"/>
       <c r="C230" s="16" t="s">
@@ -10688,7 +10687,7 @@
       <c r="J230" s="22"/>
       <c r="K230" s="22"/>
     </row>
-    <row r="231" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="15.75">
       <c r="A231" s="22"/>
       <c r="B231" s="22"/>
       <c r="C231" s="16" t="s">
@@ -10711,7 +10710,7 @@
       <c r="J231" s="22"/>
       <c r="K231" s="22"/>
     </row>
-    <row r="232" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="15.75">
       <c r="A232" s="22"/>
       <c r="B232" s="22"/>
       <c r="C232" s="16" t="s">
@@ -10734,7 +10733,7 @@
       <c r="J232" s="22"/>
       <c r="K232" s="22"/>
     </row>
-    <row r="233" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="15.75">
       <c r="A233" s="22"/>
       <c r="B233" s="22"/>
       <c r="C233" s="16" t="s">
@@ -10757,7 +10756,7 @@
       <c r="J233" s="22"/>
       <c r="K233" s="22"/>
     </row>
-    <row r="234" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="15.75">
       <c r="A234" s="22"/>
       <c r="B234" s="22"/>
       <c r="C234" s="16" t="s">
@@ -10780,7 +10779,7 @@
       <c r="J234" s="22"/>
       <c r="K234" s="22"/>
     </row>
-    <row r="235" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="18.75">
       <c r="A235" s="18"/>
       <c r="B235" s="18"/>
       <c r="C235" s="19" t="s">
@@ -10803,7 +10802,7 @@
       <c r="J235" s="18"/>
       <c r="K235" s="18"/>
     </row>
-    <row r="236" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="15.75">
       <c r="A236" s="22"/>
       <c r="B236" s="22"/>
       <c r="C236" s="16" t="s">
@@ -10826,7 +10825,7 @@
       <c r="J236" s="22"/>
       <c r="K236" s="22"/>
     </row>
-    <row r="237" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="15.75">
       <c r="A237" s="22"/>
       <c r="B237" s="22"/>
       <c r="C237" s="16" t="s">
@@ -10849,7 +10848,7 @@
       <c r="J237" s="22"/>
       <c r="K237" s="22"/>
     </row>
-    <row r="238" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="15.75">
       <c r="A238" s="22"/>
       <c r="B238" s="22"/>
       <c r="C238" s="16" t="s">
@@ -10872,7 +10871,7 @@
       <c r="J238" s="22"/>
       <c r="K238" s="22"/>
     </row>
-    <row r="239" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="15.75">
       <c r="A239" s="22"/>
       <c r="B239" s="22"/>
       <c r="C239" s="16" t="s">
@@ -10895,7 +10894,7 @@
       <c r="J239" s="22"/>
       <c r="K239" s="22"/>
     </row>
-    <row r="240" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="15.75">
       <c r="A240" s="22"/>
       <c r="B240" s="22"/>
       <c r="C240" s="16" t="s">
@@ -10918,7 +10917,7 @@
       <c r="J240" s="22"/>
       <c r="K240" s="22"/>
     </row>
-    <row r="241" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="15.75">
       <c r="A241" s="22"/>
       <c r="B241" s="22"/>
       <c r="C241" s="16" t="s">
@@ -10941,7 +10940,7 @@
       <c r="J241" s="22"/>
       <c r="K241" s="22"/>
     </row>
-    <row r="242" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="15.75">
       <c r="A242" s="22"/>
       <c r="B242" s="22"/>
       <c r="C242" s="16" t="s">
@@ -10964,7 +10963,7 @@
       <c r="J242" s="22"/>
       <c r="K242" s="22"/>
     </row>
-    <row r="243" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="15.75">
       <c r="A243" s="22"/>
       <c r="B243" s="22"/>
       <c r="C243" s="16" t="s">
@@ -10987,7 +10986,7 @@
       <c r="J243" s="22"/>
       <c r="K243" s="22"/>
     </row>
-    <row r="244" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="15.75">
       <c r="A244" s="22"/>
       <c r="B244" s="22"/>
       <c r="C244" s="16" t="s">
@@ -11010,7 +11009,7 @@
       <c r="J244" s="22"/>
       <c r="K244" s="22"/>
     </row>
-    <row r="245" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="15.75">
       <c r="A245" s="22"/>
       <c r="B245" s="22"/>
       <c r="C245" s="16" t="s">
@@ -11033,7 +11032,7 @@
       <c r="J245" s="22"/>
       <c r="K245" s="22"/>
     </row>
-    <row r="246" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="15.75">
       <c r="A246" s="22"/>
       <c r="B246" s="22"/>
       <c r="C246" s="16" t="s">
@@ -11056,7 +11055,7 @@
       <c r="J246" s="22"/>
       <c r="K246" s="22"/>
     </row>
-    <row r="247" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="15.75">
       <c r="A247" s="22"/>
       <c r="B247" s="22"/>
       <c r="C247" s="16" t="s">
@@ -11079,7 +11078,7 @@
       <c r="J247" s="22"/>
       <c r="K247" s="22"/>
     </row>
-    <row r="248" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="15.75">
       <c r="A248" s="22"/>
       <c r="B248" s="22"/>
       <c r="C248" s="16" t="s">
@@ -11102,7 +11101,7 @@
       <c r="J248" s="22"/>
       <c r="K248" s="22"/>
     </row>
-    <row r="249" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="15.75">
       <c r="A249" s="22"/>
       <c r="B249" s="22"/>
       <c r="C249" s="16" t="s">
@@ -11125,7 +11124,7 @@
       <c r="J249" s="22"/>
       <c r="K249" s="22"/>
     </row>
-    <row r="250" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="15.75">
       <c r="A250" s="22"/>
       <c r="B250" s="22"/>
       <c r="C250" s="16" t="s">
@@ -11148,7 +11147,7 @@
       <c r="J250" s="22"/>
       <c r="K250" s="22"/>
     </row>
-    <row r="251" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="15.75">
       <c r="A251" s="22"/>
       <c r="B251" s="22"/>
       <c r="C251" s="16" t="s">
@@ -11171,7 +11170,7 @@
       <c r="J251" s="22"/>
       <c r="K251" s="22"/>
     </row>
-    <row r="252" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="15.75">
       <c r="A252" s="22"/>
       <c r="B252" s="22"/>
       <c r="C252" s="16" t="s">
@@ -11194,7 +11193,7 @@
       <c r="J252" s="22"/>
       <c r="K252" s="22"/>
     </row>
-    <row r="253" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="15.75">
       <c r="A253" s="22"/>
       <c r="B253" s="22"/>
       <c r="C253" s="16" t="s">
@@ -11217,7 +11216,7 @@
       <c r="J253" s="22"/>
       <c r="K253" s="22"/>
     </row>
-    <row r="254" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="15.75">
       <c r="A254" s="22"/>
       <c r="B254" s="22"/>
       <c r="C254" s="16" t="s">
@@ -11240,7 +11239,7 @@
       <c r="J254" s="22"/>
       <c r="K254" s="22"/>
     </row>
-    <row r="255" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="15.75">
       <c r="A255" s="22"/>
       <c r="B255" s="22"/>
       <c r="C255" s="16" t="s">
@@ -11263,7 +11262,7 @@
       <c r="J255" s="22"/>
       <c r="K255" s="22"/>
     </row>
-    <row r="256" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="15.75">
       <c r="A256" s="22"/>
       <c r="B256" s="22"/>
       <c r="C256" s="16" t="s">
@@ -11286,7 +11285,7 @@
       <c r="J256" s="22"/>
       <c r="K256" s="22"/>
     </row>
-    <row r="257" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="15.75">
       <c r="A257" s="22"/>
       <c r="B257" s="22"/>
       <c r="C257" s="16" t="s">
@@ -11309,7 +11308,7 @@
       <c r="J257" s="22"/>
       <c r="K257" s="22"/>
     </row>
-    <row r="258" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="15.75">
       <c r="A258" s="22"/>
       <c r="B258" s="22"/>
       <c r="C258" s="16" t="s">
@@ -11332,7 +11331,7 @@
       <c r="J258" s="22"/>
       <c r="K258" s="22"/>
     </row>
-    <row r="259" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="15.75">
       <c r="A259" s="22"/>
       <c r="B259" s="22"/>
       <c r="C259" s="16" t="s">
@@ -11355,7 +11354,7 @@
       <c r="J259" s="22"/>
       <c r="K259" s="22"/>
     </row>
-    <row r="260" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="15.75">
       <c r="A260" s="22"/>
       <c r="B260" s="22"/>
       <c r="C260" s="16" t="s">
@@ -11378,7 +11377,7 @@
       <c r="J260" s="22"/>
       <c r="K260" s="22"/>
     </row>
-    <row r="261" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="15.75">
       <c r="A261" s="22"/>
       <c r="B261" s="22"/>
       <c r="C261" s="16" t="s">
@@ -11401,7 +11400,7 @@
       <c r="J261" s="22"/>
       <c r="K261" s="22"/>
     </row>
-    <row r="262" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="15.75">
       <c r="A262" s="22"/>
       <c r="B262" s="22"/>
       <c r="C262" s="16" t="s">
@@ -11424,7 +11423,7 @@
       <c r="J262" s="22"/>
       <c r="K262" s="22"/>
     </row>
-    <row r="263" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="15.75">
       <c r="A263" s="22"/>
       <c r="B263" s="22"/>
       <c r="C263" s="16" t="s">
@@ -11447,7 +11446,7 @@
       <c r="J263" s="22"/>
       <c r="K263" s="22"/>
     </row>
-    <row r="264" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="15.75">
       <c r="A264" s="22"/>
       <c r="B264" s="22"/>
       <c r="C264" s="16" t="s">
@@ -11470,7 +11469,7 @@
       <c r="J264" s="22"/>
       <c r="K264" s="22"/>
     </row>
-    <row r="265" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="15.75">
       <c r="A265" s="22"/>
       <c r="B265" s="22"/>
       <c r="C265" s="16" t="s">
@@ -11493,7 +11492,7 @@
       <c r="J265" s="22"/>
       <c r="K265" s="22"/>
     </row>
-    <row r="266" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="15.75">
       <c r="A266" s="22"/>
       <c r="B266" s="22"/>
       <c r="C266" s="16" t="s">
@@ -11516,7 +11515,7 @@
       <c r="J266" s="22"/>
       <c r="K266" s="22"/>
     </row>
-    <row r="267" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="15.75">
       <c r="A267" s="22"/>
       <c r="B267" s="22"/>
       <c r="C267" s="16" t="s">
@@ -11539,7 +11538,7 @@
       <c r="J267" s="22"/>
       <c r="K267" s="22"/>
     </row>
-    <row r="268" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="15.75">
       <c r="A268" s="22"/>
       <c r="B268" s="22"/>
       <c r="C268" s="16" t="s">
@@ -11562,7 +11561,7 @@
       <c r="J268" s="22"/>
       <c r="K268" s="22"/>
     </row>
-    <row r="269" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="15.75">
       <c r="A269" s="22"/>
       <c r="B269" s="22"/>
       <c r="C269" s="16" t="s">
@@ -11585,7 +11584,7 @@
       <c r="J269" s="22"/>
       <c r="K269" s="22"/>
     </row>
-    <row r="270" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="15.75">
       <c r="A270" s="22"/>
       <c r="B270" s="22"/>
       <c r="C270" s="16" t="s">
@@ -11608,7 +11607,7 @@
       <c r="J270" s="22"/>
       <c r="K270" s="22"/>
     </row>
-    <row r="271" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="15.75">
       <c r="A271" s="22"/>
       <c r="B271" s="22"/>
       <c r="C271" s="16" t="s">
@@ -11631,7 +11630,7 @@
       <c r="J271" s="22"/>
       <c r="K271" s="22"/>
     </row>
-    <row r="272" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="15.75">
       <c r="A272" s="22"/>
       <c r="B272" s="22"/>
       <c r="C272" s="16" t="s">
@@ -11654,7 +11653,7 @@
       <c r="J272" s="22"/>
       <c r="K272" s="22"/>
     </row>
-    <row r="273" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="15.75">
       <c r="A273" s="22"/>
       <c r="B273" s="22"/>
       <c r="C273" s="16" t="s">
@@ -11677,7 +11676,7 @@
       <c r="J273" s="22"/>
       <c r="K273" s="22"/>
     </row>
-    <row r="274" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="15.75">
       <c r="A274" s="22"/>
       <c r="B274" s="22"/>
       <c r="C274" s="16" t="s">
@@ -11700,7 +11699,7 @@
       <c r="J274" s="22"/>
       <c r="K274" s="22"/>
     </row>
-    <row r="275" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="15.75">
       <c r="A275" s="22"/>
       <c r="B275" s="22"/>
       <c r="C275" s="16" t="s">
@@ -11723,7 +11722,7 @@
       <c r="J275" s="22"/>
       <c r="K275" s="22"/>
     </row>
-    <row r="276" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="15.75">
       <c r="A276" s="22"/>
       <c r="B276" s="22"/>
       <c r="C276" s="16" t="s">
@@ -11746,7 +11745,7 @@
       <c r="J276" s="22"/>
       <c r="K276" s="22"/>
     </row>
-    <row r="277" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="15.75">
       <c r="A277" s="22"/>
       <c r="B277" s="22"/>
       <c r="C277" s="16" t="s">
@@ -11769,7 +11768,7 @@
       <c r="J277" s="22"/>
       <c r="K277" s="22"/>
     </row>
-    <row r="278" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="15.75">
       <c r="A278" s="22"/>
       <c r="B278" s="22"/>
       <c r="C278" s="16" t="s">
@@ -11792,7 +11791,7 @@
       <c r="J278" s="22"/>
       <c r="K278" s="22"/>
     </row>
-    <row r="279" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="15.75">
       <c r="A279" s="22"/>
       <c r="B279" s="22"/>
       <c r="C279" s="16" t="s">
@@ -11815,7 +11814,7 @@
       <c r="J279" s="22"/>
       <c r="K279" s="22"/>
     </row>
-    <row r="280" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="15.75">
       <c r="A280" s="22"/>
       <c r="B280" s="22"/>
       <c r="C280" s="16" t="s">
@@ -11838,7 +11837,7 @@
       <c r="J280" s="22"/>
       <c r="K280" s="22"/>
     </row>
-    <row r="281" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="15.75">
       <c r="A281" s="22"/>
       <c r="B281" s="22"/>
       <c r="C281" s="16" t="s">
@@ -11861,7 +11860,7 @@
       <c r="J281" s="22"/>
       <c r="K281" s="22"/>
     </row>
-    <row r="282" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="15.75">
       <c r="A282" s="22"/>
       <c r="B282" s="22"/>
       <c r="C282" s="16" t="s">
@@ -11884,7 +11883,7 @@
       <c r="J282" s="22"/>
       <c r="K282" s="22"/>
     </row>
-    <row r="283" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="15.75">
       <c r="A283" s="22"/>
       <c r="B283" s="22"/>
       <c r="C283" s="16" t="s">
@@ -11907,7 +11906,7 @@
       <c r="J283" s="22"/>
       <c r="K283" s="22"/>
     </row>
-    <row r="284" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="15.75">
       <c r="A284" s="22"/>
       <c r="B284" s="22"/>
       <c r="C284" s="16" t="s">
@@ -11930,7 +11929,7 @@
       <c r="J284" s="22"/>
       <c r="K284" s="22"/>
     </row>
-    <row r="285" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="15.75">
       <c r="A285" s="22"/>
       <c r="B285" s="22"/>
       <c r="C285" s="16" t="s">
@@ -11953,7 +11952,7 @@
       <c r="J285" s="22"/>
       <c r="K285" s="22"/>
     </row>
-    <row r="286" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="15.75">
       <c r="A286" s="22"/>
       <c r="B286" s="22"/>
       <c r="C286" s="16" t="s">
@@ -11976,7 +11975,7 @@
       <c r="J286" s="22"/>
       <c r="K286" s="22"/>
     </row>
-    <row r="287" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="15.75">
       <c r="A287" s="22"/>
       <c r="B287" s="22"/>
       <c r="C287" s="16" t="s">
@@ -11999,7 +11998,7 @@
       <c r="J287" s="22"/>
       <c r="K287" s="22"/>
     </row>
-    <row r="288" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="15.75">
       <c r="A288" s="22"/>
       <c r="B288" s="22"/>
       <c r="C288" s="16" t="s">
@@ -12022,7 +12021,7 @@
       <c r="J288" s="22"/>
       <c r="K288" s="22"/>
     </row>
-    <row r="289" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="15.75">
       <c r="A289" s="22"/>
       <c r="B289" s="22"/>
       <c r="C289" s="16" t="s">
@@ -12045,7 +12044,7 @@
       <c r="J289" s="22"/>
       <c r="K289" s="22"/>
     </row>
-    <row r="290" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="15.75">
       <c r="A290" s="22"/>
       <c r="B290" s="22"/>
       <c r="C290" s="16" t="s">
@@ -12068,7 +12067,7 @@
       <c r="J290" s="22"/>
       <c r="K290" s="22"/>
     </row>
-    <row r="291" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="15.75">
       <c r="A291" s="22"/>
       <c r="B291" s="22"/>
       <c r="C291" s="16" t="s">
@@ -12091,7 +12090,7 @@
       <c r="J291" s="22"/>
       <c r="K291" s="22"/>
     </row>
-    <row r="292" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="15.75">
       <c r="A292" s="22"/>
       <c r="B292" s="22"/>
       <c r="C292" s="16" t="s">
@@ -12114,7 +12113,7 @@
       <c r="J292" s="22"/>
       <c r="K292" s="22"/>
     </row>
-    <row r="293" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="15.75">
       <c r="A293" s="22"/>
       <c r="B293" s="22"/>
       <c r="C293" s="16" t="s">
@@ -12137,7 +12136,7 @@
       <c r="J293" s="22"/>
       <c r="K293" s="22"/>
     </row>
-    <row r="294" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="15.75">
       <c r="A294" s="22"/>
       <c r="B294" s="22"/>
       <c r="C294" s="16" t="s">
@@ -12160,7 +12159,7 @@
       <c r="J294" s="22"/>
       <c r="K294" s="22"/>
     </row>
-    <row r="295" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="15.75">
       <c r="A295" s="22"/>
       <c r="B295" s="22"/>
       <c r="C295" s="16" t="s">
@@ -12183,7 +12182,7 @@
       <c r="J295" s="22"/>
       <c r="K295" s="22"/>
     </row>
-    <row r="296" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="15.75">
       <c r="A296" s="22"/>
       <c r="B296" s="22"/>
       <c r="C296" s="16" t="s">
@@ -12206,7 +12205,7 @@
       <c r="J296" s="22"/>
       <c r="K296" s="22"/>
     </row>
-    <row r="297" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="15.75">
       <c r="A297" s="22"/>
       <c r="B297" s="22"/>
       <c r="C297" s="16" t="s">
@@ -12229,7 +12228,7 @@
       <c r="J297" s="22"/>
       <c r="K297" s="22"/>
     </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="15.75">
       <c r="A298" s="22"/>
       <c r="B298" s="22"/>
       <c r="C298" s="16" t="s">
@@ -12252,7 +12251,7 @@
       <c r="J298" s="22"/>
       <c r="K298" s="22"/>
     </row>
-    <row r="299" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="15.75">
       <c r="A299" s="22"/>
       <c r="B299" s="22"/>
       <c r="C299" s="16" t="s">
@@ -12275,7 +12274,7 @@
       <c r="J299" s="22"/>
       <c r="K299" s="22"/>
     </row>
-    <row r="300" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="15.75">
       <c r="A300" s="22"/>
       <c r="B300" s="22"/>
       <c r="C300" s="16" t="s">
@@ -12298,7 +12297,7 @@
       <c r="J300" s="22"/>
       <c r="K300" s="22"/>
     </row>
-    <row r="301" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="15.75">
       <c r="A301" s="22"/>
       <c r="B301" s="22"/>
       <c r="C301" s="16" t="s">
@@ -12321,7 +12320,7 @@
       <c r="J301" s="22"/>
       <c r="K301" s="22"/>
     </row>
-    <row r="302" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="15.75">
       <c r="A302" s="22"/>
       <c r="B302" s="22"/>
       <c r="C302" s="16" t="s">
@@ -12344,7 +12343,7 @@
       <c r="J302" s="22"/>
       <c r="K302" s="22"/>
     </row>
-    <row r="303" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:11" ht="26.25">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="12" t="s">
@@ -12367,7 +12366,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="11"/>
     </row>
-    <row r="304" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="18.75">
       <c r="A304" s="18"/>
       <c r="B304" s="18"/>
       <c r="C304" s="19" t="s">
@@ -12390,7 +12389,7 @@
       <c r="J304" s="18"/>
       <c r="K304" s="18"/>
     </row>
-    <row r="305" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="15.75">
       <c r="A305" s="22"/>
       <c r="B305" s="22"/>
       <c r="C305" s="16" t="s">
@@ -12413,7 +12412,7 @@
       <c r="J305" s="22"/>
       <c r="K305" s="22"/>
     </row>
-    <row r="306" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="15.75">
       <c r="A306" s="22"/>
       <c r="B306" s="22"/>
       <c r="C306" s="16" t="s">
@@ -12436,7 +12435,7 @@
       <c r="J306" s="22"/>
       <c r="K306" s="22"/>
     </row>
-    <row r="307" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="15.75">
       <c r="A307" s="22"/>
       <c r="B307" s="22"/>
       <c r="C307" s="16" t="s">
@@ -12459,7 +12458,7 @@
       <c r="J307" s="22"/>
       <c r="K307" s="22"/>
     </row>
-    <row r="308" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="15.75">
       <c r="A308" s="22"/>
       <c r="B308" s="22"/>
       <c r="C308" s="16" t="s">
@@ -12482,7 +12481,7 @@
       <c r="J308" s="22"/>
       <c r="K308" s="22"/>
     </row>
-    <row r="309" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="15.75">
       <c r="A309" s="22"/>
       <c r="B309" s="22"/>
       <c r="C309" s="16" t="s">
@@ -12505,7 +12504,7 @@
       <c r="J309" s="22"/>
       <c r="K309" s="22"/>
     </row>
-    <row r="310" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="15.75">
       <c r="A310" s="22"/>
       <c r="B310" s="22"/>
       <c r="C310" s="16" t="s">
@@ -12528,7 +12527,7 @@
       <c r="J310" s="22"/>
       <c r="K310" s="22"/>
     </row>
-    <row r="311" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="15.75">
       <c r="A311" s="22"/>
       <c r="B311" s="22"/>
       <c r="C311" s="16" t="s">
@@ -12551,7 +12550,7 @@
       <c r="J311" s="22"/>
       <c r="K311" s="22"/>
     </row>
-    <row r="312" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="15.75">
       <c r="A312" s="22"/>
       <c r="B312" s="22"/>
       <c r="C312" s="16" t="s">
@@ -12574,7 +12573,7 @@
       <c r="J312" s="22"/>
       <c r="K312" s="22"/>
     </row>
-    <row r="313" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="15.75">
       <c r="A313" s="22"/>
       <c r="B313" s="22"/>
       <c r="C313" s="16" t="s">
@@ -12597,7 +12596,7 @@
       <c r="J313" s="22"/>
       <c r="K313" s="22"/>
     </row>
-    <row r="314" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="15.75">
       <c r="A314" s="22"/>
       <c r="B314" s="22"/>
       <c r="C314" s="16" t="s">
@@ -12620,7 +12619,7 @@
       <c r="J314" s="22"/>
       <c r="K314" s="22"/>
     </row>
-    <row r="315" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="15.75">
       <c r="A315" s="22"/>
       <c r="B315" s="22"/>
       <c r="C315" s="16" t="s">
@@ -12643,7 +12642,7 @@
       <c r="J315" s="22"/>
       <c r="K315" s="22"/>
     </row>
-    <row r="316" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="15.75">
       <c r="A316" s="22"/>
       <c r="B316" s="22"/>
       <c r="C316" s="16" t="s">
@@ -12666,7 +12665,7 @@
       <c r="J316" s="22"/>
       <c r="K316" s="22"/>
     </row>
-    <row r="317" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" ht="15.75">
       <c r="A317" s="22"/>
       <c r="B317" s="22"/>
       <c r="C317" s="16" t="s">
@@ -12689,7 +12688,7 @@
       <c r="J317" s="22"/>
       <c r="K317" s="22"/>
     </row>
-    <row r="318" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="15.75">
       <c r="A318" s="22"/>
       <c r="B318" s="22"/>
       <c r="C318" s="16" t="s">
@@ -12712,7 +12711,7 @@
       <c r="J318" s="22"/>
       <c r="K318" s="22"/>
     </row>
-    <row r="319" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="15.75">
       <c r="A319" s="22"/>
       <c r="B319" s="22"/>
       <c r="C319" s="16" t="s">
@@ -12735,7 +12734,7 @@
       <c r="J319" s="22"/>
       <c r="K319" s="22"/>
     </row>
-    <row r="320" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="15.75">
       <c r="A320" s="22"/>
       <c r="B320" s="22"/>
       <c r="C320" s="16" t="s">
@@ -12758,7 +12757,7 @@
       <c r="J320" s="22"/>
       <c r="K320" s="22"/>
     </row>
-    <row r="321" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="15.75">
       <c r="A321" s="22"/>
       <c r="B321" s="22"/>
       <c r="C321" s="16" t="s">
@@ -12781,7 +12780,7 @@
       <c r="J321" s="22"/>
       <c r="K321" s="22"/>
     </row>
-    <row r="322" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="15.75">
       <c r="A322" s="22"/>
       <c r="B322" s="22"/>
       <c r="C322" s="16" t="s">
@@ -12804,7 +12803,7 @@
       <c r="J322" s="22"/>
       <c r="K322" s="22"/>
     </row>
-    <row r="323" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="15.75">
       <c r="A323" s="22"/>
       <c r="B323" s="22"/>
       <c r="C323" s="16" t="s">
@@ -12827,7 +12826,7 @@
       <c r="J323" s="22"/>
       <c r="K323" s="22"/>
     </row>
-    <row r="324" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="15.75">
       <c r="A324" s="22"/>
       <c r="B324" s="22"/>
       <c r="C324" s="16" t="s">
@@ -12850,7 +12849,7 @@
       <c r="J324" s="22"/>
       <c r="K324" s="22"/>
     </row>
-    <row r="325" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="15.75">
       <c r="A325" s="22"/>
       <c r="B325" s="22"/>
       <c r="C325" s="16" t="s">
@@ -12873,7 +12872,7 @@
       <c r="J325" s="22"/>
       <c r="K325" s="22"/>
     </row>
-    <row r="326" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="15.75">
       <c r="A326" s="22"/>
       <c r="B326" s="22"/>
       <c r="C326" s="16" t="s">
@@ -12896,7 +12895,7 @@
       <c r="J326" s="22"/>
       <c r="K326" s="22"/>
     </row>
-    <row r="327" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="15.75">
       <c r="A327" s="22"/>
       <c r="B327" s="22"/>
       <c r="C327" s="16" t="s">
@@ -12919,7 +12918,7 @@
       <c r="J327" s="22"/>
       <c r="K327" s="22"/>
     </row>
-    <row r="328" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="15.75">
       <c r="A328" s="22"/>
       <c r="B328" s="22"/>
       <c r="C328" s="16" t="s">
@@ -12942,7 +12941,7 @@
       <c r="J328" s="22"/>
       <c r="K328" s="22"/>
     </row>
-    <row r="329" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="15.75">
       <c r="A329" s="22"/>
       <c r="B329" s="22"/>
       <c r="C329" s="16" t="s">
@@ -12965,7 +12964,7 @@
       <c r="J329" s="22"/>
       <c r="K329" s="22"/>
     </row>
-    <row r="330" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="15.75">
       <c r="A330" s="22"/>
       <c r="B330" s="22"/>
       <c r="C330" s="16" t="s">
@@ -12988,7 +12987,7 @@
       <c r="J330" s="22"/>
       <c r="K330" s="22"/>
     </row>
-    <row r="331" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="15.75">
       <c r="A331" s="22"/>
       <c r="B331" s="22"/>
       <c r="C331" s="16" t="s">
@@ -13011,7 +13010,7 @@
       <c r="J331" s="22"/>
       <c r="K331" s="22"/>
     </row>
-    <row r="332" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="15.75">
       <c r="A332" s="22"/>
       <c r="B332" s="22"/>
       <c r="C332" s="16" t="s">
@@ -13034,7 +13033,7 @@
       <c r="J332" s="22"/>
       <c r="K332" s="22"/>
     </row>
-    <row r="333" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="15.75">
       <c r="A333" s="22"/>
       <c r="B333" s="22"/>
       <c r="C333" s="16" t="s">
@@ -13057,7 +13056,7 @@
       <c r="J333" s="22"/>
       <c r="K333" s="22"/>
     </row>
-    <row r="334" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="15.75">
       <c r="A334" s="22"/>
       <c r="B334" s="22"/>
       <c r="C334" s="16" t="s">
@@ -13080,7 +13079,7 @@
       <c r="J334" s="22"/>
       <c r="K334" s="22"/>
     </row>
-    <row r="335" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="15.75">
       <c r="A335" s="22"/>
       <c r="B335" s="22"/>
       <c r="C335" s="16" t="s">
@@ -13103,7 +13102,7 @@
       <c r="J335" s="22"/>
       <c r="K335" s="22"/>
     </row>
-    <row r="336" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="15.75">
       <c r="A336" s="22"/>
       <c r="B336" s="22"/>
       <c r="C336" s="16" t="s">
@@ -13126,7 +13125,7 @@
       <c r="J336" s="22"/>
       <c r="K336" s="22"/>
     </row>
-    <row r="337" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="15.75">
       <c r="A337" s="22"/>
       <c r="B337" s="22"/>
       <c r="C337" s="16" t="s">
@@ -13149,7 +13148,7 @@
       <c r="J337" s="22"/>
       <c r="K337" s="22"/>
     </row>
-    <row r="338" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="15.75">
       <c r="A338" s="22"/>
       <c r="B338" s="22"/>
       <c r="C338" s="16" t="s">
@@ -13172,7 +13171,7 @@
       <c r="J338" s="22"/>
       <c r="K338" s="22"/>
     </row>
-    <row r="339" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="15.75">
       <c r="A339" s="22"/>
       <c r="B339" s="22"/>
       <c r="C339" s="16" t="s">
@@ -13195,7 +13194,7 @@
       <c r="J339" s="22"/>
       <c r="K339" s="22"/>
     </row>
-    <row r="340" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="15.75">
       <c r="A340" s="22"/>
       <c r="B340" s="22"/>
       <c r="C340" s="16" t="s">
@@ -13218,7 +13217,7 @@
       <c r="J340" s="22"/>
       <c r="K340" s="22"/>
     </row>
-    <row r="341" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="15.75">
       <c r="A341" s="22"/>
       <c r="B341" s="22"/>
       <c r="C341" s="16" t="s">
@@ -13241,7 +13240,7 @@
       <c r="J341" s="22"/>
       <c r="K341" s="22"/>
     </row>
-    <row r="342" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="15.75">
       <c r="A342" s="22"/>
       <c r="B342" s="22"/>
       <c r="C342" s="16" t="s">
@@ -13264,7 +13263,7 @@
       <c r="J342" s="22"/>
       <c r="K342" s="22"/>
     </row>
-    <row r="343" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="15.75">
       <c r="A343" s="22"/>
       <c r="B343" s="22"/>
       <c r="C343" s="16" t="s">
@@ -13287,7 +13286,7 @@
       <c r="J343" s="22"/>
       <c r="K343" s="22"/>
     </row>
-    <row r="344" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="15.75">
       <c r="A344" s="22"/>
       <c r="B344" s="22"/>
       <c r="C344" s="16" t="s">
@@ -13310,7 +13309,7 @@
       <c r="J344" s="22"/>
       <c r="K344" s="22"/>
     </row>
-    <row r="345" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="15.75">
       <c r="A345" s="22"/>
       <c r="B345" s="22"/>
       <c r="C345" s="16" t="s">
@@ -13333,7 +13332,7 @@
       <c r="J345" s="22"/>
       <c r="K345" s="22"/>
     </row>
-    <row r="346" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="15.75">
       <c r="A346" s="22"/>
       <c r="B346" s="22"/>
       <c r="C346" s="16" t="s">
@@ -13356,7 +13355,7 @@
       <c r="J346" s="22"/>
       <c r="K346" s="22"/>
     </row>
-    <row r="347" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="15.75">
       <c r="A347" s="22"/>
       <c r="B347" s="22"/>
       <c r="C347" s="16" t="s">
@@ -13379,7 +13378,7 @@
       <c r="J347" s="22"/>
       <c r="K347" s="22"/>
     </row>
-    <row r="348" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="15.75">
       <c r="A348" s="22"/>
       <c r="B348" s="22"/>
       <c r="C348" s="16" t="s">
@@ -13402,7 +13401,7 @@
       <c r="J348" s="22"/>
       <c r="K348" s="22"/>
     </row>
-    <row r="349" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="15.75">
       <c r="A349" s="22"/>
       <c r="B349" s="22"/>
       <c r="C349" s="16" t="s">
@@ -13425,7 +13424,7 @@
       <c r="J349" s="22"/>
       <c r="K349" s="22"/>
     </row>
-    <row r="350" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="15.75">
       <c r="A350" s="22"/>
       <c r="B350" s="22"/>
       <c r="C350" s="16" t="s">
@@ -13448,7 +13447,7 @@
       <c r="J350" s="22"/>
       <c r="K350" s="22"/>
     </row>
-    <row r="351" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="15.75">
       <c r="A351" s="22"/>
       <c r="B351" s="22"/>
       <c r="C351" s="16" t="s">
@@ -13471,7 +13470,7 @@
       <c r="J351" s="22"/>
       <c r="K351" s="22"/>
     </row>
-    <row r="352" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="15.75">
       <c r="A352" s="22"/>
       <c r="B352" s="22"/>
       <c r="C352" s="16" t="s">
@@ -13494,7 +13493,7 @@
       <c r="J352" s="22"/>
       <c r="K352" s="22"/>
     </row>
-    <row r="353" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="15.75">
       <c r="A353" s="22"/>
       <c r="B353" s="22"/>
       <c r="C353" s="16" t="s">
@@ -13517,7 +13516,7 @@
       <c r="J353" s="22"/>
       <c r="K353" s="22"/>
     </row>
-    <row r="354" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="15.75">
       <c r="A354" s="22"/>
       <c r="B354" s="22"/>
       <c r="C354" s="16" t="s">
@@ -13540,7 +13539,7 @@
       <c r="J354" s="22"/>
       <c r="K354" s="22"/>
     </row>
-    <row r="355" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="15.75">
       <c r="A355" s="22"/>
       <c r="B355" s="22"/>
       <c r="C355" s="16" t="s">
@@ -13563,7 +13562,7 @@
       <c r="J355" s="22"/>
       <c r="K355" s="22"/>
     </row>
-    <row r="356" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="15.75">
       <c r="A356" s="22"/>
       <c r="B356" s="22"/>
       <c r="C356" s="16" t="s">
@@ -13586,7 +13585,7 @@
       <c r="J356" s="22"/>
       <c r="K356" s="22"/>
     </row>
-    <row r="357" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="15.75">
       <c r="A357" s="22"/>
       <c r="B357" s="22"/>
       <c r="C357" s="16" t="s">
@@ -13609,7 +13608,7 @@
       <c r="J357" s="22"/>
       <c r="K357" s="22"/>
     </row>
-    <row r="358" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="15.75">
       <c r="A358" s="22"/>
       <c r="B358" s="22"/>
       <c r="C358" s="16" t="s">
@@ -13632,7 +13631,7 @@
       <c r="J358" s="22"/>
       <c r="K358" s="22"/>
     </row>
-    <row r="359" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="15.75">
       <c r="A359" s="22"/>
       <c r="B359" s="22"/>
       <c r="C359" s="16" t="s">
@@ -13655,7 +13654,7 @@
       <c r="J359" s="22"/>
       <c r="K359" s="22"/>
     </row>
-    <row r="360" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="15.75">
       <c r="A360" s="22"/>
       <c r="B360" s="22"/>
       <c r="C360" s="16" t="s">
@@ -13678,7 +13677,7 @@
       <c r="J360" s="22"/>
       <c r="K360" s="22"/>
     </row>
-    <row r="361" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="15.75">
       <c r="A361" s="22"/>
       <c r="B361" s="22"/>
       <c r="C361" s="16" t="s">
@@ -13701,7 +13700,7 @@
       <c r="J361" s="22"/>
       <c r="K361" s="22"/>
     </row>
-    <row r="362" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="15.75">
       <c r="A362" s="22"/>
       <c r="B362" s="22"/>
       <c r="C362" s="16" t="s">
@@ -13724,7 +13723,7 @@
       <c r="J362" s="22"/>
       <c r="K362" s="22"/>
     </row>
-    <row r="363" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="15.75">
       <c r="A363" s="22"/>
       <c r="B363" s="22"/>
       <c r="C363" s="16" t="s">
@@ -13747,7 +13746,7 @@
       <c r="J363" s="22"/>
       <c r="K363" s="22"/>
     </row>
-    <row r="364" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="15.75">
       <c r="A364" s="22"/>
       <c r="B364" s="22"/>
       <c r="C364" s="16" t="s">
@@ -13770,7 +13769,7 @@
       <c r="J364" s="22"/>
       <c r="K364" s="22"/>
     </row>
-    <row r="365" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="15.75">
       <c r="A365" s="22"/>
       <c r="B365" s="22"/>
       <c r="C365" s="16" t="s">
@@ -13793,7 +13792,7 @@
       <c r="J365" s="22"/>
       <c r="K365" s="22"/>
     </row>
-    <row r="366" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="15.75">
       <c r="A366" s="22"/>
       <c r="B366" s="22"/>
       <c r="C366" s="16" t="s">
@@ -13816,7 +13815,7 @@
       <c r="J366" s="22"/>
       <c r="K366" s="22"/>
     </row>
-    <row r="367" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="15.75">
       <c r="A367" s="22"/>
       <c r="B367" s="22"/>
       <c r="C367" s="16" t="s">
@@ -13839,7 +13838,7 @@
       <c r="J367" s="22"/>
       <c r="K367" s="22"/>
     </row>
-    <row r="368" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="15.75">
       <c r="A368" s="22"/>
       <c r="B368" s="22"/>
       <c r="C368" s="16" t="s">
@@ -13862,7 +13861,7 @@
       <c r="J368" s="22"/>
       <c r="K368" s="22"/>
     </row>
-    <row r="369" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="15.75">
       <c r="A369" s="22"/>
       <c r="B369" s="22"/>
       <c r="C369" s="16" t="s">
@@ -13885,7 +13884,7 @@
       <c r="J369" s="22"/>
       <c r="K369" s="22"/>
     </row>
-    <row r="370" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="15.75">
       <c r="A370" s="22"/>
       <c r="B370" s="22"/>
       <c r="C370" s="16" t="s">
@@ -13908,7 +13907,7 @@
       <c r="J370" s="22"/>
       <c r="K370" s="22"/>
     </row>
-    <row r="371" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="15.75">
       <c r="A371" s="22"/>
       <c r="B371" s="22"/>
       <c r="C371" s="16" t="s">
@@ -13931,7 +13930,7 @@
       <c r="J371" s="22"/>
       <c r="K371" s="22"/>
     </row>
-    <row r="372" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="15.75">
       <c r="A372" s="22"/>
       <c r="B372" s="22"/>
       <c r="C372" s="16" t="s">
@@ -13954,7 +13953,7 @@
       <c r="J372" s="22"/>
       <c r="K372" s="22"/>
     </row>
-    <row r="373" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" ht="15.75">
       <c r="A373" s="22"/>
       <c r="B373" s="22"/>
       <c r="C373" s="16" t="s">
@@ -13977,7 +13976,7 @@
       <c r="J373" s="22"/>
       <c r="K373" s="22"/>
     </row>
-    <row r="374" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="15.75">
       <c r="A374" s="22"/>
       <c r="B374" s="22"/>
       <c r="C374" s="16" t="s">
@@ -14000,7 +13999,7 @@
       <c r="J374" s="22"/>
       <c r="K374" s="22"/>
     </row>
-    <row r="375" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="15.75">
       <c r="A375" s="22"/>
       <c r="B375" s="22"/>
       <c r="C375" s="16" t="s">
@@ -14023,7 +14022,7 @@
       <c r="J375" s="22"/>
       <c r="K375" s="22"/>
     </row>
-    <row r="376" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="15.75">
       <c r="A376" s="22"/>
       <c r="B376" s="22"/>
       <c r="C376" s="16" t="s">
@@ -14046,7 +14045,7 @@
       <c r="J376" s="22"/>
       <c r="K376" s="22"/>
     </row>
-    <row r="377" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="15.75">
       <c r="A377" s="22"/>
       <c r="B377" s="22"/>
       <c r="C377" s="16" t="s">
@@ -14069,7 +14068,7 @@
       <c r="J377" s="22"/>
       <c r="K377" s="22"/>
     </row>
-    <row r="378" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="15.75">
       <c r="A378" s="22"/>
       <c r="B378" s="22"/>
       <c r="C378" s="16" t="s">
@@ -14092,7 +14091,7 @@
       <c r="J378" s="22"/>
       <c r="K378" s="22"/>
     </row>
-    <row r="379" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" ht="15.75">
       <c r="A379" s="22"/>
       <c r="B379" s="22"/>
       <c r="C379" s="16" t="s">
@@ -14115,7 +14114,7 @@
       <c r="J379" s="22"/>
       <c r="K379" s="22"/>
     </row>
-    <row r="380" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="15.75">
       <c r="A380" s="22"/>
       <c r="B380" s="22"/>
       <c r="C380" s="16" t="s">
@@ -14138,7 +14137,7 @@
       <c r="J380" s="22"/>
       <c r="K380" s="22"/>
     </row>
-    <row r="381" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="15.75">
       <c r="A381" s="22"/>
       <c r="B381" s="22"/>
       <c r="C381" s="16" t="s">
@@ -14161,7 +14160,7 @@
       <c r="J381" s="22"/>
       <c r="K381" s="22"/>
     </row>
-    <row r="382" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="15.75">
       <c r="A382" s="22"/>
       <c r="B382" s="22"/>
       <c r="C382" s="16" t="s">
@@ -14184,7 +14183,7 @@
       <c r="J382" s="22"/>
       <c r="K382" s="22"/>
     </row>
-    <row r="383" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="15.75">
       <c r="A383" s="22"/>
       <c r="B383" s="22"/>
       <c r="C383" s="16" t="s">
@@ -14207,7 +14206,7 @@
       <c r="J383" s="22"/>
       <c r="K383" s="22"/>
     </row>
-    <row r="384" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="15.75">
       <c r="A384" s="22"/>
       <c r="B384" s="22"/>
       <c r="C384" s="16" t="s">
@@ -14230,7 +14229,7 @@
       <c r="J384" s="22"/>
       <c r="K384" s="22"/>
     </row>
-    <row r="385" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="15.75">
       <c r="A385" s="22"/>
       <c r="B385" s="22"/>
       <c r="C385" s="16" t="s">
@@ -14253,7 +14252,7 @@
       <c r="J385" s="22"/>
       <c r="K385" s="22"/>
     </row>
-    <row r="386" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="15.75">
       <c r="A386" s="22"/>
       <c r="B386" s="22"/>
       <c r="C386" s="16" t="s">
@@ -14276,7 +14275,7 @@
       <c r="J386" s="22"/>
       <c r="K386" s="22"/>
     </row>
-    <row r="387" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="15.75">
       <c r="A387" s="22"/>
       <c r="B387" s="22"/>
       <c r="C387" s="16" t="s">
@@ -14299,7 +14298,7 @@
       <c r="J387" s="22"/>
       <c r="K387" s="22"/>
     </row>
-    <row r="388" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" ht="18.75">
       <c r="A388" s="18"/>
       <c r="B388" s="18"/>
       <c r="C388" s="19" t="s">
@@ -14322,7 +14321,7 @@
       <c r="J388" s="18"/>
       <c r="K388" s="18"/>
     </row>
-    <row r="389" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="15.75">
       <c r="A389" s="22"/>
       <c r="B389" s="22"/>
       <c r="C389" s="16" t="s">
@@ -14345,7 +14344,7 @@
       <c r="J389" s="22"/>
       <c r="K389" s="22"/>
     </row>
-    <row r="390" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="15.75">
       <c r="A390" s="22"/>
       <c r="B390" s="22"/>
       <c r="C390" s="16" t="s">
@@ -14368,7 +14367,7 @@
       <c r="J390" s="22"/>
       <c r="K390" s="22"/>
     </row>
-    <row r="391" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="15.75">
       <c r="A391" s="22"/>
       <c r="B391" s="22"/>
       <c r="C391" s="16" t="s">
@@ -14391,7 +14390,7 @@
       <c r="J391" s="22"/>
       <c r="K391" s="22"/>
     </row>
-    <row r="392" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="15.75">
       <c r="A392" s="22"/>
       <c r="B392" s="22"/>
       <c r="C392" s="16" t="s">
@@ -14414,7 +14413,7 @@
       <c r="J392" s="22"/>
       <c r="K392" s="22"/>
     </row>
-    <row r="393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="15.75">
       <c r="A393" s="22"/>
       <c r="B393" s="22"/>
       <c r="C393" s="16" t="s">
@@ -14437,7 +14436,7 @@
       <c r="J393" s="22"/>
       <c r="K393" s="22"/>
     </row>
-    <row r="394" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="15.75">
       <c r="A394" s="22"/>
       <c r="B394" s="22"/>
       <c r="C394" s="16" t="s">
@@ -14460,7 +14459,7 @@
       <c r="J394" s="22"/>
       <c r="K394" s="22"/>
     </row>
-    <row r="395" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="15.75">
       <c r="A395" s="22"/>
       <c r="B395" s="22"/>
       <c r="C395" s="16" t="s">
@@ -14483,7 +14482,7 @@
       <c r="J395" s="22"/>
       <c r="K395" s="22"/>
     </row>
-    <row r="396" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="15.75">
       <c r="A396" s="22"/>
       <c r="B396" s="22"/>
       <c r="C396" s="16" t="s">
@@ -14506,7 +14505,7 @@
       <c r="J396" s="22"/>
       <c r="K396" s="22"/>
     </row>
-    <row r="397" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" ht="18.75">
       <c r="A397" s="18"/>
       <c r="B397" s="18"/>
       <c r="C397" s="19" t="s">
@@ -14529,7 +14528,7 @@
       <c r="J397" s="18"/>
       <c r="K397" s="18"/>
     </row>
-    <row r="398" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="15.75">
       <c r="A398" s="22"/>
       <c r="B398" s="22"/>
       <c r="C398" s="16" t="s">
@@ -14552,7 +14551,7 @@
       <c r="J398" s="22"/>
       <c r="K398" s="22"/>
     </row>
-    <row r="399" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="15.75">
       <c r="A399" s="22"/>
       <c r="B399" s="22"/>
       <c r="C399" s="16" t="s">
@@ -14575,7 +14574,7 @@
       <c r="J399" s="22"/>
       <c r="K399" s="22"/>
     </row>
-    <row r="400" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="15.75">
       <c r="A400" s="22"/>
       <c r="B400" s="22"/>
       <c r="C400" s="16" t="s">
@@ -14598,7 +14597,7 @@
       <c r="J400" s="22"/>
       <c r="K400" s="22"/>
     </row>
-    <row r="401" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="15.75">
       <c r="A401" s="22"/>
       <c r="B401" s="22"/>
       <c r="C401" s="16" t="s">
@@ -14621,7 +14620,7 @@
       <c r="J401" s="22"/>
       <c r="K401" s="22"/>
     </row>
-    <row r="402" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="15.75">
       <c r="A402" s="22"/>
       <c r="B402" s="22"/>
       <c r="C402" s="16" t="s">
@@ -14644,7 +14643,7 @@
       <c r="J402" s="22"/>
       <c r="K402" s="22"/>
     </row>
-    <row r="403" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="15.75">
       <c r="A403" s="22"/>
       <c r="B403" s="22"/>
       <c r="C403" s="16" t="s">
@@ -14667,7 +14666,7 @@
       <c r="J403" s="22"/>
       <c r="K403" s="22"/>
     </row>
-    <row r="404" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="15.75">
       <c r="A404" s="22"/>
       <c r="B404" s="22"/>
       <c r="C404" s="16" t="s">
@@ -14690,7 +14689,7 @@
       <c r="J404" s="22"/>
       <c r="K404" s="22"/>
     </row>
-    <row r="405" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="15.75">
       <c r="A405" s="22"/>
       <c r="B405" s="22"/>
       <c r="C405" s="16" t="s">
@@ -14713,7 +14712,7 @@
       <c r="J405" s="22"/>
       <c r="K405" s="22"/>
     </row>
-    <row r="406" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" ht="18.75">
       <c r="A406" s="18"/>
       <c r="B406" s="18"/>
       <c r="C406" s="19" t="s">
@@ -14736,7 +14735,7 @@
       <c r="J406" s="18"/>
       <c r="K406" s="18"/>
     </row>
-    <row r="407" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="15.75">
       <c r="A407" s="22"/>
       <c r="B407" s="22"/>
       <c r="C407" s="16" t="s">
@@ -14759,7 +14758,7 @@
       <c r="J407" s="22"/>
       <c r="K407" s="22"/>
     </row>
-    <row r="408" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="15.75">
       <c r="A408" s="22"/>
       <c r="B408" s="22"/>
       <c r="C408" s="16" t="s">
@@ -14784,7 +14783,7 @@
       <c r="J408" s="22"/>
       <c r="K408" s="22"/>
     </row>
-    <row r="409" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="15.75">
       <c r="A409" s="22"/>
       <c r="B409" s="22"/>
       <c r="C409" s="16" t="s">
@@ -14807,7 +14806,7 @@
       <c r="J409" s="22"/>
       <c r="K409" s="22"/>
     </row>
-    <row r="410" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="15.75">
       <c r="A410" s="22"/>
       <c r="B410" s="22"/>
       <c r="C410" s="16" t="s">
@@ -14830,7 +14829,7 @@
       <c r="J410" s="22"/>
       <c r="K410" s="22"/>
     </row>
-    <row r="411" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="15.75">
       <c r="A411" s="22"/>
       <c r="B411" s="22"/>
       <c r="C411" s="16" t="s">
@@ -14853,7 +14852,7 @@
       <c r="J411" s="22"/>
       <c r="K411" s="22"/>
     </row>
-    <row r="412" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="15.75">
       <c r="A412" s="22"/>
       <c r="B412" s="22"/>
       <c r="C412" s="16" t="s">
@@ -14878,7 +14877,7 @@
       <c r="J412" s="22"/>
       <c r="K412" s="22"/>
     </row>
-    <row r="413" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="15.75">
       <c r="A413" s="22"/>
       <c r="B413" s="22"/>
       <c r="C413" s="16" t="s">
@@ -14901,7 +14900,7 @@
       <c r="J413" s="22"/>
       <c r="K413" s="22"/>
     </row>
-    <row r="414" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="15.75">
       <c r="A414" s="22"/>
       <c r="B414" s="22"/>
       <c r="C414" s="16" t="s">
@@ -14924,7 +14923,7 @@
       <c r="J414" s="22"/>
       <c r="K414" s="22"/>
     </row>
-    <row r="415" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="15.75">
       <c r="A415" s="22"/>
       <c r="B415" s="22"/>
       <c r="C415" s="16" t="s">
@@ -14947,7 +14946,7 @@
       <c r="J415" s="22"/>
       <c r="K415" s="22"/>
     </row>
-    <row r="416" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="15.75">
       <c r="A416" s="22"/>
       <c r="B416" s="22"/>
       <c r="C416" s="16" t="s">
@@ -14970,7 +14969,7 @@
       <c r="J416" s="22"/>
       <c r="K416" s="22"/>
     </row>
-    <row r="417" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="15.75">
       <c r="A417" s="22"/>
       <c r="B417" s="22"/>
       <c r="C417" s="16" t="s">
@@ -14993,7 +14992,7 @@
       <c r="J417" s="22"/>
       <c r="K417" s="22"/>
     </row>
-    <row r="418" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="15.75">
       <c r="A418" s="22"/>
       <c r="B418" s="22"/>
       <c r="C418" s="16" t="s">
@@ -15016,7 +15015,7 @@
       <c r="J418" s="22"/>
       <c r="K418" s="22"/>
     </row>
-    <row r="419" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="15.75">
       <c r="A419" s="22"/>
       <c r="B419" s="22"/>
       <c r="C419" s="16" t="s">
@@ -15039,7 +15038,7 @@
       <c r="J419" s="22"/>
       <c r="K419" s="22"/>
     </row>
-    <row r="420" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="15.75">
       <c r="A420" s="22"/>
       <c r="B420" s="22"/>
       <c r="C420" s="16" t="s">
@@ -15064,7 +15063,7 @@
       <c r="J420" s="22"/>
       <c r="K420" s="22"/>
     </row>
-    <row r="421" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="15.75">
       <c r="A421" s="22"/>
       <c r="B421" s="22"/>
       <c r="C421" s="16" t="s">
@@ -15087,7 +15086,7 @@
       <c r="J421" s="22"/>
       <c r="K421" s="22"/>
     </row>
-    <row r="422" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="15.75">
       <c r="A422" s="22"/>
       <c r="B422" s="22"/>
       <c r="C422" s="16" t="s">
@@ -15112,7 +15111,7 @@
       <c r="J422" s="22"/>
       <c r="K422" s="22"/>
     </row>
-    <row r="423" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="15.75">
       <c r="A423" s="22"/>
       <c r="B423" s="22"/>
       <c r="C423" s="16" t="s">
@@ -15135,7 +15134,7 @@
       <c r="J423" s="22"/>
       <c r="K423" s="22"/>
     </row>
-    <row r="424" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="15.75">
       <c r="A424" s="22"/>
       <c r="B424" s="22"/>
       <c r="C424" s="16" t="s">
@@ -15158,7 +15157,7 @@
       <c r="J424" s="22"/>
       <c r="K424" s="22"/>
     </row>
-    <row r="425" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="15.75">
       <c r="A425" s="22"/>
       <c r="B425" s="22"/>
       <c r="C425" s="16" t="s">
@@ -15181,7 +15180,7 @@
       <c r="J425" s="22"/>
       <c r="K425" s="22"/>
     </row>
-    <row r="426" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="15.75">
       <c r="A426" s="22"/>
       <c r="B426" s="22"/>
       <c r="C426" s="16" t="s">
@@ -15204,7 +15203,7 @@
       <c r="J426" s="22"/>
       <c r="K426" s="22"/>
     </row>
-    <row r="427" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="15.75">
       <c r="A427" s="22"/>
       <c r="B427" s="22"/>
       <c r="C427" s="16" t="s">
@@ -15227,7 +15226,7 @@
       <c r="J427" s="22"/>
       <c r="K427" s="22"/>
     </row>
-    <row r="428" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="15.75">
       <c r="A428" s="22"/>
       <c r="B428" s="22"/>
       <c r="C428" s="16" t="s">
@@ -15252,7 +15251,7 @@
       <c r="J428" s="22"/>
       <c r="K428" s="22"/>
     </row>
-    <row r="429" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="15.75">
       <c r="A429" s="22"/>
       <c r="B429" s="22"/>
       <c r="C429" s="16" t="s">
@@ -15275,7 +15274,7 @@
       <c r="J429" s="22"/>
       <c r="K429" s="22"/>
     </row>
-    <row r="430" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" ht="18.75">
       <c r="A430" s="18"/>
       <c r="B430" s="18"/>
       <c r="C430" s="19" t="s">
@@ -15298,7 +15297,7 @@
       <c r="J430" s="18"/>
       <c r="K430" s="18"/>
     </row>
-    <row r="431" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="15.75">
       <c r="A431" s="22"/>
       <c r="B431" s="22"/>
       <c r="C431" s="16" t="s">
@@ -15321,7 +15320,7 @@
       <c r="J431" s="22"/>
       <c r="K431" s="22"/>
     </row>
-    <row r="432" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="15.75">
       <c r="A432" s="22"/>
       <c r="B432" s="22"/>
       <c r="C432" s="16" t="s">
@@ -15344,7 +15343,7 @@
       <c r="J432" s="22"/>
       <c r="K432" s="22"/>
     </row>
-    <row r="433" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="15.75">
       <c r="A433" s="22"/>
       <c r="B433" s="22"/>
       <c r="C433" s="16" t="s">
@@ -15367,7 +15366,7 @@
       <c r="J433" s="22"/>
       <c r="K433" s="22"/>
     </row>
-    <row r="434" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="15.75">
       <c r="A434" s="22"/>
       <c r="B434" s="22"/>
       <c r="C434" s="16" t="s">
@@ -15390,7 +15389,7 @@
       <c r="J434" s="22"/>
       <c r="K434" s="22"/>
     </row>
-    <row r="435" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="15.75">
       <c r="A435" s="22"/>
       <c r="B435" s="22"/>
       <c r="C435" s="16" t="s">
@@ -15413,7 +15412,7 @@
       <c r="J435" s="22"/>
       <c r="K435" s="22"/>
     </row>
-    <row r="436" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="15.75">
       <c r="A436" s="22"/>
       <c r="B436" s="22"/>
       <c r="C436" s="16" t="s">
@@ -15436,7 +15435,7 @@
       <c r="J436" s="22"/>
       <c r="K436" s="22"/>
     </row>
-    <row r="437" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="15.75">
       <c r="A437" s="22"/>
       <c r="B437" s="22"/>
       <c r="C437" s="16" t="s">
@@ -15459,7 +15458,7 @@
       <c r="J437" s="22"/>
       <c r="K437" s="22"/>
     </row>
-    <row r="438" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="15.75">
       <c r="A438" s="22"/>
       <c r="B438" s="22"/>
       <c r="C438" s="16" t="s">
@@ -15482,7 +15481,7 @@
       <c r="J438" s="22"/>
       <c r="K438" s="22"/>
     </row>
-    <row r="439" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="15.75">
       <c r="A439" s="22"/>
       <c r="B439" s="22"/>
       <c r="C439" s="16" t="s">
@@ -15505,7 +15504,7 @@
       <c r="J439" s="22"/>
       <c r="K439" s="22"/>
     </row>
-    <row r="440" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="15.75">
       <c r="A440" s="22"/>
       <c r="B440" s="22"/>
       <c r="C440" s="16" t="s">
@@ -15528,7 +15527,7 @@
       <c r="J440" s="22"/>
       <c r="K440" s="22"/>
     </row>
-    <row r="441" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="15.75">
       <c r="A441" s="22"/>
       <c r="B441" s="22"/>
       <c r="C441" s="16" t="s">
@@ -15551,7 +15550,7 @@
       <c r="J441" s="22"/>
       <c r="K441" s="22"/>
     </row>
-    <row r="442" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="15.75">
       <c r="A442" s="22"/>
       <c r="B442" s="22"/>
       <c r="C442" s="16" t="s">
@@ -15574,7 +15573,7 @@
       <c r="J442" s="22"/>
       <c r="K442" s="22"/>
     </row>
-    <row r="443" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="15.75">
       <c r="A443" s="22"/>
       <c r="B443" s="22"/>
       <c r="C443" s="16" t="s">
@@ -15597,7 +15596,7 @@
       <c r="J443" s="22"/>
       <c r="K443" s="22"/>
     </row>
-    <row r="444" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="15.75">
       <c r="A444" s="22"/>
       <c r="B444" s="22"/>
       <c r="C444" s="16" t="s">
@@ -15620,7 +15619,7 @@
       <c r="J444" s="22"/>
       <c r="K444" s="22"/>
     </row>
-    <row r="445" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="15.75">
       <c r="A445" s="22"/>
       <c r="B445" s="22"/>
       <c r="C445" s="16" t="s">
@@ -15643,7 +15642,7 @@
       <c r="J445" s="22"/>
       <c r="K445" s="22"/>
     </row>
-    <row r="446" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="15.75">
       <c r="A446" s="22"/>
       <c r="B446" s="22"/>
       <c r="C446" s="16" t="s">
@@ -15666,7 +15665,7 @@
       <c r="J446" s="22"/>
       <c r="K446" s="22"/>
     </row>
-    <row r="447" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="15.75">
       <c r="A447" s="22"/>
       <c r="B447" s="22"/>
       <c r="C447" s="16" t="s">
@@ -15689,7 +15688,7 @@
       <c r="J447" s="22"/>
       <c r="K447" s="22"/>
     </row>
-    <row r="448" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="15.75">
       <c r="A448" s="22"/>
       <c r="B448" s="22"/>
       <c r="C448" s="16" t="s">
@@ -15712,7 +15711,7 @@
       <c r="J448" s="22"/>
       <c r="K448" s="22"/>
     </row>
-    <row r="449" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="15.75">
       <c r="A449" s="22"/>
       <c r="B449" s="22"/>
       <c r="C449" s="16" t="s">
@@ -15735,7 +15734,7 @@
       <c r="J449" s="22"/>
       <c r="K449" s="22"/>
     </row>
-    <row r="450" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="15.75">
       <c r="A450" s="22"/>
       <c r="B450" s="22"/>
       <c r="C450" s="16" t="s">
@@ -15758,7 +15757,7 @@
       <c r="J450" s="22"/>
       <c r="K450" s="22"/>
     </row>
-    <row r="451" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="15.75">
       <c r="A451" s="22"/>
       <c r="B451" s="22"/>
       <c r="C451" s="16" t="s">
@@ -15781,7 +15780,7 @@
       <c r="J451" s="22"/>
       <c r="K451" s="22"/>
     </row>
-    <row r="452" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="15.75">
       <c r="A452" s="22"/>
       <c r="B452" s="22"/>
       <c r="C452" s="16" t="s">
@@ -15804,7 +15803,7 @@
       <c r="J452" s="22"/>
       <c r="K452" s="22"/>
     </row>
-    <row r="453" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="15.75">
       <c r="A453" s="22"/>
       <c r="B453" s="22"/>
       <c r="C453" s="16" t="s">
@@ -15827,7 +15826,7 @@
       <c r="J453" s="22"/>
       <c r="K453" s="22"/>
     </row>
-    <row r="454" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="15.75">
       <c r="A454" s="22"/>
       <c r="B454" s="22"/>
       <c r="C454" s="16" t="s">
@@ -15850,7 +15849,7 @@
       <c r="J454" s="22"/>
       <c r="K454" s="22"/>
     </row>
-    <row r="455" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="15.75">
       <c r="A455" s="22"/>
       <c r="B455" s="22"/>
       <c r="C455" s="16" t="s">
@@ -15873,7 +15872,7 @@
       <c r="J455" s="22"/>
       <c r="K455" s="22"/>
     </row>
-    <row r="456" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="15.75">
       <c r="A456" s="22"/>
       <c r="B456" s="22"/>
       <c r="C456" s="16" t="s">
@@ -15896,7 +15895,7 @@
       <c r="J456" s="22"/>
       <c r="K456" s="22"/>
     </row>
-    <row r="457" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="15.75">
       <c r="A457" s="22"/>
       <c r="B457" s="22"/>
       <c r="C457" s="16" t="s">
@@ -15919,7 +15918,7 @@
       <c r="J457" s="22"/>
       <c r="K457" s="22"/>
     </row>
-    <row r="458" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="15.75">
       <c r="A458" s="22"/>
       <c r="B458" s="22"/>
       <c r="C458" s="16" t="s">
@@ -15942,7 +15941,7 @@
       <c r="J458" s="22"/>
       <c r="K458" s="22"/>
     </row>
-    <row r="459" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="15.75">
       <c r="A459" s="22"/>
       <c r="B459" s="22"/>
       <c r="C459" s="16" t="s">
@@ -15965,7 +15964,7 @@
       <c r="J459" s="22"/>
       <c r="K459" s="22"/>
     </row>
-    <row r="460" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="15.75">
       <c r="A460" s="22"/>
       <c r="B460" s="22"/>
       <c r="C460" s="16" t="s">
@@ -15988,7 +15987,7 @@
       <c r="J460" s="22"/>
       <c r="K460" s="22"/>
     </row>
-    <row r="461" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="15.75">
       <c r="A461" s="22"/>
       <c r="B461" s="22"/>
       <c r="C461" s="16" t="s">
@@ -16011,7 +16010,7 @@
       <c r="J461" s="22"/>
       <c r="K461" s="22"/>
     </row>
-    <row r="462" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="15.75">
       <c r="A462" s="22"/>
       <c r="B462" s="22"/>
       <c r="C462" s="16" t="s">
@@ -16034,7 +16033,7 @@
       <c r="J462" s="22"/>
       <c r="K462" s="22"/>
     </row>
-    <row r="463" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="15.75">
       <c r="A463" s="22"/>
       <c r="B463" s="22"/>
       <c r="C463" s="16" t="s">
@@ -16057,7 +16056,7 @@
       <c r="J463" s="22"/>
       <c r="K463" s="22"/>
     </row>
-    <row r="464" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="15.75">
       <c r="A464" s="22"/>
       <c r="B464" s="22"/>
       <c r="C464" s="16" t="s">
@@ -16080,7 +16079,7 @@
       <c r="J464" s="22"/>
       <c r="K464" s="22"/>
     </row>
-    <row r="465" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="15.75">
       <c r="A465" s="22"/>
       <c r="B465" s="22"/>
       <c r="C465" s="16" t="s">
@@ -16103,7 +16102,7 @@
       <c r="J465" s="22"/>
       <c r="K465" s="22"/>
     </row>
-    <row r="466" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="15.75">
       <c r="A466" s="22"/>
       <c r="B466" s="22"/>
       <c r="C466" s="16" t="s">
@@ -16126,7 +16125,7 @@
       <c r="J466" s="22"/>
       <c r="K466" s="22"/>
     </row>
-    <row r="467" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="15.75">
       <c r="A467" s="22"/>
       <c r="B467" s="22"/>
       <c r="C467" s="16" t="s">
@@ -16149,7 +16148,7 @@
       <c r="J467" s="22"/>
       <c r="K467" s="22"/>
     </row>
-    <row r="468" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="15.75">
       <c r="A468" s="22"/>
       <c r="B468" s="22"/>
       <c r="C468" s="16" t="s">
@@ -16172,7 +16171,7 @@
       <c r="J468" s="22"/>
       <c r="K468" s="22"/>
     </row>
-    <row r="469" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="15.75">
       <c r="A469" s="22"/>
       <c r="B469" s="22"/>
       <c r="C469" s="16" t="s">
@@ -16195,7 +16194,7 @@
       <c r="J469" s="22"/>
       <c r="K469" s="22"/>
     </row>
-    <row r="470" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="15.75">
       <c r="A470" s="22"/>
       <c r="B470" s="22"/>
       <c r="C470" s="16" t="s">
@@ -16218,7 +16217,7 @@
       <c r="J470" s="22"/>
       <c r="K470" s="22"/>
     </row>
-    <row r="471" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="15.75">
       <c r="A471" s="22"/>
       <c r="B471" s="22"/>
       <c r="C471" s="16" t="s">
@@ -16241,7 +16240,7 @@
       <c r="J471" s="22"/>
       <c r="K471" s="22"/>
     </row>
-    <row r="472" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="15.75">
       <c r="A472" s="22"/>
       <c r="B472" s="22"/>
       <c r="C472" s="16" t="s">
@@ -16264,7 +16263,7 @@
       <c r="J472" s="22"/>
       <c r="K472" s="22"/>
     </row>
-    <row r="473" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="15.75">
       <c r="A473" s="22"/>
       <c r="B473" s="22"/>
       <c r="C473" s="16" t="s">
@@ -16287,7 +16286,7 @@
       <c r="J473" s="22"/>
       <c r="K473" s="22"/>
     </row>
-    <row r="474" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="15.75">
       <c r="A474" s="22"/>
       <c r="B474" s="22"/>
       <c r="C474" s="16" t="s">
@@ -16310,7 +16309,7 @@
       <c r="J474" s="22"/>
       <c r="K474" s="22"/>
     </row>
-    <row r="475" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="15.75">
       <c r="A475" s="22"/>
       <c r="B475" s="22"/>
       <c r="C475" s="16" t="s">
@@ -16333,7 +16332,7 @@
       <c r="J475" s="22"/>
       <c r="K475" s="22"/>
     </row>
-    <row r="476" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="15.75">
       <c r="A476" s="22"/>
       <c r="B476" s="22"/>
       <c r="C476" s="16" t="s">
@@ -16356,7 +16355,7 @@
       <c r="J476" s="22"/>
       <c r="K476" s="22"/>
     </row>
-    <row r="477" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="15.75">
       <c r="A477" s="22"/>
       <c r="B477" s="22"/>
       <c r="C477" s="16" t="s">
@@ -16379,7 +16378,7 @@
       <c r="J477" s="22"/>
       <c r="K477" s="22"/>
     </row>
-    <row r="478" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="15.75">
       <c r="A478" s="22"/>
       <c r="B478" s="22"/>
       <c r="C478" s="16" t="s">
@@ -16402,7 +16401,7 @@
       <c r="J478" s="22"/>
       <c r="K478" s="22"/>
     </row>
-    <row r="479" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="15.75">
       <c r="A479" s="22"/>
       <c r="B479" s="22"/>
       <c r="C479" s="16" t="s">
@@ -16425,7 +16424,7 @@
       <c r="J479" s="22"/>
       <c r="K479" s="22"/>
     </row>
-    <row r="480" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="15.75">
       <c r="A480" s="22"/>
       <c r="B480" s="22"/>
       <c r="C480" s="16" t="s">
@@ -16448,7 +16447,7 @@
       <c r="J480" s="22"/>
       <c r="K480" s="22"/>
     </row>
-    <row r="481" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="15.75">
       <c r="A481" s="22"/>
       <c r="B481" s="22"/>
       <c r="C481" s="16" t="s">
@@ -16471,7 +16470,7 @@
       <c r="J481" s="22"/>
       <c r="K481" s="22"/>
     </row>
-    <row r="482" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="15.75">
       <c r="A482" s="22"/>
       <c r="B482" s="22"/>
       <c r="C482" s="16" t="s">
@@ -16494,7 +16493,7 @@
       <c r="J482" s="22"/>
       <c r="K482" s="22"/>
     </row>
-    <row r="483" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="15.75">
       <c r="A483" s="22"/>
       <c r="B483" s="22"/>
       <c r="C483" s="16" t="s">
@@ -16517,7 +16516,7 @@
       <c r="J483" s="22"/>
       <c r="K483" s="22"/>
     </row>
-    <row r="484" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="15.75">
       <c r="A484" s="22"/>
       <c r="B484" s="22"/>
       <c r="C484" s="16" t="s">
@@ -16540,7 +16539,7 @@
       <c r="J484" s="22"/>
       <c r="K484" s="22"/>
     </row>
-    <row r="485" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="15.75">
       <c r="A485" s="22"/>
       <c r="B485" s="22"/>
       <c r="C485" s="16" t="s">
@@ -16563,7 +16562,7 @@
       <c r="J485" s="22"/>
       <c r="K485" s="22"/>
     </row>
-    <row r="486" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="15.75">
       <c r="A486" s="22"/>
       <c r="B486" s="22"/>
       <c r="C486" s="16" t="s">
@@ -16586,7 +16585,7 @@
       <c r="J486" s="22"/>
       <c r="K486" s="22"/>
     </row>
-    <row r="487" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" ht="15.75">
       <c r="A487" s="22"/>
       <c r="B487" s="22"/>
       <c r="C487" s="16" t="s">
@@ -16609,7 +16608,7 @@
       <c r="J487" s="22"/>
       <c r="K487" s="22"/>
     </row>
-    <row r="488" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" ht="15.75">
       <c r="A488" s="22"/>
       <c r="B488" s="22"/>
       <c r="C488" s="16" t="s">
@@ -16632,7 +16631,7 @@
       <c r="J488" s="22"/>
       <c r="K488" s="22"/>
     </row>
-    <row r="489" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" ht="15.75">
       <c r="A489" s="22"/>
       <c r="B489" s="22"/>
       <c r="C489" s="16" t="s">
@@ -16655,7 +16654,7 @@
       <c r="J489" s="22"/>
       <c r="K489" s="22"/>
     </row>
-    <row r="490" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="15.75">
       <c r="A490" s="22"/>
       <c r="B490" s="22"/>
       <c r="C490" s="16" t="s">
@@ -16678,7 +16677,7 @@
       <c r="J490" s="22"/>
       <c r="K490" s="22"/>
     </row>
-    <row r="491" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" ht="15.75">
       <c r="A491" s="22"/>
       <c r="B491" s="22"/>
       <c r="C491" s="16" t="s">
@@ -16701,7 +16700,7 @@
       <c r="J491" s="22"/>
       <c r="K491" s="22"/>
     </row>
-    <row r="492" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" ht="15.75">
       <c r="A492" s="22"/>
       <c r="B492" s="22"/>
       <c r="C492" s="16" t="s">
@@ -16724,7 +16723,7 @@
       <c r="J492" s="22"/>
       <c r="K492" s="22"/>
     </row>
-    <row r="493" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" ht="15.75">
       <c r="A493" s="22"/>
       <c r="B493" s="22"/>
       <c r="C493" s="16" t="s">
@@ -16747,7 +16746,7 @@
       <c r="J493" s="22"/>
       <c r="K493" s="22"/>
     </row>
-    <row r="494" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" ht="15.75">
       <c r="A494" s="22"/>
       <c r="B494" s="22"/>
       <c r="C494" s="16" t="s">
@@ -16770,7 +16769,7 @@
       <c r="J494" s="22"/>
       <c r="K494" s="22"/>
     </row>
-    <row r="495" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" ht="15.75">
       <c r="A495" s="22"/>
       <c r="B495" s="22"/>
       <c r="C495" s="16" t="s">
@@ -16793,7 +16792,7 @@
       <c r="J495" s="22"/>
       <c r="K495" s="22"/>
     </row>
-    <row r="496" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:11" ht="26.25">
       <c r="A496" s="11"/>
       <c r="B496" s="11"/>
       <c r="C496" s="12" t="s">
@@ -16816,7 +16815,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="11"/>
     </row>
-    <row r="497" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" ht="18.75">
       <c r="A497" s="18"/>
       <c r="B497" s="18"/>
       <c r="C497" s="19" t="s">
@@ -16839,7 +16838,7 @@
       <c r="J497" s="18"/>
       <c r="K497" s="18"/>
     </row>
-    <row r="498" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" ht="15.75">
       <c r="A498" s="22"/>
       <c r="B498" s="22"/>
       <c r="C498" s="16" t="s">
@@ -16862,7 +16861,7 @@
       <c r="J498" s="22"/>
       <c r="K498" s="22"/>
     </row>
-    <row r="499" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" ht="15.75">
       <c r="A499" s="22"/>
       <c r="B499" s="22"/>
       <c r="C499" s="16" t="s">
@@ -16885,7 +16884,7 @@
       <c r="J499" s="22"/>
       <c r="K499" s="22"/>
     </row>
-    <row r="500" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" ht="15.75">
       <c r="A500" s="22"/>
       <c r="B500" s="22"/>
       <c r="C500" s="16" t="s">
@@ -16908,7 +16907,7 @@
       <c r="J500" s="22"/>
       <c r="K500" s="22"/>
     </row>
-    <row r="501" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" ht="15.75">
       <c r="A501" s="22"/>
       <c r="B501" s="22"/>
       <c r="C501" s="16" t="s">
@@ -16931,7 +16930,7 @@
       <c r="J501" s="22"/>
       <c r="K501" s="22"/>
     </row>
-    <row r="502" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" ht="15.75">
       <c r="A502" s="22"/>
       <c r="B502" s="22"/>
       <c r="C502" s="16" t="s">
@@ -16954,7 +16953,7 @@
       <c r="J502" s="22"/>
       <c r="K502" s="22"/>
     </row>
-    <row r="503" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" ht="15.75">
       <c r="A503" s="22"/>
       <c r="B503" s="22"/>
       <c r="C503" s="16" t="s">
@@ -16977,7 +16976,7 @@
       <c r="J503" s="22"/>
       <c r="K503" s="22"/>
     </row>
-    <row r="504" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="15.75">
       <c r="A504" s="22"/>
       <c r="B504" s="22"/>
       <c r="C504" s="16" t="s">
@@ -17000,7 +16999,7 @@
       <c r="J504" s="22"/>
       <c r="K504" s="22"/>
     </row>
-    <row r="505" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" ht="15.75">
       <c r="A505" s="22"/>
       <c r="B505" s="22"/>
       <c r="C505" s="16" t="s">
@@ -17023,7 +17022,7 @@
       <c r="J505" s="22"/>
       <c r="K505" s="22"/>
     </row>
-    <row r="506" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" ht="15.75">
       <c r="A506" s="22"/>
       <c r="B506" s="22"/>
       <c r="C506" s="16" t="s">
@@ -17046,7 +17045,7 @@
       <c r="J506" s="22"/>
       <c r="K506" s="22"/>
     </row>
-    <row r="507" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" ht="18.75">
       <c r="A507" s="18"/>
       <c r="B507" s="18"/>
       <c r="C507" s="19" t="s">
@@ -17069,7 +17068,7 @@
       <c r="J507" s="18"/>
       <c r="K507" s="18"/>
     </row>
-    <row r="508" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" ht="15.75">
       <c r="A508" s="22"/>
       <c r="B508" s="22"/>
       <c r="C508" s="16" t="s">
@@ -17092,7 +17091,7 @@
       <c r="J508" s="22"/>
       <c r="K508" s="22"/>
     </row>
-    <row r="509" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" ht="15.75">
       <c r="A509" s="22"/>
       <c r="B509" s="22"/>
       <c r="C509" s="16" t="s">
@@ -17115,7 +17114,7 @@
       <c r="J509" s="22"/>
       <c r="K509" s="22"/>
     </row>
-    <row r="510" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" ht="15.75">
       <c r="A510" s="22"/>
       <c r="B510" s="22"/>
       <c r="C510" s="16" t="s">
@@ -17138,7 +17137,7 @@
       <c r="J510" s="22"/>
       <c r="K510" s="22"/>
     </row>
-    <row r="511" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" ht="15.75">
       <c r="A511" s="22"/>
       <c r="B511" s="22"/>
       <c r="C511" s="16" t="s">
@@ -17161,7 +17160,7 @@
       <c r="J511" s="22"/>
       <c r="K511" s="22"/>
     </row>
-    <row r="512" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="15.75">
       <c r="A512" s="22"/>
       <c r="B512" s="22"/>
       <c r="C512" s="16" t="s">
@@ -17184,7 +17183,7 @@
       <c r="J512" s="22"/>
       <c r="K512" s="22"/>
     </row>
-    <row r="513" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" ht="15.75">
       <c r="A513" s="22"/>
       <c r="B513" s="22"/>
       <c r="C513" s="16" t="s">
@@ -17207,7 +17206,7 @@
       <c r="J513" s="22"/>
       <c r="K513" s="22"/>
     </row>
-    <row r="514" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" ht="15.75">
       <c r="A514" s="22"/>
       <c r="B514" s="22"/>
       <c r="C514" s="16" t="s">
@@ -17230,7 +17229,7 @@
       <c r="J514" s="22"/>
       <c r="K514" s="22"/>
     </row>
-    <row r="515" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" ht="15.75">
       <c r="A515" s="22"/>
       <c r="B515" s="22"/>
       <c r="C515" s="16" t="s">
@@ -17253,7 +17252,7 @@
       <c r="J515" s="22"/>
       <c r="K515" s="22"/>
     </row>
-    <row r="516" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" ht="15.75">
       <c r="A516" s="22"/>
       <c r="B516" s="22"/>
       <c r="C516" s="16" t="s">
@@ -17276,7 +17275,7 @@
       <c r="J516" s="22"/>
       <c r="K516" s="22"/>
     </row>
-    <row r="517" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" ht="15.75">
       <c r="A517" s="22"/>
       <c r="B517" s="22"/>
       <c r="C517" s="16" t="s">
@@ -17299,7 +17298,7 @@
       <c r="J517" s="22"/>
       <c r="K517" s="22"/>
     </row>
-    <row r="518" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" ht="15.75">
       <c r="A518" s="22"/>
       <c r="B518" s="22"/>
       <c r="C518" s="16" t="s">
@@ -17322,7 +17321,7 @@
       <c r="J518" s="22"/>
       <c r="K518" s="22"/>
     </row>
-    <row r="519" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" ht="15.75">
       <c r="A519" s="22"/>
       <c r="B519" s="22"/>
       <c r="C519" s="16" t="s">
@@ -17345,7 +17344,7 @@
       <c r="J519" s="22"/>
       <c r="K519" s="22"/>
     </row>
-    <row r="520" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" ht="15.75">
       <c r="A520" s="22"/>
       <c r="B520" s="22"/>
       <c r="C520" s="16" t="s">
@@ -17368,7 +17367,7 @@
       <c r="J520" s="22"/>
       <c r="K520" s="22"/>
     </row>
-    <row r="521" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" ht="15.75">
       <c r="A521" s="22"/>
       <c r="B521" s="22"/>
       <c r="C521" s="16" t="s">
@@ -17391,7 +17390,7 @@
       <c r="J521" s="22"/>
       <c r="K521" s="22"/>
     </row>
-    <row r="522" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" ht="15.75">
       <c r="A522" s="22"/>
       <c r="B522" s="22"/>
       <c r="C522" s="16" t="s">
@@ -17416,7 +17415,7 @@
       <c r="J522" s="22"/>
       <c r="K522" s="22"/>
     </row>
-    <row r="523" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" ht="15.75">
       <c r="A523" s="22"/>
       <c r="B523" s="22"/>
       <c r="C523" s="16" t="s">
@@ -17439,7 +17438,7 @@
       <c r="J523" s="22"/>
       <c r="K523" s="22"/>
     </row>
-    <row r="524" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" ht="15.75">
       <c r="A524" s="22"/>
       <c r="B524" s="22"/>
       <c r="C524" s="16" t="s">
@@ -17462,7 +17461,7 @@
       <c r="J524" s="22"/>
       <c r="K524" s="22"/>
     </row>
-    <row r="525" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" ht="15.75">
       <c r="A525" s="22"/>
       <c r="B525" s="22"/>
       <c r="C525" s="16" t="s">
@@ -17487,7 +17486,7 @@
       <c r="J525" s="22"/>
       <c r="K525" s="22"/>
     </row>
-    <row r="526" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" ht="15.75">
       <c r="A526" s="22"/>
       <c r="B526" s="22"/>
       <c r="C526" s="16" t="s">
@@ -17510,7 +17509,7 @@
       <c r="J526" s="22"/>
       <c r="K526" s="22"/>
     </row>
-    <row r="527" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" ht="15.75">
       <c r="A527" s="22"/>
       <c r="B527" s="22"/>
       <c r="C527" s="16" t="s">
@@ -17533,7 +17532,7 @@
       <c r="J527" s="22"/>
       <c r="K527" s="22"/>
     </row>
-    <row r="528" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" ht="15.75">
       <c r="A528" s="22"/>
       <c r="B528" s="22"/>
       <c r="C528" s="16" t="s">
@@ -17556,7 +17555,7 @@
       <c r="J528" s="22"/>
       <c r="K528" s="22"/>
     </row>
-    <row r="529" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" ht="15.75">
       <c r="A529" s="22"/>
       <c r="B529" s="22"/>
       <c r="C529" s="16" t="s">
@@ -17581,7 +17580,7 @@
       <c r="J529" s="22"/>
       <c r="K529" s="22"/>
     </row>
-    <row r="530" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" ht="15.75">
       <c r="A530" s="22"/>
       <c r="B530" s="22"/>
       <c r="C530" s="16" t="s">
@@ -17604,7 +17603,7 @@
       <c r="J530" s="22"/>
       <c r="K530" s="22"/>
     </row>
-    <row r="531" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" ht="15.75">
       <c r="A531" s="22"/>
       <c r="B531" s="22"/>
       <c r="C531" s="16" t="s">
@@ -17627,7 +17626,7 @@
       <c r="J531" s="22"/>
       <c r="K531" s="22"/>
     </row>
-    <row r="532" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" ht="15.75">
       <c r="A532" s="22"/>
       <c r="B532" s="22"/>
       <c r="C532" s="16" t="s">
@@ -17650,7 +17649,7 @@
       <c r="J532" s="22"/>
       <c r="K532" s="22"/>
     </row>
-    <row r="533" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" ht="15.75">
       <c r="A533" s="22"/>
       <c r="B533" s="22"/>
       <c r="C533" s="16" t="s">
@@ -17675,7 +17674,7 @@
       <c r="J533" s="22"/>
       <c r="K533" s="22"/>
     </row>
-    <row r="534" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" ht="15.75">
       <c r="A534" s="22"/>
       <c r="B534" s="22"/>
       <c r="C534" s="16" t="s">
@@ -17698,7 +17697,7 @@
       <c r="J534" s="22"/>
       <c r="K534" s="22"/>
     </row>
-    <row r="535" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" ht="15.75">
       <c r="A535" s="22"/>
       <c r="B535" s="22"/>
       <c r="C535" s="16" t="s">
@@ -17723,7 +17722,7 @@
       <c r="J535" s="22"/>
       <c r="K535" s="22"/>
     </row>
-    <row r="536" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" ht="15.75">
       <c r="A536" s="22"/>
       <c r="B536" s="22"/>
       <c r="C536" s="16" t="s">
@@ -17748,7 +17747,7 @@
       <c r="J536" s="22"/>
       <c r="K536" s="22"/>
     </row>
-    <row r="537" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" ht="15.75">
       <c r="A537" s="22"/>
       <c r="B537" s="22"/>
       <c r="C537" s="16" t="s">
@@ -17773,7 +17772,7 @@
       <c r="J537" s="22"/>
       <c r="K537" s="22"/>
     </row>
-    <row r="538" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" ht="15.75">
       <c r="A538" s="22"/>
       <c r="B538" s="22"/>
       <c r="C538" s="16" t="s">
@@ -17798,7 +17797,7 @@
       <c r="J538" s="22"/>
       <c r="K538" s="22"/>
     </row>
-    <row r="539" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" ht="15.75">
       <c r="A539" s="22"/>
       <c r="B539" s="22"/>
       <c r="C539" s="16" t="s">
@@ -17823,7 +17822,7 @@
       <c r="J539" s="22"/>
       <c r="K539" s="22"/>
     </row>
-    <row r="540" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" ht="15.75">
       <c r="A540" s="22"/>
       <c r="B540" s="22"/>
       <c r="C540" s="16" t="s">
@@ -17846,7 +17845,7 @@
       <c r="J540" s="22"/>
       <c r="K540" s="22"/>
     </row>
-    <row r="541" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" ht="15.75">
       <c r="A541" s="22"/>
       <c r="B541" s="22"/>
       <c r="C541" s="16" t="s">
@@ -17871,7 +17870,7 @@
       <c r="J541" s="22"/>
       <c r="K541" s="22"/>
     </row>
-    <row r="542" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" ht="15.75">
       <c r="A542" s="22"/>
       <c r="B542" s="22"/>
       <c r="C542" s="16" t="s">
@@ -17894,7 +17893,7 @@
       <c r="J542" s="22"/>
       <c r="K542" s="22"/>
     </row>
-    <row r="543" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" ht="15.75">
       <c r="A543" s="22"/>
       <c r="B543" s="22"/>
       <c r="C543" s="16" t="s">
@@ -17919,7 +17918,7 @@
       <c r="J543" s="22"/>
       <c r="K543" s="22"/>
     </row>
-    <row r="544" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" ht="15.75">
       <c r="A544" s="22"/>
       <c r="B544" s="22"/>
       <c r="C544" s="16" t="s">
@@ -17944,7 +17943,7 @@
       <c r="J544" s="22"/>
       <c r="K544" s="22"/>
     </row>
-    <row r="545" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" ht="15.75">
       <c r="A545" s="22"/>
       <c r="B545" s="22"/>
       <c r="C545" s="16" t="s">
@@ -17967,7 +17966,7 @@
       <c r="J545" s="22"/>
       <c r="K545" s="22"/>
     </row>
-    <row r="546" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" ht="18.75">
       <c r="A546" s="18"/>
       <c r="B546" s="18"/>
       <c r="C546" s="19" t="s">
@@ -17990,7 +17989,7 @@
       <c r="J546" s="18"/>
       <c r="K546" s="18"/>
     </row>
-    <row r="547" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" ht="15.75">
       <c r="A547" s="22"/>
       <c r="B547" s="22"/>
       <c r="C547" s="16" t="s">
@@ -18013,7 +18012,7 @@
       <c r="J547" s="22"/>
       <c r="K547" s="22"/>
     </row>
-    <row r="548" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" ht="15.75">
       <c r="A548" s="22"/>
       <c r="B548" s="22"/>
       <c r="C548" s="16" t="s">
@@ -18036,7 +18035,7 @@
       <c r="J548" s="22"/>
       <c r="K548" s="22"/>
     </row>
-    <row r="549" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" ht="15.75">
       <c r="A549" s="22"/>
       <c r="B549" s="22"/>
       <c r="C549" s="16" t="s">
@@ -18059,7 +18058,7 @@
       <c r="J549" s="22"/>
       <c r="K549" s="22"/>
     </row>
-    <row r="550" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" ht="15.75">
       <c r="A550" s="22"/>
       <c r="B550" s="22"/>
       <c r="C550" s="16" t="s">
@@ -18082,7 +18081,7 @@
       <c r="J550" s="22"/>
       <c r="K550" s="22"/>
     </row>
-    <row r="551" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" ht="15.75">
       <c r="A551" s="22"/>
       <c r="B551" s="22"/>
       <c r="C551" s="16" t="s">
@@ -18105,7 +18104,7 @@
       <c r="J551" s="22"/>
       <c r="K551" s="22"/>
     </row>
-    <row r="552" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" ht="15.75">
       <c r="A552" s="22"/>
       <c r="B552" s="22"/>
       <c r="C552" s="16" t="s">
@@ -18128,7 +18127,7 @@
       <c r="J552" s="22"/>
       <c r="K552" s="22"/>
     </row>
-    <row r="553" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" ht="15.75">
       <c r="A553" s="22"/>
       <c r="B553" s="22"/>
       <c r="C553" s="16" t="s">
@@ -18151,7 +18150,7 @@
       <c r="J553" s="22"/>
       <c r="K553" s="22"/>
     </row>
-    <row r="554" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" ht="15.75">
       <c r="A554" s="22"/>
       <c r="B554" s="22"/>
       <c r="C554" s="16" t="s">
@@ -18176,7 +18175,7 @@
       <c r="J554" s="22"/>
       <c r="K554" s="22"/>
     </row>
-    <row r="555" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" ht="15.75">
       <c r="A555" s="22"/>
       <c r="B555" s="22"/>
       <c r="C555" s="16" t="s">
@@ -18201,7 +18200,7 @@
       <c r="J555" s="22"/>
       <c r="K555" s="22"/>
     </row>
-    <row r="556" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" ht="15.75">
       <c r="A556" s="22"/>
       <c r="B556" s="22"/>
       <c r="C556" s="16" t="s">
@@ -18226,7 +18225,7 @@
       <c r="J556" s="22"/>
       <c r="K556" s="22"/>
     </row>
-    <row r="557" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" ht="15.75">
       <c r="A557" s="22"/>
       <c r="B557" s="22"/>
       <c r="C557" s="16" t="s">
@@ -18251,7 +18250,7 @@
       <c r="J557" s="22"/>
       <c r="K557" s="22"/>
     </row>
-    <row r="558" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" ht="15.75">
       <c r="A558" s="22"/>
       <c r="B558" s="22"/>
       <c r="C558" s="16" t="s">
@@ -18276,7 +18275,7 @@
       <c r="J558" s="22"/>
       <c r="K558" s="22"/>
     </row>
-    <row r="559" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" ht="15.75">
       <c r="A559" s="22"/>
       <c r="B559" s="22"/>
       <c r="C559" s="16" t="s">
@@ -18301,7 +18300,7 @@
       <c r="J559" s="22"/>
       <c r="K559" s="22"/>
     </row>
-    <row r="560" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" ht="15.75">
       <c r="A560" s="22"/>
       <c r="B560" s="22"/>
       <c r="C560" s="16" t="s">
@@ -18326,7 +18325,7 @@
       <c r="J560" s="22"/>
       <c r="K560" s="22"/>
     </row>
-    <row r="561" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" ht="15.75">
       <c r="A561" s="22"/>
       <c r="B561" s="22"/>
       <c r="C561" s="16" t="s">
@@ -18351,7 +18350,7 @@
       <c r="J561" s="22"/>
       <c r="K561" s="22"/>
     </row>
-    <row r="562" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" ht="15.75">
       <c r="A562" s="22"/>
       <c r="B562" s="22"/>
       <c r="C562" s="16" t="s">
@@ -18374,7 +18373,7 @@
       <c r="J562" s="22"/>
       <c r="K562" s="22"/>
     </row>
-    <row r="563" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" ht="18.75">
       <c r="A563" s="18"/>
       <c r="B563" s="18"/>
       <c r="C563" s="19" t="s">
@@ -18397,7 +18396,7 @@
       <c r="J563" s="18"/>
       <c r="K563" s="18"/>
     </row>
-    <row r="564" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" ht="15.75">
       <c r="A564" s="22"/>
       <c r="B564" s="22"/>
       <c r="C564" s="16" t="s">
@@ -18420,7 +18419,7 @@
       <c r="J564" s="22"/>
       <c r="K564" s="22"/>
     </row>
-    <row r="565" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" ht="15.75">
       <c r="A565" s="22"/>
       <c r="B565" s="22"/>
       <c r="C565" s="16" t="s">
@@ -18443,7 +18442,7 @@
       <c r="J565" s="22"/>
       <c r="K565" s="22"/>
     </row>
-    <row r="566" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" ht="15.75">
       <c r="A566" s="22"/>
       <c r="B566" s="22"/>
       <c r="C566" s="16" t="s">
@@ -18466,7 +18465,7 @@
       <c r="J566" s="22"/>
       <c r="K566" s="22"/>
     </row>
-    <row r="567" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" ht="15.75">
       <c r="A567" s="22"/>
       <c r="B567" s="22"/>
       <c r="C567" s="16" t="s">
@@ -18489,7 +18488,7 @@
       <c r="J567" s="22"/>
       <c r="K567" s="22"/>
     </row>
-    <row r="568" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" ht="15.75">
       <c r="A568" s="22"/>
       <c r="B568" s="22"/>
       <c r="C568" s="16" t="s">
@@ -18512,7 +18511,7 @@
       <c r="J568" s="22"/>
       <c r="K568" s="22"/>
     </row>
-    <row r="569" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" ht="15.75">
       <c r="A569" s="22"/>
       <c r="B569" s="22"/>
       <c r="C569" s="16" t="s">
@@ -18535,7 +18534,7 @@
       <c r="J569" s="22"/>
       <c r="K569" s="22"/>
     </row>
-    <row r="570" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" ht="15.75">
       <c r="A570" s="22"/>
       <c r="B570" s="22"/>
       <c r="C570" s="16" t="s">
@@ -18558,7 +18557,7 @@
       <c r="J570" s="22"/>
       <c r="K570" s="22"/>
     </row>
-    <row r="571" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" ht="15.75">
       <c r="A571" s="22"/>
       <c r="B571" s="22"/>
       <c r="C571" s="16" t="s">
@@ -18581,7 +18580,7 @@
       <c r="J571" s="22"/>
       <c r="K571" s="22"/>
     </row>
-    <row r="572" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" ht="15.75">
       <c r="A572" s="22"/>
       <c r="B572" s="22"/>
       <c r="C572" s="16" t="s">
@@ -18604,7 +18603,7 @@
       <c r="J572" s="22"/>
       <c r="K572" s="22"/>
     </row>
-    <row r="573" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" ht="15.75">
       <c r="A573" s="22"/>
       <c r="B573" s="22"/>
       <c r="C573" s="16" t="s">
@@ -18627,7 +18626,7 @@
       <c r="J573" s="22"/>
       <c r="K573" s="22"/>
     </row>
-    <row r="574" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" ht="15.75">
       <c r="A574" s="22"/>
       <c r="B574" s="22"/>
       <c r="C574" s="16" t="s">
@@ -18650,7 +18649,7 @@
       <c r="J574" s="22"/>
       <c r="K574" s="22"/>
     </row>
-    <row r="575" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" ht="15.75">
       <c r="A575" s="22"/>
       <c r="B575" s="22"/>
       <c r="C575" s="16" t="s">
@@ -18673,7 +18672,7 @@
       <c r="J575" s="22"/>
       <c r="K575" s="22"/>
     </row>
-    <row r="576" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="15.75">
       <c r="A576" s="22"/>
       <c r="B576" s="22"/>
       <c r="C576" s="16" t="s">
@@ -18696,7 +18695,7 @@
       <c r="J576" s="22"/>
       <c r="K576" s="22"/>
     </row>
-    <row r="577" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" ht="15.75">
       <c r="A577" s="22"/>
       <c r="B577" s="22"/>
       <c r="C577" s="16" t="s">
@@ -18719,7 +18718,7 @@
       <c r="J577" s="22"/>
       <c r="K577" s="22"/>
     </row>
-    <row r="578" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" ht="15.75">
       <c r="A578" s="22"/>
       <c r="B578" s="22"/>
       <c r="C578" s="16" t="s">
@@ -18742,7 +18741,7 @@
       <c r="J578" s="22"/>
       <c r="K578" s="22"/>
     </row>
-    <row r="579" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" ht="15.75">
       <c r="A579" s="22"/>
       <c r="B579" s="22"/>
       <c r="C579" s="16" t="s">
@@ -18765,7 +18764,7 @@
       <c r="J579" s="22"/>
       <c r="K579" s="22"/>
     </row>
-    <row r="580" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" ht="15.75">
       <c r="A580" s="22"/>
       <c r="B580" s="22"/>
       <c r="C580" s="16" t="s">
@@ -18788,7 +18787,7 @@
       <c r="J580" s="22"/>
       <c r="K580" s="22"/>
     </row>
-    <row r="581" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" ht="15.75">
       <c r="A581" s="22"/>
       <c r="B581" s="22"/>
       <c r="C581" s="16" t="s">
@@ -18811,7 +18810,7 @@
       <c r="J581" s="22"/>
       <c r="K581" s="22"/>
     </row>
-    <row r="582" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" ht="15.75">
       <c r="A582" s="22"/>
       <c r="B582" s="22"/>
       <c r="C582" s="16" t="s">
@@ -18834,7 +18833,7 @@
       <c r="J582" s="22"/>
       <c r="K582" s="22"/>
     </row>
-    <row r="583" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" ht="15.75">
       <c r="A583" s="22"/>
       <c r="B583" s="22"/>
       <c r="C583" s="16" t="s">
@@ -18857,7 +18856,7 @@
       <c r="J583" s="22"/>
       <c r="K583" s="22"/>
     </row>
-    <row r="584" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" ht="15.75">
       <c r="A584" s="22"/>
       <c r="B584" s="22"/>
       <c r="C584" s="16" t="s">
@@ -18880,7 +18879,7 @@
       <c r="J584" s="22"/>
       <c r="K584" s="22"/>
     </row>
-    <row r="585" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" ht="15.75">
       <c r="A585" s="22"/>
       <c r="B585" s="22"/>
       <c r="C585" s="16" t="s">
@@ -18903,7 +18902,7 @@
       <c r="J585" s="22"/>
       <c r="K585" s="22"/>
     </row>
-    <row r="586" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:11" ht="26.25">
       <c r="A586" s="11"/>
       <c r="B586" s="11"/>
       <c r="C586" s="12" t="s">
@@ -18926,7 +18925,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="11"/>
     </row>
-    <row r="587" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" ht="18.75">
       <c r="A587" s="18"/>
       <c r="B587" s="18"/>
       <c r="C587" s="19" t="s">
@@ -18949,7 +18948,7 @@
       <c r="J587" s="18"/>
       <c r="K587" s="18"/>
     </row>
-    <row r="588" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" ht="15.75">
       <c r="A588" s="22"/>
       <c r="B588" s="22"/>
       <c r="C588" s="16" t="s">
@@ -18972,7 +18971,7 @@
       <c r="J588" s="22"/>
       <c r="K588" s="22"/>
     </row>
-    <row r="589" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" ht="15.75">
       <c r="A589" s="22"/>
       <c r="B589" s="22"/>
       <c r="C589" s="16" t="s">
@@ -18995,7 +18994,7 @@
       <c r="J589" s="22"/>
       <c r="K589" s="22"/>
     </row>
-    <row r="590" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" ht="15.75">
       <c r="A590" s="22"/>
       <c r="B590" s="22"/>
       <c r="C590" s="16" t="s">
@@ -19018,7 +19017,7 @@
       <c r="J590" s="22"/>
       <c r="K590" s="22"/>
     </row>
-    <row r="591" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" ht="15.75">
       <c r="A591" s="22"/>
       <c r="B591" s="22"/>
       <c r="C591" s="16" t="s">
@@ -19041,7 +19040,7 @@
       <c r="J591" s="22"/>
       <c r="K591" s="22"/>
     </row>
-    <row r="592" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" ht="15.75">
       <c r="A592" s="22"/>
       <c r="B592" s="22"/>
       <c r="C592" s="16" t="s">
@@ -19064,7 +19063,7 @@
       <c r="J592" s="22"/>
       <c r="K592" s="22"/>
     </row>
-    <row r="593" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" ht="15.75">
       <c r="A593" s="22"/>
       <c r="B593" s="22"/>
       <c r="C593" s="16" t="s">
@@ -19087,7 +19086,7 @@
       <c r="J593" s="22"/>
       <c r="K593" s="22"/>
     </row>
-    <row r="594" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" ht="15.75">
       <c r="A594" s="22"/>
       <c r="B594" s="22"/>
       <c r="C594" s="16" t="s">
@@ -19110,7 +19109,7 @@
       <c r="J594" s="22"/>
       <c r="K594" s="22"/>
     </row>
-    <row r="595" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" ht="15.75">
       <c r="A595" s="22"/>
       <c r="B595" s="22"/>
       <c r="C595" s="16" t="s">
@@ -19133,7 +19132,7 @@
       <c r="J595" s="22"/>
       <c r="K595" s="22"/>
     </row>
-    <row r="596" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" ht="15.75">
       <c r="A596" s="22"/>
       <c r="B596" s="22"/>
       <c r="C596" s="16" t="s">
@@ -19156,7 +19155,7 @@
       <c r="J596" s="22"/>
       <c r="K596" s="22"/>
     </row>
-    <row r="597" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" ht="15.75">
       <c r="A597" s="22"/>
       <c r="B597" s="22"/>
       <c r="C597" s="16" t="s">
@@ -19179,7 +19178,7 @@
       <c r="J597" s="22"/>
       <c r="K597" s="22"/>
     </row>
-    <row r="598" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" ht="15.75">
       <c r="A598" s="22"/>
       <c r="B598" s="22"/>
       <c r="C598" s="16" t="s">
@@ -19202,7 +19201,7 @@
       <c r="J598" s="22"/>
       <c r="K598" s="22"/>
     </row>
-    <row r="599" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" ht="15.75">
       <c r="A599" s="22"/>
       <c r="B599" s="22"/>
       <c r="C599" s="16" t="s">
@@ -19225,7 +19224,7 @@
       <c r="J599" s="22"/>
       <c r="K599" s="22"/>
     </row>
-    <row r="600" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" ht="15.75">
       <c r="A600" s="22"/>
       <c r="B600" s="22"/>
       <c r="C600" s="16" t="s">
@@ -19248,7 +19247,7 @@
       <c r="J600" s="22"/>
       <c r="K600" s="22"/>
     </row>
-    <row r="601" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" ht="15.75">
       <c r="A601" s="22"/>
       <c r="B601" s="22"/>
       <c r="C601" s="16" t="s">
@@ -19271,7 +19270,7 @@
       <c r="J601" s="22"/>
       <c r="K601" s="22"/>
     </row>
-    <row r="602" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" ht="15.75">
       <c r="A602" s="22"/>
       <c r="B602" s="22"/>
       <c r="C602" s="16" t="s">
@@ -19294,7 +19293,7 @@
       <c r="J602" s="22"/>
       <c r="K602" s="22"/>
     </row>
-    <row r="603" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" ht="15.75">
       <c r="A603" s="22"/>
       <c r="B603" s="22"/>
       <c r="C603" s="16" t="s">
@@ -19317,7 +19316,7 @@
       <c r="J603" s="22"/>
       <c r="K603" s="22"/>
     </row>
-    <row r="604" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" ht="15.75">
       <c r="A604" s="22"/>
       <c r="B604" s="22"/>
       <c r="C604" s="16" t="s">
@@ -19340,7 +19339,7 @@
       <c r="J604" s="22"/>
       <c r="K604" s="22"/>
     </row>
-    <row r="605" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" ht="15.75">
       <c r="A605" s="22"/>
       <c r="B605" s="22"/>
       <c r="C605" s="16" t="s">
@@ -19363,7 +19362,7 @@
       <c r="J605" s="22"/>
       <c r="K605" s="22"/>
     </row>
-    <row r="606" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" ht="15.75">
       <c r="A606" s="22"/>
       <c r="B606" s="22"/>
       <c r="C606" s="16" t="s">
@@ -19386,7 +19385,7 @@
       <c r="J606" s="22"/>
       <c r="K606" s="22"/>
     </row>
-    <row r="607" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" ht="15.75">
       <c r="A607" s="22"/>
       <c r="B607" s="22"/>
       <c r="C607" s="16" t="s">
@@ -19409,7 +19408,7 @@
       <c r="J607" s="22"/>
       <c r="K607" s="22"/>
     </row>
-    <row r="608" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" ht="15.75">
       <c r="A608" s="22"/>
       <c r="B608" s="22"/>
       <c r="C608" s="16" t="s">
@@ -19432,7 +19431,7 @@
       <c r="J608" s="22"/>
       <c r="K608" s="22"/>
     </row>
-    <row r="609" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" ht="15.75">
       <c r="A609" s="22"/>
       <c r="B609" s="22"/>
       <c r="C609" s="16" t="s">
@@ -19455,7 +19454,7 @@
       <c r="J609" s="22"/>
       <c r="K609" s="22"/>
     </row>
-    <row r="610" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" ht="15.75">
       <c r="A610" s="22"/>
       <c r="B610" s="22"/>
       <c r="C610" s="16" t="s">
@@ -19478,7 +19477,7 @@
       <c r="J610" s="22"/>
       <c r="K610" s="22"/>
     </row>
-    <row r="611" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" ht="15.75">
       <c r="A611" s="22"/>
       <c r="B611" s="22"/>
       <c r="C611" s="16" t="s">
@@ -19501,7 +19500,7 @@
       <c r="J611" s="22"/>
       <c r="K611" s="22"/>
     </row>
-    <row r="612" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" ht="15.75">
       <c r="A612" s="22"/>
       <c r="B612" s="22"/>
       <c r="C612" s="16" t="s">
@@ -19524,7 +19523,7 @@
       <c r="J612" s="22"/>
       <c r="K612" s="22"/>
     </row>
-    <row r="613" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" ht="18.75">
       <c r="A613" s="18"/>
       <c r="B613" s="18"/>
       <c r="C613" s="19" t="s">
@@ -19547,7 +19546,7 @@
       <c r="J613" s="18"/>
       <c r="K613" s="18"/>
     </row>
-    <row r="614" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" ht="15.75">
       <c r="A614" s="22"/>
       <c r="B614" s="22"/>
       <c r="C614" s="16" t="s">
@@ -19570,7 +19569,7 @@
       <c r="J614" s="22"/>
       <c r="K614" s="22"/>
     </row>
-    <row r="615" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" ht="15.75">
       <c r="A615" s="22"/>
       <c r="B615" s="22"/>
       <c r="C615" s="16" t="s">
@@ -19593,7 +19592,7 @@
       <c r="J615" s="22"/>
       <c r="K615" s="22"/>
     </row>
-    <row r="616" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" ht="15.75">
       <c r="A616" s="22"/>
       <c r="B616" s="22"/>
       <c r="C616" s="16" t="s">
@@ -19616,7 +19615,7 @@
       <c r="J616" s="22"/>
       <c r="K616" s="22"/>
     </row>
-    <row r="617" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" ht="15.75">
       <c r="A617" s="22"/>
       <c r="B617" s="22"/>
       <c r="C617" s="16" t="s">
@@ -19639,7 +19638,7 @@
       <c r="J617" s="22"/>
       <c r="K617" s="22"/>
     </row>
-    <row r="618" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" ht="15.75">
       <c r="A618" s="22"/>
       <c r="B618" s="22"/>
       <c r="C618" s="16" t="s">
@@ -19662,7 +19661,7 @@
       <c r="J618" s="22"/>
       <c r="K618" s="22"/>
     </row>
-    <row r="619" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" ht="15.75">
       <c r="A619" s="22"/>
       <c r="B619" s="22"/>
       <c r="C619" s="16" t="s">
@@ -19685,7 +19684,7 @@
       <c r="J619" s="22"/>
       <c r="K619" s="22"/>
     </row>
-    <row r="620" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" ht="15.75">
       <c r="A620" s="22"/>
       <c r="B620" s="22"/>
       <c r="C620" s="16" t="s">
@@ -19708,7 +19707,7 @@
       <c r="J620" s="22"/>
       <c r="K620" s="22"/>
     </row>
-    <row r="621" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" ht="15.75">
       <c r="A621" s="22"/>
       <c r="B621" s="22"/>
       <c r="C621" s="16" t="s">
@@ -19731,7 +19730,7 @@
       <c r="J621" s="22"/>
       <c r="K621" s="22"/>
     </row>
-    <row r="622" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" ht="15.75">
       <c r="A622" s="22"/>
       <c r="B622" s="22"/>
       <c r="C622" s="16" t="s">
@@ -19754,7 +19753,7 @@
       <c r="J622" s="22"/>
       <c r="K622" s="22"/>
     </row>
-    <row r="623" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" ht="15.75">
       <c r="A623" s="22"/>
       <c r="B623" s="22"/>
       <c r="C623" s="16" t="s">
@@ -19777,7 +19776,7 @@
       <c r="J623" s="22"/>
       <c r="K623" s="22"/>
     </row>
-    <row r="624" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" ht="15.75">
       <c r="A624" s="22"/>
       <c r="B624" s="22"/>
       <c r="C624" s="16" t="s">
@@ -19800,7 +19799,7 @@
       <c r="J624" s="22"/>
       <c r="K624" s="22"/>
     </row>
-    <row r="625" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" ht="15.75">
       <c r="A625" s="22"/>
       <c r="B625" s="22"/>
       <c r="C625" s="16" t="s">
@@ -19823,7 +19822,7 @@
       <c r="J625" s="22"/>
       <c r="K625" s="22"/>
     </row>
-    <row r="626" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" ht="15.75">
       <c r="A626" s="22"/>
       <c r="B626" s="22"/>
       <c r="C626" s="16" t="s">
@@ -19846,7 +19845,7 @@
       <c r="J626" s="22"/>
       <c r="K626" s="22"/>
     </row>
-    <row r="627" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" ht="15.75">
       <c r="A627" s="22"/>
       <c r="B627" s="22"/>
       <c r="C627" s="16" t="s">
@@ -19869,7 +19868,7 @@
       <c r="J627" s="22"/>
       <c r="K627" s="22"/>
     </row>
-    <row r="628" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" ht="18.75">
       <c r="A628" s="18"/>
       <c r="B628" s="18"/>
       <c r="C628" s="19" t="s">
@@ -19892,7 +19891,7 @@
       <c r="J628" s="18"/>
       <c r="K628" s="18"/>
     </row>
-    <row r="629" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" ht="18.75">
       <c r="A629" s="25"/>
       <c r="B629" s="25"/>
       <c r="C629" s="19" t="s">
@@ -19915,7 +19914,7 @@
       <c r="J629" s="25"/>
       <c r="K629" s="25"/>
     </row>
-    <row r="630" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" ht="15.75">
       <c r="A630" s="22"/>
       <c r="B630" s="22"/>
       <c r="C630" s="16" t="s">
@@ -19938,7 +19937,7 @@
       <c r="J630" s="22"/>
       <c r="K630" s="22"/>
     </row>
-    <row r="631" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" ht="15.75">
       <c r="A631" s="22"/>
       <c r="B631" s="22"/>
       <c r="C631" s="16" t="s">
@@ -19961,7 +19960,7 @@
       <c r="J631" s="22"/>
       <c r="K631" s="22"/>
     </row>
-    <row r="632" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" ht="15.75">
       <c r="A632" s="22"/>
       <c r="B632" s="22"/>
       <c r="C632" s="16" t="s">
@@ -19984,7 +19983,7 @@
       <c r="J632" s="22"/>
       <c r="K632" s="22"/>
     </row>
-    <row r="633" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" ht="15.75">
       <c r="A633" s="22"/>
       <c r="B633" s="22"/>
       <c r="C633" s="16" t="s">
@@ -20007,7 +20006,7 @@
       <c r="J633" s="22"/>
       <c r="K633" s="22"/>
     </row>
-    <row r="634" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" ht="15.75">
       <c r="A634" s="22"/>
       <c r="B634" s="22"/>
       <c r="C634" s="16" t="s">
@@ -20030,7 +20029,7 @@
       <c r="J634" s="22"/>
       <c r="K634" s="22"/>
     </row>
-    <row r="635" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" ht="15.75">
       <c r="A635" s="22"/>
       <c r="B635" s="22"/>
       <c r="C635" s="16" t="s">
@@ -20053,7 +20052,7 @@
       <c r="J635" s="22"/>
       <c r="K635" s="22"/>
     </row>
-    <row r="636" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" ht="15.75">
       <c r="A636" s="22"/>
       <c r="B636" s="22"/>
       <c r="C636" s="16" t="s">
@@ -20076,7 +20075,7 @@
       <c r="J636" s="22"/>
       <c r="K636" s="22"/>
     </row>
-    <row r="637" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" ht="15.75">
       <c r="A637" s="22"/>
       <c r="B637" s="22"/>
       <c r="C637" s="16" t="s">
@@ -20099,7 +20098,7 @@
       <c r="J637" s="22"/>
       <c r="K637" s="22"/>
     </row>
-    <row r="638" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" ht="15.75">
       <c r="A638" s="22"/>
       <c r="B638" s="22"/>
       <c r="C638" s="16" t="s">
@@ -20122,7 +20121,7 @@
       <c r="J638" s="22"/>
       <c r="K638" s="22"/>
     </row>
-    <row r="639" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" ht="18.75">
       <c r="A639" s="25"/>
       <c r="B639" s="25"/>
       <c r="C639" s="19" t="s">
@@ -20145,7 +20144,7 @@
       <c r="J639" s="25"/>
       <c r="K639" s="25"/>
     </row>
-    <row r="640" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" ht="15.75">
       <c r="A640" s="22"/>
       <c r="B640" s="22"/>
       <c r="C640" s="16" t="s">
@@ -20168,7 +20167,7 @@
       <c r="J640" s="22"/>
       <c r="K640" s="22"/>
     </row>
-    <row r="641" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" ht="15.75">
       <c r="A641" s="22"/>
       <c r="B641" s="22"/>
       <c r="C641" s="16" t="s">
@@ -20191,7 +20190,7 @@
       <c r="J641" s="22"/>
       <c r="K641" s="22"/>
     </row>
-    <row r="642" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" ht="15.75">
       <c r="A642" s="22"/>
       <c r="B642" s="22"/>
       <c r="C642" s="16" t="s">
@@ -20214,7 +20213,7 @@
       <c r="J642" s="22"/>
       <c r="K642" s="22"/>
     </row>
-    <row r="643" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" ht="15.75">
       <c r="A643" s="22"/>
       <c r="B643" s="22"/>
       <c r="C643" s="16" t="s">
@@ -20237,7 +20236,7 @@
       <c r="J643" s="22"/>
       <c r="K643" s="22"/>
     </row>
-    <row r="644" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" ht="15.75">
       <c r="A644" s="22"/>
       <c r="B644" s="22"/>
       <c r="C644" s="16" t="s">
@@ -20260,7 +20259,7 @@
       <c r="J644" s="22"/>
       <c r="K644" s="22"/>
     </row>
-    <row r="645" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" ht="15.75">
       <c r="A645" s="22"/>
       <c r="B645" s="22"/>
       <c r="C645" s="16" t="s">
@@ -20283,7 +20282,7 @@
       <c r="J645" s="22"/>
       <c r="K645" s="22"/>
     </row>
-    <row r="646" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" ht="15.75">
       <c r="A646" s="22"/>
       <c r="B646" s="22"/>
       <c r="C646" s="16" t="s">
@@ -20306,7 +20305,7 @@
       <c r="J646" s="22"/>
       <c r="K646" s="22"/>
     </row>
-    <row r="647" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" ht="15.75">
       <c r="A647" s="22"/>
       <c r="B647" s="22"/>
       <c r="C647" s="16" t="s">
@@ -20329,7 +20328,7 @@
       <c r="J647" s="22"/>
       <c r="K647" s="22"/>
     </row>
-    <row r="648" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" ht="15.75">
       <c r="A648" s="22"/>
       <c r="B648" s="22"/>
       <c r="C648" s="16" t="s">
@@ -20352,7 +20351,7 @@
       <c r="J648" s="22"/>
       <c r="K648" s="22"/>
     </row>
-    <row r="649" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:11" ht="26.25">
       <c r="A649" s="11"/>
       <c r="B649" s="11"/>
       <c r="C649" s="12" t="s">
@@ -20375,7 +20374,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="11"/>
     </row>
-    <row r="650" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" ht="18.75">
       <c r="A650" s="18"/>
       <c r="B650" s="18"/>
       <c r="C650" s="19" t="s">
@@ -20398,7 +20397,7 @@
       <c r="J650" s="18"/>
       <c r="K650" s="18"/>
     </row>
-    <row r="651" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" ht="15.75">
       <c r="A651" s="22"/>
       <c r="B651" s="22"/>
       <c r="C651" s="16" t="s">
@@ -20421,7 +20420,7 @@
       <c r="J651" s="22"/>
       <c r="K651" s="22"/>
     </row>
-    <row r="652" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" ht="15.75">
       <c r="A652" s="22"/>
       <c r="B652" s="22"/>
       <c r="C652" s="16" t="s">
@@ -20444,7 +20443,7 @@
       <c r="J652" s="22"/>
       <c r="K652" s="22"/>
     </row>
-    <row r="653" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" ht="15.75">
       <c r="A653" s="22"/>
       <c r="B653" s="22"/>
       <c r="C653" s="16" t="s">
@@ -20467,7 +20466,7 @@
       <c r="J653" s="22"/>
       <c r="K653" s="22"/>
     </row>
-    <row r="654" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" ht="15.75">
       <c r="A654" s="22"/>
       <c r="B654" s="22"/>
       <c r="C654" s="16" t="s">
@@ -20490,7 +20489,7 @@
       <c r="J654" s="22"/>
       <c r="K654" s="22"/>
     </row>
-    <row r="655" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" ht="15.75">
       <c r="A655" s="22"/>
       <c r="B655" s="22"/>
       <c r="C655" s="16" t="s">
@@ -20513,7 +20512,7 @@
       <c r="J655" s="22"/>
       <c r="K655" s="22"/>
     </row>
-    <row r="656" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" ht="15.75">
       <c r="A656" s="22"/>
       <c r="B656" s="22"/>
       <c r="C656" s="16" t="s">
@@ -20536,7 +20535,7 @@
       <c r="J656" s="22"/>
       <c r="K656" s="22"/>
     </row>
-    <row r="657" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" ht="15.75">
       <c r="A657" s="22"/>
       <c r="B657" s="22"/>
       <c r="C657" s="16" t="s">
@@ -20559,7 +20558,7 @@
       <c r="J657" s="22"/>
       <c r="K657" s="22"/>
     </row>
-    <row r="658" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" ht="15.75">
       <c r="A658" s="22"/>
       <c r="B658" s="22"/>
       <c r="C658" s="16" t="s">
@@ -20582,7 +20581,7 @@
       <c r="J658" s="22"/>
       <c r="K658" s="22"/>
     </row>
-    <row r="659" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" ht="15.75">
       <c r="A659" s="22"/>
       <c r="B659" s="22"/>
       <c r="C659" s="16" t="s">
@@ -20605,7 +20604,7 @@
       <c r="J659" s="22"/>
       <c r="K659" s="22"/>
     </row>
-    <row r="660" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" ht="15.75">
       <c r="A660" s="22"/>
       <c r="B660" s="22"/>
       <c r="C660" s="16" t="s">
@@ -20628,7 +20627,7 @@
       <c r="J660" s="22"/>
       <c r="K660" s="22"/>
     </row>
-    <row r="661" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" ht="15.75">
       <c r="A661" s="22"/>
       <c r="B661" s="22"/>
       <c r="C661" s="16" t="s">
@@ -20651,7 +20650,7 @@
       <c r="J661" s="22"/>
       <c r="K661" s="22"/>
     </row>
-    <row r="662" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" ht="15.75">
       <c r="A662" s="22"/>
       <c r="B662" s="22"/>
       <c r="C662" s="16" t="s">
@@ -20674,7 +20673,7 @@
       <c r="J662" s="22"/>
       <c r="K662" s="22"/>
     </row>
-    <row r="663" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" ht="15.75">
       <c r="A663" s="22"/>
       <c r="B663" s="22"/>
       <c r="C663" s="16" t="s">
@@ -20697,7 +20696,7 @@
       <c r="J663" s="22"/>
       <c r="K663" s="22"/>
     </row>
-    <row r="664" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" ht="15.75">
       <c r="A664" s="22"/>
       <c r="B664" s="22"/>
       <c r="C664" s="16" t="s">
@@ -20720,7 +20719,7 @@
       <c r="J664" s="22"/>
       <c r="K664" s="22"/>
     </row>
-    <row r="665" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" ht="15.75">
       <c r="A665" s="22"/>
       <c r="B665" s="22"/>
       <c r="C665" s="16" t="s">
@@ -20743,7 +20742,7 @@
       <c r="J665" s="22"/>
       <c r="K665" s="22"/>
     </row>
-    <row r="666" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" ht="15.75">
       <c r="A666" s="22"/>
       <c r="B666" s="22"/>
       <c r="C666" s="16" t="s">
@@ -20766,7 +20765,7 @@
       <c r="J666" s="22"/>
       <c r="K666" s="22"/>
     </row>
-    <row r="667" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" ht="15.75">
       <c r="A667" s="22"/>
       <c r="B667" s="22"/>
       <c r="C667" s="16" t="s">
@@ -20789,7 +20788,7 @@
       <c r="J667" s="22"/>
       <c r="K667" s="22"/>
     </row>
-    <row r="668" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" ht="15.75">
       <c r="A668" s="22"/>
       <c r="B668" s="22"/>
       <c r="C668" s="16" t="s">
@@ -20812,7 +20811,7 @@
       <c r="J668" s="22"/>
       <c r="K668" s="22"/>
     </row>
-    <row r="669" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" ht="15.75">
       <c r="A669" s="22"/>
       <c r="B669" s="22"/>
       <c r="C669" s="16" t="s">
@@ -20835,7 +20834,7 @@
       <c r="J669" s="22"/>
       <c r="K669" s="22"/>
     </row>
-    <row r="670" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" ht="15.75">
       <c r="A670" s="22"/>
       <c r="B670" s="22"/>
       <c r="C670" s="16" t="s">
@@ -20860,7 +20859,7 @@
       <c r="J670" s="22"/>
       <c r="K670" s="22"/>
     </row>
-    <row r="671" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" ht="15.75">
       <c r="A671" s="22"/>
       <c r="B671" s="22"/>
       <c r="C671" s="16" t="s">
@@ -20883,7 +20882,7 @@
       <c r="J671" s="22"/>
       <c r="K671" s="22"/>
     </row>
-    <row r="672" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" ht="15.75">
       <c r="A672" s="22"/>
       <c r="B672" s="22"/>
       <c r="C672" s="16" t="s">
@@ -20906,7 +20905,7 @@
       <c r="J672" s="22"/>
       <c r="K672" s="22"/>
     </row>
-    <row r="673" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" ht="15.75">
       <c r="A673" s="22"/>
       <c r="B673" s="22"/>
       <c r="C673" s="16" t="s">
@@ -20929,7 +20928,7 @@
       <c r="J673" s="22"/>
       <c r="K673" s="22"/>
     </row>
-    <row r="674" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" ht="15.75">
       <c r="A674" s="22"/>
       <c r="B674" s="22"/>
       <c r="C674" s="16" t="s">
@@ -20952,7 +20951,7 @@
       <c r="J674" s="22"/>
       <c r="K674" s="22"/>
     </row>
-    <row r="675" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" ht="15.75">
       <c r="A675" s="22"/>
       <c r="B675" s="22"/>
       <c r="C675" s="16" t="s">
@@ -20975,7 +20974,7 @@
       <c r="J675" s="22"/>
       <c r="K675" s="22"/>
     </row>
-    <row r="676" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" ht="15.75">
       <c r="A676" s="22"/>
       <c r="B676" s="22"/>
       <c r="C676" s="16" t="s">
@@ -20998,7 +20997,7 @@
       <c r="J676" s="22"/>
       <c r="K676" s="22"/>
     </row>
-    <row r="677" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" ht="15.75">
       <c r="A677" s="22"/>
       <c r="B677" s="22"/>
       <c r="C677" s="16" t="s">
@@ -21021,7 +21020,7 @@
       <c r="J677" s="22"/>
       <c r="K677" s="22"/>
     </row>
-    <row r="678" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" ht="15.75">
       <c r="A678" s="22"/>
       <c r="B678" s="22"/>
       <c r="C678" s="16" t="s">
@@ -21044,7 +21043,7 @@
       <c r="J678" s="22"/>
       <c r="K678" s="22"/>
     </row>
-    <row r="679" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" ht="15.75">
       <c r="A679" s="22"/>
       <c r="B679" s="22"/>
       <c r="C679" s="16" t="s">
@@ -21067,7 +21066,7 @@
       <c r="J679" s="22"/>
       <c r="K679" s="22"/>
     </row>
-    <row r="680" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" ht="15.75">
       <c r="A680" s="22"/>
       <c r="B680" s="22"/>
       <c r="C680" s="16" t="s">
@@ -21090,7 +21089,7 @@
       <c r="J680" s="22"/>
       <c r="K680" s="22"/>
     </row>
-    <row r="681" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" ht="15.75">
       <c r="A681" s="22"/>
       <c r="B681" s="22"/>
       <c r="C681" s="16" t="s">
@@ -21113,7 +21112,7 @@
       <c r="J681" s="22"/>
       <c r="K681" s="22"/>
     </row>
-    <row r="682" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" ht="15.75">
       <c r="A682" s="22"/>
       <c r="B682" s="22"/>
       <c r="C682" s="16" t="s">
@@ -21136,7 +21135,7 @@
       <c r="J682" s="22"/>
       <c r="K682" s="22"/>
     </row>
-    <row r="683" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" ht="15.75">
       <c r="A683" s="22"/>
       <c r="B683" s="22"/>
       <c r="C683" s="16" t="s">
@@ -21159,7 +21158,7 @@
       <c r="J683" s="22"/>
       <c r="K683" s="22"/>
     </row>
-    <row r="684" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" ht="15.75">
       <c r="A684" s="22"/>
       <c r="B684" s="22"/>
       <c r="C684" s="16" t="s">
@@ -21182,7 +21181,7 @@
       <c r="J684" s="22"/>
       <c r="K684" s="22"/>
     </row>
-    <row r="685" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" ht="15.75">
       <c r="A685" s="22"/>
       <c r="B685" s="22"/>
       <c r="C685" s="16" t="s">
@@ -21205,7 +21204,7 @@
       <c r="J685" s="22"/>
       <c r="K685" s="22"/>
     </row>
-    <row r="686" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" ht="15.75">
       <c r="A686" s="22"/>
       <c r="B686" s="22"/>
       <c r="C686" s="16" t="s">
@@ -21228,7 +21227,7 @@
       <c r="J686" s="22"/>
       <c r="K686" s="22"/>
     </row>
-    <row r="687" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" ht="18.75">
       <c r="A687" s="18"/>
       <c r="B687" s="18"/>
       <c r="C687" s="19" t="s">
@@ -21251,7 +21250,7 @@
       <c r="J687" s="18"/>
       <c r="K687" s="18"/>
     </row>
-    <row r="688" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" ht="15.75">
       <c r="A688" s="22"/>
       <c r="B688" s="22"/>
       <c r="C688" s="16" t="s">
@@ -21274,7 +21273,7 @@
       <c r="J688" s="22"/>
       <c r="K688" s="22"/>
     </row>
-    <row r="689" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" ht="15.75">
       <c r="A689" s="22"/>
       <c r="B689" s="22"/>
       <c r="C689" s="16" t="s">
@@ -21297,7 +21296,7 @@
       <c r="J689" s="22"/>
       <c r="K689" s="22"/>
     </row>
-    <row r="690" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" ht="15.75">
       <c r="A690" s="22"/>
       <c r="B690" s="22"/>
       <c r="C690" s="16" t="s">
@@ -21322,7 +21321,7 @@
       <c r="J690" s="22"/>
       <c r="K690" s="22"/>
     </row>
-    <row r="691" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" ht="15.75">
       <c r="A691" s="22"/>
       <c r="B691" s="22"/>
       <c r="C691" s="16" t="s">
@@ -21345,7 +21344,7 @@
       <c r="J691" s="22"/>
       <c r="K691" s="22"/>
     </row>
-    <row r="692" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" ht="15.75">
       <c r="A692" s="22"/>
       <c r="B692" s="22"/>
       <c r="C692" s="16" t="s">
@@ -21368,7 +21367,7 @@
       <c r="J692" s="22"/>
       <c r="K692" s="22"/>
     </row>
-    <row r="693" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" ht="15.75">
       <c r="A693" s="22"/>
       <c r="B693" s="22"/>
       <c r="C693" s="16" t="s">
@@ -21391,7 +21390,7 @@
       <c r="J693" s="22"/>
       <c r="K693" s="22"/>
     </row>
-    <row r="694" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" ht="15.75">
       <c r="A694" s="22"/>
       <c r="B694" s="22"/>
       <c r="C694" s="16" t="s">
@@ -21414,7 +21413,7 @@
       <c r="J694" s="22"/>
       <c r="K694" s="22"/>
     </row>
-    <row r="695" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" ht="18.75">
       <c r="A695" s="18"/>
       <c r="B695" s="18"/>
       <c r="C695" s="19" t="s">
@@ -21437,7 +21436,7 @@
       <c r="J695" s="18"/>
       <c r="K695" s="18"/>
     </row>
-    <row r="696" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" ht="15.75">
       <c r="A696" s="22"/>
       <c r="B696" s="22"/>
       <c r="C696" s="16" t="s">
@@ -21460,7 +21459,7 @@
       <c r="J696" s="22"/>
       <c r="K696" s="22"/>
     </row>
-    <row r="697" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" ht="15.75">
       <c r="A697" s="22"/>
       <c r="B697" s="22"/>
       <c r="C697" s="16" t="s">
@@ -21483,7 +21482,7 @@
       <c r="J697" s="22"/>
       <c r="K697" s="22"/>
     </row>
-    <row r="698" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" ht="15.75">
       <c r="A698" s="22"/>
       <c r="B698" s="22"/>
       <c r="C698" s="16" t="s">
@@ -21506,7 +21505,7 @@
       <c r="J698" s="22"/>
       <c r="K698" s="22"/>
     </row>
-    <row r="699" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" ht="15.75">
       <c r="A699" s="22"/>
       <c r="B699" s="22"/>
       <c r="C699" s="16" t="s">
@@ -21529,7 +21528,7 @@
       <c r="J699" s="22"/>
       <c r="K699" s="22"/>
     </row>
-    <row r="700" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" ht="15.75">
       <c r="A700" s="22"/>
       <c r="B700" s="22"/>
       <c r="C700" s="16" t="s">
@@ -21554,7 +21553,7 @@
       <c r="J700" s="22"/>
       <c r="K700" s="22"/>
     </row>
-    <row r="701" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" ht="15.75">
       <c r="A701" s="22"/>
       <c r="B701" s="22"/>
       <c r="C701" s="16" t="s">
@@ -21579,7 +21578,7 @@
       <c r="J701" s="22"/>
       <c r="K701" s="22"/>
     </row>
-    <row r="702" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" ht="15.75">
       <c r="A702" s="22"/>
       <c r="B702" s="22"/>
       <c r="C702" s="16" t="s">
@@ -21604,7 +21603,7 @@
       <c r="J702" s="22"/>
       <c r="K702" s="22"/>
     </row>
-    <row r="703" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" ht="15.75">
       <c r="A703" s="22"/>
       <c r="B703" s="22"/>
       <c r="C703" s="16" t="s">
@@ -21627,7 +21626,7 @@
       <c r="J703" s="22"/>
       <c r="K703" s="22"/>
     </row>
-    <row r="704" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" ht="15.75">
       <c r="A704" s="22"/>
       <c r="B704" s="22"/>
       <c r="C704" s="16" t="s">
@@ -21650,7 +21649,7 @@
       <c r="J704" s="22"/>
       <c r="K704" s="22"/>
     </row>
-    <row r="705" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" ht="15.75">
       <c r="A705" s="22"/>
       <c r="B705" s="22"/>
       <c r="C705" s="16" t="s">
@@ -21673,7 +21672,7 @@
       <c r="J705" s="22"/>
       <c r="K705" s="22"/>
     </row>
-    <row r="706" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" ht="18.75">
       <c r="A706" s="18"/>
       <c r="B706" s="18"/>
       <c r="C706" s="19" t="s">
@@ -21696,7 +21695,7 @@
       <c r="J706" s="18"/>
       <c r="K706" s="18"/>
     </row>
-    <row r="707" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" ht="15.75">
       <c r="A707" s="22"/>
       <c r="B707" s="22"/>
       <c r="C707" s="16" t="s">
@@ -21719,7 +21718,7 @@
       <c r="J707" s="22"/>
       <c r="K707" s="22"/>
     </row>
-    <row r="708" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" ht="15.75">
       <c r="A708" s="22"/>
       <c r="B708" s="22"/>
       <c r="C708" s="16" t="s">
@@ -21742,7 +21741,7 @@
       <c r="J708" s="22"/>
       <c r="K708" s="22"/>
     </row>
-    <row r="709" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" ht="15.75">
       <c r="A709" s="22"/>
       <c r="B709" s="22"/>
       <c r="C709" s="16" t="s">
@@ -21765,7 +21764,7 @@
       <c r="J709" s="22"/>
       <c r="K709" s="22"/>
     </row>
-    <row r="710" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" ht="15.75">
       <c r="A710" s="22"/>
       <c r="B710" s="22"/>
       <c r="C710" s="16" t="s">
@@ -21788,7 +21787,7 @@
       <c r="J710" s="22"/>
       <c r="K710" s="22"/>
     </row>
-    <row r="711" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" ht="15.75">
       <c r="A711" s="22"/>
       <c r="B711" s="22"/>
       <c r="C711" s="16" t="s">
@@ -21811,7 +21810,7 @@
       <c r="J711" s="22"/>
       <c r="K711" s="22"/>
     </row>
-    <row r="712" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" ht="15.75">
       <c r="A712" s="22"/>
       <c r="B712" s="22"/>
       <c r="C712" s="16" t="s">
@@ -21834,7 +21833,7 @@
       <c r="J712" s="22"/>
       <c r="K712" s="22"/>
     </row>
-    <row r="713" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" ht="15.75">
       <c r="A713" s="22"/>
       <c r="B713" s="22"/>
       <c r="C713" s="16" t="s">
@@ -21857,7 +21856,7 @@
       <c r="J713" s="22"/>
       <c r="K713" s="22"/>
     </row>
-    <row r="714" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" ht="15.75">
       <c r="A714" s="22"/>
       <c r="B714" s="22"/>
       <c r="C714" s="16" t="s">
@@ -21880,7 +21879,7 @@
       <c r="J714" s="22"/>
       <c r="K714" s="22"/>
     </row>
-    <row r="715" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" ht="15.75">
       <c r="A715" s="22"/>
       <c r="B715" s="22"/>
       <c r="C715" s="16" t="s">
@@ -21903,7 +21902,7 @@
       <c r="J715" s="22"/>
       <c r="K715" s="22"/>
     </row>
-    <row r="716" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" ht="15.75">
       <c r="A716" s="22"/>
       <c r="B716" s="22"/>
       <c r="C716" s="16" t="s">
@@ -21926,7 +21925,7 @@
       <c r="J716" s="22"/>
       <c r="K716" s="22"/>
     </row>
-    <row r="717" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" ht="15.75">
       <c r="A717" s="22"/>
       <c r="B717" s="22"/>
       <c r="C717" s="16" t="s">
@@ -21949,7 +21948,7 @@
       <c r="J717" s="22"/>
       <c r="K717" s="22"/>
     </row>
-    <row r="718" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" ht="15.75">
       <c r="A718" s="22"/>
       <c r="B718" s="22"/>
       <c r="C718" s="16" t="s">
@@ -21972,7 +21971,7 @@
       <c r="J718" s="22"/>
       <c r="K718" s="22"/>
     </row>
-    <row r="719" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" ht="15.75">
       <c r="A719" s="22"/>
       <c r="B719" s="22"/>
       <c r="C719" s="16" t="s">
@@ -21997,7 +21996,7 @@
       <c r="J719" s="22"/>
       <c r="K719" s="22"/>
     </row>
-    <row r="720" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" ht="15.75">
       <c r="A720" s="22"/>
       <c r="B720" s="22"/>
       <c r="C720" s="16" t="s">
@@ -22022,7 +22021,7 @@
       <c r="J720" s="22"/>
       <c r="K720" s="22"/>
     </row>
-    <row r="721" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" ht="15.75">
       <c r="A721" s="22"/>
       <c r="B721" s="22"/>
       <c r="C721" s="16" t="s">
@@ -22045,7 +22044,7 @@
       <c r="J721" s="22"/>
       <c r="K721" s="22"/>
     </row>
-    <row r="722" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" ht="15.75">
       <c r="A722" s="22"/>
       <c r="B722" s="22"/>
       <c r="C722" s="16" t="s">
@@ -22068,7 +22067,7 @@
       <c r="J722" s="22"/>
       <c r="K722" s="22"/>
     </row>
-    <row r="723" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" ht="15.75">
       <c r="A723" s="22"/>
       <c r="B723" s="22"/>
       <c r="C723" s="16" t="s">
@@ -22091,7 +22090,7 @@
       <c r="J723" s="22"/>
       <c r="K723" s="22"/>
     </row>
-    <row r="724" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" ht="15.75">
       <c r="A724" s="22"/>
       <c r="B724" s="22"/>
       <c r="C724" s="16" t="s">
@@ -22114,7 +22113,7 @@
       <c r="J724" s="22"/>
       <c r="K724" s="22"/>
     </row>
-    <row r="725" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" ht="15.75">
       <c r="A725" s="22"/>
       <c r="B725" s="22"/>
       <c r="C725" s="16" t="s">
@@ -22137,7 +22136,7 @@
       <c r="J725" s="22"/>
       <c r="K725" s="22"/>
     </row>
-    <row r="726" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" ht="15.75">
       <c r="A726" s="22"/>
       <c r="B726" s="22"/>
       <c r="C726" s="16" t="s">
@@ -22160,7 +22159,7 @@
       <c r="J726" s="22"/>
       <c r="K726" s="22"/>
     </row>
-    <row r="727" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" ht="15.75">
       <c r="A727" s="22"/>
       <c r="B727" s="22"/>
       <c r="C727" s="16" t="s">
@@ -22183,7 +22182,7 @@
       <c r="J727" s="22"/>
       <c r="K727" s="22"/>
     </row>
-    <row r="728" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" ht="15.75">
       <c r="A728" s="22"/>
       <c r="B728" s="22"/>
       <c r="C728" s="16" t="s">
@@ -22206,7 +22205,7 @@
       <c r="J728" s="22"/>
       <c r="K728" s="22"/>
     </row>
-    <row r="729" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" ht="15.75">
       <c r="A729" s="22"/>
       <c r="B729" s="22"/>
       <c r="C729" s="16" t="s">
@@ -22229,7 +22228,7 @@
       <c r="J729" s="22"/>
       <c r="K729" s="22"/>
     </row>
-    <row r="730" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" ht="15.75">
       <c r="A730" s="22"/>
       <c r="B730" s="22"/>
       <c r="C730" s="16" t="s">
@@ -22252,7 +22251,7 @@
       <c r="J730" s="22"/>
       <c r="K730" s="22"/>
     </row>
-    <row r="731" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" ht="15.75">
       <c r="A731" s="22"/>
       <c r="B731" s="22"/>
       <c r="C731" s="16" t="s">
@@ -22275,7 +22274,7 @@
       <c r="J731" s="22"/>
       <c r="K731" s="22"/>
     </row>
-    <row r="732" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" ht="15.75">
       <c r="A732" s="22"/>
       <c r="B732" s="22"/>
       <c r="C732" s="16" t="s">
@@ -22298,7 +22297,7 @@
       <c r="J732" s="22"/>
       <c r="K732" s="22"/>
     </row>
-    <row r="733" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" ht="15.75">
       <c r="A733" s="22"/>
       <c r="B733" s="22"/>
       <c r="C733" s="16" t="s">
@@ -22321,7 +22320,7 @@
       <c r="J733" s="22"/>
       <c r="K733" s="22"/>
     </row>
-    <row r="734" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" ht="15.75">
       <c r="A734" s="22"/>
       <c r="B734" s="22"/>
       <c r="C734" s="16" t="s">
@@ -22344,7 +22343,7 @@
       <c r="J734" s="22"/>
       <c r="K734" s="22"/>
     </row>
-    <row r="735" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" ht="15.75">
       <c r="A735" s="22"/>
       <c r="B735" s="22"/>
       <c r="C735" s="16" t="s">
@@ -22369,7 +22368,7 @@
       <c r="J735" s="22"/>
       <c r="K735" s="22"/>
     </row>
-    <row r="736" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" ht="15.75">
       <c r="A736" s="22"/>
       <c r="B736" s="22"/>
       <c r="C736" s="16" t="s">
@@ -22394,7 +22393,7 @@
       <c r="J736" s="22"/>
       <c r="K736" s="22"/>
     </row>
-    <row r="737" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" ht="15.75">
       <c r="A737" s="22"/>
       <c r="B737" s="22"/>
       <c r="C737" s="16" t="s">
@@ -22419,7 +22418,7 @@
       <c r="J737" s="22"/>
       <c r="K737" s="22"/>
     </row>
-    <row r="738" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" ht="15.75">
       <c r="A738" s="22"/>
       <c r="B738" s="22"/>
       <c r="C738" s="16" t="s">
@@ -22444,7 +22443,7 @@
       <c r="J738" s="22"/>
       <c r="K738" s="22"/>
     </row>
-    <row r="739" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" ht="15.75">
       <c r="A739" s="22"/>
       <c r="B739" s="22"/>
       <c r="C739" s="16" t="s">
@@ -22469,7 +22468,7 @@
       <c r="J739" s="22"/>
       <c r="K739" s="22"/>
     </row>
-    <row r="740" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" ht="15.75">
       <c r="A740" s="22"/>
       <c r="B740" s="22"/>
       <c r="C740" s="16" t="s">
@@ -22494,7 +22493,7 @@
       <c r="J740" s="22"/>
       <c r="K740" s="22"/>
     </row>
-    <row r="741" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" ht="15.75">
       <c r="A741" s="22"/>
       <c r="B741" s="22"/>
       <c r="C741" s="16" t="s">
@@ -22519,7 +22518,7 @@
       <c r="J741" s="22"/>
       <c r="K741" s="22"/>
     </row>
-    <row r="742" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" ht="15.75">
       <c r="A742" s="22"/>
       <c r="B742" s="22"/>
       <c r="C742" s="16" t="s">
@@ -22544,7 +22543,7 @@
       <c r="J742" s="22"/>
       <c r="K742" s="22"/>
     </row>
-    <row r="743" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" ht="15.75">
       <c r="A743" s="22"/>
       <c r="B743" s="22"/>
       <c r="C743" s="16" t="s">
@@ -22569,7 +22568,7 @@
       <c r="J743" s="22"/>
       <c r="K743" s="22"/>
     </row>
-    <row r="744" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" ht="15.75">
       <c r="A744" s="22"/>
       <c r="B744" s="22"/>
       <c r="C744" s="16" t="s">
@@ -22594,7 +22593,7 @@
       <c r="J744" s="22"/>
       <c r="K744" s="22"/>
     </row>
-    <row r="745" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" ht="15.75">
       <c r="A745" s="22"/>
       <c r="B745" s="22"/>
       <c r="C745" s="16" t="s">
@@ -22619,7 +22618,7 @@
       <c r="J745" s="22"/>
       <c r="K745" s="22"/>
     </row>
-    <row r="746" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" ht="15.75">
       <c r="A746" s="22"/>
       <c r="B746" s="22"/>
       <c r="C746" s="16" t="s">
@@ -22642,7 +22641,7 @@
       <c r="J746" s="22"/>
       <c r="K746" s="22"/>
     </row>
-    <row r="747" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" ht="15.75">
       <c r="A747" s="22"/>
       <c r="B747" s="22"/>
       <c r="C747" s="16" t="s">
@@ -22665,7 +22664,7 @@
       <c r="J747" s="22"/>
       <c r="K747" s="22"/>
     </row>
-    <row r="748" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" ht="18.75">
       <c r="A748" s="18"/>
       <c r="B748" s="18"/>
       <c r="C748" s="19" t="s">
@@ -22688,7 +22687,7 @@
       <c r="J748" s="18"/>
       <c r="K748" s="18"/>
     </row>
-    <row r="749" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" ht="15.75">
       <c r="A749" s="22"/>
       <c r="B749" s="22"/>
       <c r="C749" s="16" t="s">
@@ -22711,7 +22710,7 @@
       <c r="J749" s="22"/>
       <c r="K749" s="22"/>
     </row>
-    <row r="750" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" ht="15.75">
       <c r="A750" s="22"/>
       <c r="B750" s="22"/>
       <c r="C750" s="16" t="s">
@@ -22734,7 +22733,7 @@
       <c r="J750" s="22"/>
       <c r="K750" s="22"/>
     </row>
-    <row r="751" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" ht="15.75">
       <c r="A751" s="22"/>
       <c r="B751" s="22"/>
       <c r="C751" s="16" t="s">
@@ -22757,7 +22756,7 @@
       <c r="J751" s="22"/>
       <c r="K751" s="22"/>
     </row>
-    <row r="752" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" ht="15.75">
       <c r="A752" s="22"/>
       <c r="B752" s="22"/>
       <c r="C752" s="16" t="s">
@@ -22780,7 +22779,7 @@
       <c r="J752" s="22"/>
       <c r="K752" s="22"/>
     </row>
-    <row r="753" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" ht="15.75">
       <c r="A753" s="22"/>
       <c r="B753" s="22"/>
       <c r="C753" s="16" t="s">
@@ -22803,7 +22802,7 @@
       <c r="J753" s="22"/>
       <c r="K753" s="22"/>
     </row>
-    <row r="754" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" ht="15.75">
       <c r="A754" s="22"/>
       <c r="B754" s="22"/>
       <c r="C754" s="16" t="s">
@@ -22826,7 +22825,7 @@
       <c r="J754" s="22"/>
       <c r="K754" s="22"/>
     </row>
-    <row r="755" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" ht="15.75">
       <c r="A755" s="22"/>
       <c r="B755" s="22"/>
       <c r="C755" s="16" t="s">
@@ -22849,7 +22848,7 @@
       <c r="J755" s="22"/>
       <c r="K755" s="22"/>
     </row>
-    <row r="756" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" ht="15.75">
       <c r="A756" s="22"/>
       <c r="B756" s="22"/>
       <c r="C756" s="16" t="s">
@@ -22872,7 +22871,7 @@
       <c r="J756" s="22"/>
       <c r="K756" s="22"/>
     </row>
-    <row r="757" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" ht="15.75">
       <c r="A757" s="22"/>
       <c r="B757" s="22"/>
       <c r="C757" s="16" t="s">
@@ -22895,7 +22894,7 @@
       <c r="J757" s="22"/>
       <c r="K757" s="22"/>
     </row>
-    <row r="758" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" ht="15.75">
       <c r="A758" s="22"/>
       <c r="B758" s="22"/>
       <c r="C758" s="16" t="s">
@@ -22918,7 +22917,7 @@
       <c r="J758" s="22"/>
       <c r="K758" s="22"/>
     </row>
-    <row r="759" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" ht="15.75">
       <c r="A759" s="22"/>
       <c r="B759" s="22"/>
       <c r="C759" s="16" t="s">
@@ -22941,7 +22940,7 @@
       <c r="J759" s="22"/>
       <c r="K759" s="22"/>
     </row>
-    <row r="760" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" ht="15.75">
       <c r="A760" s="22"/>
       <c r="B760" s="22"/>
       <c r="C760" s="16" t="s">
@@ -22964,7 +22963,7 @@
       <c r="J760" s="22"/>
       <c r="K760" s="22"/>
     </row>
-    <row r="761" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" ht="15.75">
       <c r="A761" s="22"/>
       <c r="B761" s="22"/>
       <c r="C761" s="16" t="s">
@@ -22987,7 +22986,7 @@
       <c r="J761" s="22"/>
       <c r="K761" s="22"/>
     </row>
-    <row r="762" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" ht="15.75">
       <c r="A762" s="22"/>
       <c r="B762" s="22"/>
       <c r="C762" s="16" t="s">
@@ -23010,7 +23009,7 @@
       <c r="J762" s="22"/>
       <c r="K762" s="22"/>
     </row>
-    <row r="763" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" ht="15.75">
       <c r="A763" s="22"/>
       <c r="B763" s="22"/>
       <c r="C763" s="16" t="s">
@@ -23033,7 +23032,7 @@
       <c r="J763" s="22"/>
       <c r="K763" s="22"/>
     </row>
-    <row r="764" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" ht="15.75">
       <c r="A764" s="22"/>
       <c r="B764" s="22"/>
       <c r="C764" s="16" t="s">
@@ -23056,7 +23055,7 @@
       <c r="J764" s="22"/>
       <c r="K764" s="22"/>
     </row>
-    <row r="765" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" ht="15.75">
       <c r="A765" s="22"/>
       <c r="B765" s="22"/>
       <c r="C765" s="16" t="s">
@@ -23079,7 +23078,7 @@
       <c r="J765" s="22"/>
       <c r="K765" s="22"/>
     </row>
-    <row r="766" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" ht="15.75">
       <c r="A766" s="22"/>
       <c r="B766" s="22"/>
       <c r="C766" s="16" t="s">
@@ -23102,7 +23101,7 @@
       <c r="J766" s="22"/>
       <c r="K766" s="22"/>
     </row>
-    <row r="767" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" ht="15.75">
       <c r="A767" s="22"/>
       <c r="B767" s="22"/>
       <c r="C767" s="16" t="s">
@@ -23125,7 +23124,7 @@
       <c r="J767" s="22"/>
       <c r="K767" s="22"/>
     </row>
-    <row r="768" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" ht="15.75">
       <c r="A768" s="22"/>
       <c r="B768" s="22"/>
       <c r="C768" s="16" t="s">
@@ -23148,7 +23147,7 @@
       <c r="J768" s="22"/>
       <c r="K768" s="22"/>
     </row>
-    <row r="769" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" ht="15.75">
       <c r="A769" s="22"/>
       <c r="B769" s="22"/>
       <c r="C769" s="16" t="s">
@@ -23171,7 +23170,7 @@
       <c r="J769" s="22"/>
       <c r="K769" s="22"/>
     </row>
-    <row r="770" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" ht="15.75">
       <c r="A770" s="22"/>
       <c r="B770" s="22"/>
       <c r="C770" s="16" t="s">
@@ -23194,7 +23193,7 @@
       <c r="J770" s="22"/>
       <c r="K770" s="22"/>
     </row>
-    <row r="771" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" ht="15.75">
       <c r="A771" s="22"/>
       <c r="B771" s="22"/>
       <c r="C771" s="16" t="s">
@@ -23217,7 +23216,7 @@
       <c r="J771" s="22"/>
       <c r="K771" s="22"/>
     </row>
-    <row r="772" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" ht="15.75">
       <c r="A772" s="22"/>
       <c r="B772" s="22"/>
       <c r="C772" s="16" t="s">
@@ -23240,7 +23239,7 @@
       <c r="J772" s="22"/>
       <c r="K772" s="22"/>
     </row>
-    <row r="773" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" ht="15.75">
       <c r="A773" s="22"/>
       <c r="B773" s="22"/>
       <c r="C773" s="16" t="s">
@@ -23263,7 +23262,7 @@
       <c r="J773" s="22"/>
       <c r="K773" s="22"/>
     </row>
-    <row r="774" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" ht="15.75">
       <c r="A774" s="22"/>
       <c r="B774" s="22"/>
       <c r="C774" s="16" t="s">
@@ -23286,7 +23285,7 @@
       <c r="J774" s="22"/>
       <c r="K774" s="22"/>
     </row>
-    <row r="775" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" ht="15.75">
       <c r="A775" s="22"/>
       <c r="B775" s="22"/>
       <c r="C775" s="16" t="s">
@@ -23309,7 +23308,7 @@
       <c r="J775" s="22"/>
       <c r="K775" s="22"/>
     </row>
-    <row r="776" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" ht="15.75">
       <c r="A776" s="22"/>
       <c r="B776" s="22"/>
       <c r="C776" s="16" t="s">
@@ -23332,7 +23331,7 @@
       <c r="J776" s="22"/>
       <c r="K776" s="22"/>
     </row>
-    <row r="777" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" ht="15.75">
       <c r="A777" s="22"/>
       <c r="B777" s="22"/>
       <c r="C777" s="16" t="s">
@@ -23355,7 +23354,7 @@
       <c r="J777" s="22"/>
       <c r="K777" s="22"/>
     </row>
-    <row r="778" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" ht="15.75">
       <c r="A778" s="22"/>
       <c r="B778" s="22"/>
       <c r="C778" s="16" t="s">
@@ -23378,7 +23377,7 @@
       <c r="J778" s="22"/>
       <c r="K778" s="22"/>
     </row>
-    <row r="779" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" ht="15.75">
       <c r="A779" s="22"/>
       <c r="B779" s="22"/>
       <c r="C779" s="16" t="s">
@@ -23401,7 +23400,7 @@
       <c r="J779" s="22"/>
       <c r="K779" s="22"/>
     </row>
-    <row r="780" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" ht="15.75">
       <c r="A780" s="22"/>
       <c r="B780" s="22"/>
       <c r="C780" s="16" t="s">
@@ -23424,7 +23423,7 @@
       <c r="J780" s="22"/>
       <c r="K780" s="22"/>
     </row>
-    <row r="781" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" ht="15.75">
       <c r="A781" s="22"/>
       <c r="B781" s="22"/>
       <c r="C781" s="16" t="s">
@@ -23447,7 +23446,7 @@
       <c r="J781" s="22"/>
       <c r="K781" s="22"/>
     </row>
-    <row r="782" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" ht="15.75">
       <c r="A782" s="22"/>
       <c r="B782" s="22"/>
       <c r="C782" s="16" t="s">
@@ -23470,7 +23469,7 @@
       <c r="J782" s="22"/>
       <c r="K782" s="22"/>
     </row>
-    <row r="783" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" ht="18.75">
       <c r="A783" s="25"/>
       <c r="B783" s="25"/>
       <c r="C783" s="19" t="s">
@@ -23493,7 +23492,7 @@
       <c r="J783" s="25"/>
       <c r="K783" s="25"/>
     </row>
-    <row r="784" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" ht="15.75">
       <c r="A784" s="22"/>
       <c r="B784" s="22"/>
       <c r="C784" s="16" t="s">
@@ -23516,7 +23515,7 @@
       <c r="J784" s="22"/>
       <c r="K784" s="22"/>
     </row>
-    <row r="785" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" ht="15.75">
       <c r="A785" s="22"/>
       <c r="B785" s="22"/>
       <c r="C785" s="16" t="s">
@@ -23539,7 +23538,7 @@
       <c r="J785" s="22"/>
       <c r="K785" s="22"/>
     </row>
-    <row r="786" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" ht="15.75">
       <c r="A786" s="22"/>
       <c r="B786" s="22"/>
       <c r="C786" s="16" t="s">
@@ -23562,7 +23561,7 @@
       <c r="J786" s="22"/>
       <c r="K786" s="22"/>
     </row>
-    <row r="787" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" ht="15.75">
       <c r="A787" s="22"/>
       <c r="B787" s="22"/>
       <c r="C787" s="16" t="s">
@@ -23585,7 +23584,7 @@
       <c r="J787" s="22"/>
       <c r="K787" s="22"/>
     </row>
-    <row r="788" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" ht="15.75">
       <c r="A788" s="22"/>
       <c r="B788" s="22"/>
       <c r="C788" s="16" t="s">
@@ -23608,7 +23607,7 @@
       <c r="J788" s="22"/>
       <c r="K788" s="22"/>
     </row>
-    <row r="789" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" ht="15.75">
       <c r="A789" s="22"/>
       <c r="B789" s="22"/>
       <c r="C789" s="16" t="s">
@@ -23631,7 +23630,7 @@
       <c r="J789" s="22"/>
       <c r="K789" s="22"/>
     </row>
-    <row r="790" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" ht="15.75">
       <c r="A790" s="22"/>
       <c r="B790" s="22"/>
       <c r="C790" s="16" t="s">
@@ -23654,7 +23653,7 @@
       <c r="J790" s="22"/>
       <c r="K790" s="22"/>
     </row>
-    <row r="791" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" ht="15.75">
       <c r="A791" s="22"/>
       <c r="B791" s="22"/>
       <c r="C791" s="16" t="s">
@@ -23677,7 +23676,7 @@
       <c r="J791" s="22"/>
       <c r="K791" s="22"/>
     </row>
-    <row r="792" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" ht="15.75">
       <c r="A792" s="22"/>
       <c r="B792" s="22"/>
       <c r="C792" s="16" t="s">
@@ -23700,7 +23699,7 @@
       <c r="J792" s="22"/>
       <c r="K792" s="22"/>
     </row>
-    <row r="793" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" ht="15.75">
       <c r="A793" s="22"/>
       <c r="B793" s="22"/>
       <c r="C793" s="16" t="s">
@@ -23723,7 +23722,7 @@
       <c r="J793" s="22"/>
       <c r="K793" s="22"/>
     </row>
-    <row r="794" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" ht="15.75">
       <c r="A794" s="22"/>
       <c r="B794" s="22"/>
       <c r="C794" s="16" t="s">
@@ -23746,7 +23745,7 @@
       <c r="J794" s="22"/>
       <c r="K794" s="22"/>
     </row>
-    <row r="795" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" ht="15.75">
       <c r="A795" s="22"/>
       <c r="B795" s="22"/>
       <c r="C795" s="16" t="s">
@@ -23769,7 +23768,7 @@
       <c r="J795" s="22"/>
       <c r="K795" s="22"/>
     </row>
-    <row r="796" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" ht="15.75">
       <c r="A796" s="22"/>
       <c r="B796" s="22"/>
       <c r="C796" s="16" t="s">
@@ -23794,7 +23793,7 @@
       <c r="J796" s="22"/>
       <c r="K796" s="22"/>
     </row>
-    <row r="797" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" ht="15.75">
       <c r="A797" s="22"/>
       <c r="B797" s="22"/>
       <c r="C797" s="16" t="s">
@@ -23819,7 +23818,7 @@
       <c r="J797" s="22"/>
       <c r="K797" s="22"/>
     </row>
-    <row r="798" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" ht="15.75">
       <c r="A798" s="22"/>
       <c r="B798" s="22"/>
       <c r="C798" s="16" t="s">
@@ -23842,7 +23841,7 @@
       <c r="J798" s="22"/>
       <c r="K798" s="22"/>
     </row>
-    <row r="799" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" ht="15.75">
       <c r="A799" s="22"/>
       <c r="B799" s="22"/>
       <c r="C799" s="16" t="s">
@@ -23865,7 +23864,7 @@
       <c r="J799" s="22"/>
       <c r="K799" s="22"/>
     </row>
-    <row r="800" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" ht="15.75">
       <c r="A800" s="22"/>
       <c r="B800" s="22"/>
       <c r="C800" s="16" t="s">
@@ -23888,7 +23887,7 @@
       <c r="J800" s="22"/>
       <c r="K800" s="22"/>
     </row>
-    <row r="801" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" ht="15.75">
       <c r="A801" s="22"/>
       <c r="B801" s="22"/>
       <c r="C801" s="16" t="s">
@@ -23911,7 +23910,7 @@
       <c r="J801" s="22"/>
       <c r="K801" s="22"/>
     </row>
-    <row r="802" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" ht="15.75">
       <c r="A802" s="22"/>
       <c r="B802" s="22"/>
       <c r="C802" s="16" t="s">
@@ -23934,7 +23933,7 @@
       <c r="J802" s="22"/>
       <c r="K802" s="22"/>
     </row>
-    <row r="803" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" ht="15.75">
       <c r="A803" s="22"/>
       <c r="B803" s="22"/>
       <c r="C803" s="16" t="s">
@@ -23957,7 +23956,7 @@
       <c r="J803" s="22"/>
       <c r="K803" s="22"/>
     </row>
-    <row r="804" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" ht="18.75">
       <c r="A804" s="25"/>
       <c r="B804" s="25"/>
       <c r="C804" s="19" t="s">
@@ -23980,7 +23979,7 @@
       <c r="J804" s="25"/>
       <c r="K804" s="25"/>
     </row>
-    <row r="805" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" ht="15.75">
       <c r="A805" s="22"/>
       <c r="B805" s="22"/>
       <c r="C805" s="16" t="s">
@@ -24003,7 +24002,7 @@
       <c r="J805" s="22"/>
       <c r="K805" s="22"/>
     </row>
-    <row r="806" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" ht="15.75">
       <c r="A806" s="22"/>
       <c r="B806" s="22"/>
       <c r="C806" s="16" t="s">
@@ -24026,7 +24025,7 @@
       <c r="J806" s="22"/>
       <c r="K806" s="22"/>
     </row>
-    <row r="807" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" ht="15.75">
       <c r="A807" s="22"/>
       <c r="B807" s="22"/>
       <c r="C807" s="16" t="s">
@@ -24049,7 +24048,7 @@
       <c r="J807" s="22"/>
       <c r="K807" s="22"/>
     </row>
-    <row r="808" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" ht="15.75">
       <c r="A808" s="22"/>
       <c r="B808" s="22"/>
       <c r="C808" s="16" t="s">
@@ -24072,7 +24071,7 @@
       <c r="J808" s="22"/>
       <c r="K808" s="22"/>
     </row>
-    <row r="809" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" ht="15.75">
       <c r="A809" s="22"/>
       <c r="B809" s="22"/>
       <c r="C809" s="16" t="s">
@@ -24095,7 +24094,7 @@
       <c r="J809" s="22"/>
       <c r="K809" s="22"/>
     </row>
-    <row r="810" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" ht="15.75">
       <c r="A810" s="22"/>
       <c r="B810" s="22"/>
       <c r="C810" s="16" t="s">
@@ -24118,7 +24117,7 @@
       <c r="J810" s="22"/>
       <c r="K810" s="22"/>
     </row>
-    <row r="811" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" ht="15.75">
       <c r="A811" s="22"/>
       <c r="B811" s="22"/>
       <c r="C811" s="16" t="s">
@@ -24141,7 +24140,7 @@
       <c r="J811" s="22"/>
       <c r="K811" s="22"/>
     </row>
-    <row r="812" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" ht="15.75">
       <c r="A812" s="22"/>
       <c r="B812" s="22"/>
       <c r="C812" s="16" t="s">
@@ -24164,7 +24163,7 @@
       <c r="J812" s="22"/>
       <c r="K812" s="22"/>
     </row>
-    <row r="813" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" ht="15.75">
       <c r="A813" s="22"/>
       <c r="B813" s="22"/>
       <c r="C813" s="16" t="s">
@@ -24187,7 +24186,7 @@
       <c r="J813" s="22"/>
       <c r="K813" s="22"/>
     </row>
-    <row r="814" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" ht="15.75">
       <c r="A814" s="22"/>
       <c r="B814" s="22"/>
       <c r="C814" s="16" t="s">
@@ -24210,7 +24209,7 @@
       <c r="J814" s="22"/>
       <c r="K814" s="22"/>
     </row>
-    <row r="815" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" ht="15.75">
       <c r="A815" s="22"/>
       <c r="B815" s="22"/>
       <c r="C815" s="16" t="s">
@@ -24233,7 +24232,7 @@
       <c r="J815" s="22"/>
       <c r="K815" s="22"/>
     </row>
-    <row r="816" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" ht="15.75">
       <c r="A816" s="22"/>
       <c r="B816" s="22"/>
       <c r="C816" s="16" t="s">
@@ -24256,7 +24255,7 @@
       <c r="J816" s="22"/>
       <c r="K816" s="22"/>
     </row>
-    <row r="817" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" ht="18.75">
       <c r="A817" s="25"/>
       <c r="B817" s="25"/>
       <c r="C817" s="19" t="s">
@@ -24279,7 +24278,7 @@
       <c r="J817" s="25"/>
       <c r="K817" s="25"/>
     </row>
-    <row r="818" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" ht="15.75">
       <c r="A818" s="22"/>
       <c r="B818" s="22"/>
       <c r="C818" s="16" t="s">
@@ -24302,7 +24301,7 @@
       <c r="J818" s="22"/>
       <c r="K818" s="22"/>
     </row>
-    <row r="819" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" ht="15.75">
       <c r="A819" s="22"/>
       <c r="B819" s="22"/>
       <c r="C819" s="16" t="s">
@@ -24325,7 +24324,7 @@
       <c r="J819" s="22"/>
       <c r="K819" s="22"/>
     </row>
-    <row r="820" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" ht="15.75">
       <c r="A820" s="22"/>
       <c r="B820" s="22"/>
       <c r="C820" s="16" t="s">
@@ -24348,7 +24347,7 @@
       <c r="J820" s="22"/>
       <c r="K820" s="22"/>
     </row>
-    <row r="821" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" ht="15.75">
       <c r="A821" s="22"/>
       <c r="B821" s="22"/>
       <c r="C821" s="16" t="s">
@@ -24371,7 +24370,7 @@
       <c r="J821" s="22"/>
       <c r="K821" s="22"/>
     </row>
-    <row r="822" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" ht="15.75">
       <c r="A822" s="22"/>
       <c r="B822" s="22"/>
       <c r="C822" s="16" t="s">
@@ -24394,7 +24393,7 @@
       <c r="J822" s="22"/>
       <c r="K822" s="22"/>
     </row>
-    <row r="823" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" ht="15.75">
       <c r="A823" s="22"/>
       <c r="B823" s="22"/>
       <c r="C823" s="16" t="s">
@@ -24419,7 +24418,7 @@
       <c r="J823" s="22"/>
       <c r="K823" s="22"/>
     </row>
-    <row r="824" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" ht="15.75">
       <c r="A824" s="22"/>
       <c r="B824" s="22"/>
       <c r="C824" s="16" t="s">
@@ -24442,7 +24441,7 @@
       <c r="J824" s="22"/>
       <c r="K824" s="22"/>
     </row>
-    <row r="825" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:11" ht="26.25">
       <c r="A825" s="11"/>
       <c r="B825" s="11"/>
       <c r="C825" s="12" t="s">
@@ -24465,7 +24464,7 @@
       <c r="J825" s="11"/>
       <c r="K825" s="11"/>
     </row>
-    <row r="826" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" ht="15.75">
       <c r="A826" s="15"/>
       <c r="B826" s="15"/>
       <c r="C826" s="16" t="s">
@@ -24488,7 +24487,7 @@
       <c r="J826" s="15"/>
       <c r="K826" s="15"/>
     </row>
-    <row r="827" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" ht="15.75">
       <c r="A827" s="15"/>
       <c r="B827" s="15"/>
       <c r="C827" s="16" t="s">
@@ -24511,7 +24510,7 @@
       <c r="J827" s="15"/>
       <c r="K827" s="15"/>
     </row>
-    <row r="828" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" ht="18.75">
       <c r="A828" s="18"/>
       <c r="B828" s="18"/>
       <c r="C828" s="19" t="s">
@@ -24534,7 +24533,7 @@
       <c r="J828" s="18"/>
       <c r="K828" s="18"/>
     </row>
-    <row r="829" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" ht="15.75">
       <c r="A829" s="22"/>
       <c r="B829" s="22"/>
       <c r="C829" s="16" t="s">
@@ -24557,7 +24556,7 @@
       <c r="J829" s="22"/>
       <c r="K829" s="22"/>
     </row>
-    <row r="830" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" ht="15.75">
       <c r="A830" s="22"/>
       <c r="B830" s="22"/>
       <c r="C830" s="16" t="s">
@@ -24580,7 +24579,7 @@
       <c r="J830" s="22"/>
       <c r="K830" s="22"/>
     </row>
-    <row r="831" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" ht="15.75">
       <c r="A831" s="22"/>
       <c r="B831" s="22"/>
       <c r="C831" s="16" t="s">
@@ -24603,7 +24602,7 @@
       <c r="J831" s="22"/>
       <c r="K831" s="22"/>
     </row>
-    <row r="832" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" ht="18.75">
       <c r="A832" s="18"/>
       <c r="B832" s="18"/>
       <c r="C832" s="19" t="s">
@@ -24626,7 +24625,7 @@
       <c r="J832" s="18"/>
       <c r="K832" s="18"/>
     </row>
-    <row r="833" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" ht="18.75">
       <c r="A833" s="18"/>
       <c r="B833" s="18"/>
       <c r="C833" s="19" t="s">
@@ -24649,7 +24648,7 @@
       <c r="J833" s="18"/>
       <c r="K833" s="18"/>
     </row>
-    <row r="834" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" ht="18.75">
       <c r="A834" s="18"/>
       <c r="B834" s="18"/>
       <c r="C834" s="19" t="s">
@@ -24672,7 +24671,7 @@
       <c r="J834" s="18"/>
       <c r="K834" s="18"/>
     </row>
-    <row r="835" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" ht="18.75">
       <c r="A835" s="18"/>
       <c r="B835" s="18"/>
       <c r="C835" s="19" t="s">
@@ -24695,7 +24694,7 @@
       <c r="J835" s="18"/>
       <c r="K835" s="18"/>
     </row>
-    <row r="836" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" ht="18.75">
       <c r="A836" s="18"/>
       <c r="B836" s="18"/>
       <c r="C836" s="19" t="s">
@@ -24718,7 +24717,7 @@
       <c r="J836" s="18"/>
       <c r="K836" s="18"/>
     </row>
-    <row r="837" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" ht="15.75">
       <c r="A837" s="22"/>
       <c r="B837" s="22"/>
       <c r="C837" s="16" t="s">
@@ -24743,7 +24742,7 @@
       <c r="J837" s="22"/>
       <c r="K837" s="22"/>
     </row>
-    <row r="838" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" ht="15.75">
       <c r="A838" s="22"/>
       <c r="B838" s="22"/>
       <c r="C838" s="16" t="s">
@@ -24768,7 +24767,7 @@
       <c r="J838" s="22"/>
       <c r="K838" s="22"/>
     </row>
-    <row r="839" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" ht="15.75">
       <c r="A839" s="22"/>
       <c r="B839" s="22"/>
       <c r="C839" s="16" t="s">
@@ -24793,7 +24792,7 @@
       <c r="J839" s="22"/>
       <c r="K839" s="22"/>
     </row>
-    <row r="840" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" ht="15.75">
       <c r="A840" s="22"/>
       <c r="B840" s="22"/>
       <c r="C840" s="16" t="s">
@@ -24816,7 +24815,7 @@
       <c r="J840" s="22"/>
       <c r="K840" s="22"/>
     </row>
-    <row r="841" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" ht="15.75">
       <c r="A841" s="22"/>
       <c r="B841" s="22"/>
       <c r="C841" s="16" t="s">
@@ -24839,7 +24838,7 @@
       <c r="J841" s="22"/>
       <c r="K841" s="22"/>
     </row>
-    <row r="842" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:11" ht="18.75">
       <c r="A842" s="18"/>
       <c r="B842" s="18"/>
       <c r="C842" s="19" t="s">
@@ -24862,7 +24861,7 @@
       <c r="J842" s="18"/>
       <c r="K842" s="18"/>
     </row>
-    <row r="843" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" ht="15.75">
       <c r="A843" s="22"/>
       <c r="B843" s="22"/>
       <c r="C843" s="16" t="s">
@@ -24887,7 +24886,7 @@
       <c r="J843" s="22"/>
       <c r="K843" s="22"/>
     </row>
-    <row r="844" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" ht="15.75">
       <c r="A844" s="22"/>
       <c r="B844" s="22"/>
       <c r="C844" s="16" t="s">
@@ -24912,7 +24911,7 @@
       <c r="J844" s="22"/>
       <c r="K844" s="22"/>
     </row>
-    <row r="845" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" ht="15.75">
       <c r="A845" s="22"/>
       <c r="B845" s="22"/>
       <c r="C845" s="16" t="s">
@@ -24935,7 +24934,7 @@
       <c r="J845" s="22"/>
       <c r="K845" s="22"/>
     </row>
-    <row r="846" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" ht="15.75">
       <c r="A846" s="22"/>
       <c r="B846" s="22"/>
       <c r="C846" s="16" t="s">
@@ -24960,7 +24959,7 @@
       <c r="J846" s="22"/>
       <c r="K846" s="22"/>
     </row>
-    <row r="847" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" ht="15.75">
       <c r="A847" s="22"/>
       <c r="B847" s="22"/>
       <c r="C847" s="16" t="s">
@@ -24983,7 +24982,7 @@
       <c r="J847" s="22"/>
       <c r="K847" s="22"/>
     </row>
-    <row r="848" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" ht="15.75">
       <c r="A848" s="22"/>
       <c r="B848" s="22"/>
       <c r="C848" s="16" t="s">
@@ -25006,7 +25005,7 @@
       <c r="J848" s="22"/>
       <c r="K848" s="22"/>
     </row>
-    <row r="849" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:11" ht="18.75">
       <c r="A849" s="18"/>
       <c r="B849" s="18"/>
       <c r="C849" s="19" t="s">
@@ -25029,7 +25028,7 @@
       <c r="J849" s="18"/>
       <c r="K849" s="18"/>
     </row>
-    <row r="850" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" ht="15.75">
       <c r="A850" s="22"/>
       <c r="B850" s="22"/>
       <c r="C850" s="16" t="s">
@@ -25054,7 +25053,7 @@
       <c r="J850" s="22"/>
       <c r="K850" s="22"/>
     </row>
-    <row r="851" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" ht="15.75">
       <c r="A851" s="26"/>
       <c r="B851" s="22"/>
       <c r="C851" s="16" t="s">
@@ -25079,7 +25078,7 @@
       <c r="J851" s="22"/>
       <c r="K851" s="22"/>
     </row>
-    <row r="852" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" ht="15.75">
       <c r="A852" s="22"/>
       <c r="B852" s="22"/>
       <c r="C852" s="16" t="s">
@@ -25102,7 +25101,7 @@
       <c r="J852" s="22"/>
       <c r="K852" s="22"/>
     </row>
-    <row r="853" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" ht="15.75">
       <c r="A853" s="22"/>
       <c r="B853" s="22"/>
       <c r="C853" s="16" t="s">
@@ -25127,7 +25126,7 @@
       <c r="J853" s="22"/>
       <c r="K853" s="22"/>
     </row>
-    <row r="854" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" ht="15.75">
       <c r="A854" s="22"/>
       <c r="B854" s="22"/>
       <c r="C854" s="16" t="s">
@@ -25150,7 +25149,7 @@
       <c r="J854" s="22"/>
       <c r="K854" s="22"/>
     </row>
-    <row r="855" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:11" ht="18.75">
       <c r="A855" s="18"/>
       <c r="B855" s="18"/>
       <c r="C855" s="19" t="s">
@@ -25173,7 +25172,7 @@
       <c r="J855" s="18"/>
       <c r="K855" s="18"/>
     </row>
-    <row r="856" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" ht="15.75">
       <c r="A856" s="22"/>
       <c r="B856" s="22"/>
       <c r="C856" s="16" t="s">
@@ -25196,7 +25195,7 @@
       <c r="J856" s="22"/>
       <c r="K856" s="22"/>
     </row>
-    <row r="857" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" ht="15.75">
       <c r="A857" s="22"/>
       <c r="B857" s="22"/>
       <c r="C857" s="16" t="s">
@@ -25221,7 +25220,7 @@
       <c r="J857" s="22"/>
       <c r="K857" s="22"/>
     </row>
-    <row r="858" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:11" ht="18.75">
       <c r="A858" s="18"/>
       <c r="B858" s="18"/>
       <c r="C858" s="19" t="s">
@@ -25244,7 +25243,7 @@
       <c r="J858" s="18"/>
       <c r="K858" s="18"/>
     </row>
-    <row r="859" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" ht="15.75">
       <c r="A859" s="22"/>
       <c r="B859" s="22"/>
       <c r="C859" s="16" t="s">
@@ -25267,7 +25266,7 @@
       <c r="J859" s="22"/>
       <c r="K859" s="22"/>
     </row>
-    <row r="860" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" ht="15.75">
       <c r="A860" s="22"/>
       <c r="B860" s="22"/>
       <c r="C860" s="16" t="s">
@@ -25290,7 +25289,7 @@
       <c r="J860" s="22"/>
       <c r="K860" s="22"/>
     </row>
-    <row r="861" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" ht="15.75">
       <c r="A861" s="22"/>
       <c r="B861" s="22"/>
       <c r="C861" s="16" t="s">
@@ -25313,7 +25312,7 @@
       <c r="J861" s="22"/>
       <c r="K861" s="22"/>
     </row>
-    <row r="862" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" ht="15.75">
       <c r="A862" s="22"/>
       <c r="B862" s="22"/>
       <c r="C862" s="16" t="s">
@@ -25336,7 +25335,7 @@
       <c r="J862" s="22"/>
       <c r="K862" s="22"/>
     </row>
-    <row r="863" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" ht="15.75">
       <c r="A863" s="22"/>
       <c r="B863" s="22"/>
       <c r="C863" s="16" t="s">
@@ -25359,7 +25358,7 @@
       <c r="J863" s="22"/>
       <c r="K863" s="22"/>
     </row>
-    <row r="864" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" ht="15.75">
       <c r="A864" s="22"/>
       <c r="B864" s="22"/>
       <c r="C864" s="16" t="s">
@@ -25382,7 +25381,7 @@
       <c r="J864" s="22"/>
       <c r="K864" s="22"/>
     </row>
-    <row r="865" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:11" ht="18.75">
       <c r="A865" s="18"/>
       <c r="B865" s="18"/>
       <c r="C865" s="19" t="s">
@@ -25405,7 +25404,7 @@
       <c r="J865" s="18"/>
       <c r="K865" s="18"/>
     </row>
-    <row r="866" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:11" ht="15.75">
       <c r="A866" s="22"/>
       <c r="B866" s="22"/>
       <c r="C866" s="16" t="s">
@@ -25428,7 +25427,7 @@
       <c r="J866" s="22"/>
       <c r="K866" s="22"/>
     </row>
-    <row r="867" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:11" ht="15.75">
       <c r="A867" s="22"/>
       <c r="B867" s="22"/>
       <c r="C867" s="16" t="s">
@@ -25453,7 +25452,7 @@
       <c r="J867" s="22"/>
       <c r="K867" s="22"/>
     </row>
-    <row r="868" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" ht="15.75">
       <c r="A868" s="22"/>
       <c r="B868" s="22"/>
       <c r="C868" s="16" t="s">
@@ -25476,7 +25475,7 @@
       <c r="J868" s="22"/>
       <c r="K868" s="22"/>
     </row>
-    <row r="869" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:11" ht="26.25">
       <c r="A869" s="11"/>
       <c r="B869" s="11"/>
       <c r="C869" s="12" t="s">
@@ -25499,7 +25498,7 @@
       <c r="J869" s="11"/>
       <c r="K869" s="11"/>
     </row>
-    <row r="870" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" ht="18.75">
       <c r="A870" s="18"/>
       <c r="B870" s="18"/>
       <c r="C870" s="19" t="s">
@@ -25522,7 +25521,7 @@
       <c r="J870" s="18"/>
       <c r="K870" s="18"/>
     </row>
-    <row r="871" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" ht="15.75">
       <c r="A871" s="22"/>
       <c r="B871" s="22"/>
       <c r="C871" s="16" t="s">
@@ -25545,7 +25544,7 @@
       <c r="J871" s="22"/>
       <c r="K871" s="22"/>
     </row>
-    <row r="872" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" ht="15.75">
       <c r="A872" s="22"/>
       <c r="B872" s="22"/>
       <c r="C872" s="16" t="s">
@@ -25568,7 +25567,7 @@
       <c r="J872" s="22"/>
       <c r="K872" s="22"/>
     </row>
-    <row r="873" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" ht="15.75">
       <c r="A873" s="22"/>
       <c r="B873" s="22"/>
       <c r="C873" s="16" t="s">
@@ -25591,7 +25590,7 @@
       <c r="J873" s="22"/>
       <c r="K873" s="22"/>
     </row>
-    <row r="874" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" ht="15.75">
       <c r="A874" s="22"/>
       <c r="B874" s="22"/>
       <c r="C874" s="16" t="s">
@@ -25614,7 +25613,7 @@
       <c r="J874" s="22"/>
       <c r="K874" s="22"/>
     </row>
-    <row r="875" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" ht="15.75">
       <c r="A875" s="22"/>
       <c r="B875" s="22"/>
       <c r="C875" s="16" t="s">
@@ -25637,7 +25636,7 @@
       <c r="J875" s="22"/>
       <c r="K875" s="22"/>
     </row>
-    <row r="876" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" ht="15.75">
       <c r="A876" s="22"/>
       <c r="B876" s="22"/>
       <c r="C876" s="16" t="s">
@@ -25660,7 +25659,7 @@
       <c r="J876" s="22"/>
       <c r="K876" s="22"/>
     </row>
-    <row r="877" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" ht="15.75">
       <c r="A877" s="22"/>
       <c r="B877" s="22"/>
       <c r="C877" s="16" t="s">
@@ -25683,7 +25682,7 @@
       <c r="J877" s="22"/>
       <c r="K877" s="22"/>
     </row>
-    <row r="878" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" ht="15.75">
       <c r="A878" s="22"/>
       <c r="B878" s="22"/>
       <c r="C878" s="16" t="s">
@@ -25706,7 +25705,7 @@
       <c r="J878" s="22"/>
       <c r="K878" s="22"/>
     </row>
-    <row r="879" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" ht="15.75">
       <c r="A879" s="22"/>
       <c r="B879" s="22"/>
       <c r="C879" s="16" t="s">
@@ -25729,7 +25728,7 @@
       <c r="J879" s="22"/>
       <c r="K879" s="22"/>
     </row>
-    <row r="880" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" ht="15.75">
       <c r="A880" s="22"/>
       <c r="B880" s="22"/>
       <c r="C880" s="16" t="s">
@@ -25752,7 +25751,7 @@
       <c r="J880" s="22"/>
       <c r="K880" s="22"/>
     </row>
-    <row r="881" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" ht="15.75">
       <c r="A881" s="22"/>
       <c r="B881" s="22"/>
       <c r="C881" s="16" t="s">
@@ -25775,7 +25774,7 @@
       <c r="J881" s="22"/>
       <c r="K881" s="22"/>
     </row>
-    <row r="882" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" ht="15.75">
       <c r="A882" s="22"/>
       <c r="B882" s="22"/>
       <c r="C882" s="16" t="s">
@@ -25798,7 +25797,7 @@
       <c r="J882" s="22"/>
       <c r="K882" s="22"/>
     </row>
-    <row r="883" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" ht="15.75">
       <c r="A883" s="22"/>
       <c r="B883" s="22"/>
       <c r="C883" s="16" t="s">
@@ -25821,7 +25820,7 @@
       <c r="J883" s="22"/>
       <c r="K883" s="22"/>
     </row>
-    <row r="884" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" ht="15.75">
       <c r="A884" s="22"/>
       <c r="B884" s="22"/>
       <c r="C884" s="16" t="s">
@@ -25844,7 +25843,7 @@
       <c r="J884" s="22"/>
       <c r="K884" s="22"/>
     </row>
-    <row r="885" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" ht="15.75">
       <c r="A885" s="22"/>
       <c r="B885" s="22"/>
       <c r="C885" s="16" t="s">
@@ -25867,7 +25866,7 @@
       <c r="J885" s="22"/>
       <c r="K885" s="22"/>
     </row>
-    <row r="886" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:11" ht="15.75">
       <c r="A886" s="22"/>
       <c r="B886" s="22"/>
       <c r="C886" s="16" t="s">
@@ -25890,7 +25889,7 @@
       <c r="J886" s="22"/>
       <c r="K886" s="22"/>
     </row>
-    <row r="887" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:11" ht="15.75">
       <c r="A887" s="22"/>
       <c r="B887" s="22"/>
       <c r="C887" s="16" t="s">
@@ -25913,7 +25912,7 @@
       <c r="J887" s="22"/>
       <c r="K887" s="22"/>
     </row>
-    <row r="888" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:11" ht="15.75">
       <c r="A888" s="22"/>
       <c r="B888" s="22"/>
       <c r="C888" s="16" t="s">
@@ -25936,7 +25935,7 @@
       <c r="J888" s="22"/>
       <c r="K888" s="22"/>
     </row>
-    <row r="889" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:11" ht="15.75">
       <c r="A889" s="22"/>
       <c r="B889" s="22"/>
       <c r="C889" s="16" t="s">
@@ -25959,7 +25958,7 @@
       <c r="J889" s="22"/>
       <c r="K889" s="22"/>
     </row>
-    <row r="890" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:11" ht="15.75">
       <c r="A890" s="22"/>
       <c r="B890" s="22"/>
       <c r="C890" s="16" t="s">
@@ -25982,7 +25981,7 @@
       <c r="J890" s="22"/>
       <c r="K890" s="22"/>
     </row>
-    <row r="891" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:11" ht="15.75">
       <c r="A891" s="22"/>
       <c r="B891" s="22"/>
       <c r="C891" s="16" t="s">
@@ -26005,7 +26004,7 @@
       <c r="J891" s="22"/>
       <c r="K891" s="22"/>
     </row>
-    <row r="892" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:11" ht="15.75">
       <c r="A892" s="22"/>
       <c r="B892" s="22"/>
       <c r="C892" s="16" t="s">
@@ -26028,7 +26027,7 @@
       <c r="J892" s="22"/>
       <c r="K892" s="22"/>
     </row>
-    <row r="893" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:11" ht="15.75">
       <c r="A893" s="22"/>
       <c r="B893" s="22"/>
       <c r="C893" s="16" t="s">
@@ -26051,7 +26050,7 @@
       <c r="J893" s="22"/>
       <c r="K893" s="22"/>
     </row>
-    <row r="894" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:11" ht="15.75">
       <c r="A894" s="22"/>
       <c r="B894" s="22"/>
       <c r="C894" s="16" t="s">
@@ -26074,7 +26073,7 @@
       <c r="J894" s="22"/>
       <c r="K894" s="22"/>
     </row>
-    <row r="895" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:11" ht="15.75">
       <c r="A895" s="22"/>
       <c r="B895" s="22"/>
       <c r="C895" s="16" t="s">
@@ -26097,7 +26096,7 @@
       <c r="J895" s="22"/>
       <c r="K895" s="22"/>
     </row>
-    <row r="896" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:11" ht="15.75">
       <c r="A896" s="22"/>
       <c r="B896" s="22"/>
       <c r="C896" s="16" t="s">
@@ -26120,7 +26119,7 @@
       <c r="J896" s="22"/>
       <c r="K896" s="22"/>
     </row>
-    <row r="897" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:11" ht="15.75">
       <c r="A897" s="22"/>
       <c r="B897" s="22"/>
       <c r="C897" s="16" t="s">
@@ -26143,7 +26142,7 @@
       <c r="J897" s="22"/>
       <c r="K897" s="22"/>
     </row>
-    <row r="898" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:11" ht="15.75">
       <c r="A898" s="22"/>
       <c r="B898" s="22"/>
       <c r="C898" s="16" t="s">
@@ -26166,7 +26165,7 @@
       <c r="J898" s="22"/>
       <c r="K898" s="22"/>
     </row>
-    <row r="899" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:11" ht="15.75">
       <c r="A899" s="22"/>
       <c r="B899" s="22"/>
       <c r="C899" s="16" t="s">
@@ -26189,7 +26188,7 @@
       <c r="J899" s="22"/>
       <c r="K899" s="22"/>
     </row>
-    <row r="900" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:11" ht="15.75">
       <c r="A900" s="22"/>
       <c r="B900" s="22"/>
       <c r="C900" s="16" t="s">
@@ -26212,7 +26211,7 @@
       <c r="J900" s="22"/>
       <c r="K900" s="22"/>
     </row>
-    <row r="901" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:11" ht="15.75">
       <c r="A901" s="22"/>
       <c r="B901" s="22"/>
       <c r="C901" s="16" t="s">
@@ -26235,7 +26234,7 @@
       <c r="J901" s="22"/>
       <c r="K901" s="22"/>
     </row>
-    <row r="902" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:11" ht="15.75">
       <c r="A902" s="22"/>
       <c r="B902" s="22"/>
       <c r="C902" s="16" t="s">
@@ -26258,7 +26257,7 @@
       <c r="J902" s="22"/>
       <c r="K902" s="22"/>
     </row>
-    <row r="903" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:11" ht="15.75">
       <c r="A903" s="22"/>
       <c r="B903" s="22"/>
       <c r="C903" s="16" t="s">
@@ -26281,7 +26280,7 @@
       <c r="J903" s="22"/>
       <c r="K903" s="22"/>
     </row>
-    <row r="904" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:11" ht="15.75">
       <c r="A904" s="22"/>
       <c r="B904" s="22"/>
       <c r="C904" s="16" t="s">
@@ -26304,7 +26303,7 @@
       <c r="J904" s="22"/>
       <c r="K904" s="22"/>
     </row>
-    <row r="905" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:11" ht="15.75">
       <c r="A905" s="22"/>
       <c r="B905" s="22"/>
       <c r="C905" s="16" t="s">
@@ -26327,7 +26326,7 @@
       <c r="J905" s="22"/>
       <c r="K905" s="22"/>
     </row>
-    <row r="906" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:11" ht="15.75">
       <c r="A906" s="22"/>
       <c r="B906" s="22"/>
       <c r="C906" s="16" t="s">
@@ -26350,7 +26349,7 @@
       <c r="J906" s="22"/>
       <c r="K906" s="22"/>
     </row>
-    <row r="907" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:11" ht="15.75">
       <c r="A907" s="22"/>
       <c r="B907" s="22"/>
       <c r="C907" s="16" t="s">
@@ -26373,7 +26372,7 @@
       <c r="J907" s="22"/>
       <c r="K907" s="22"/>
     </row>
-    <row r="908" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:11" ht="15.75">
       <c r="A908" s="22"/>
       <c r="B908" s="22"/>
       <c r="C908" s="16" t="s">
@@ -26396,7 +26395,7 @@
       <c r="J908" s="22"/>
       <c r="K908" s="22"/>
     </row>
-    <row r="909" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:11" ht="15.75">
       <c r="A909" s="22"/>
       <c r="B909" s="22"/>
       <c r="C909" s="16" t="s">
@@ -26419,7 +26418,7 @@
       <c r="J909" s="22"/>
       <c r="K909" s="22"/>
     </row>
-    <row r="910" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:11" ht="15.75">
       <c r="A910" s="22"/>
       <c r="B910" s="22"/>
       <c r="C910" s="16" t="s">
@@ -26442,7 +26441,7 @@
       <c r="J910" s="22"/>
       <c r="K910" s="22"/>
     </row>
-    <row r="911" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:11" ht="15.75">
       <c r="A911" s="22"/>
       <c r="B911" s="22"/>
       <c r="C911" s="16" t="s">
@@ -26465,7 +26464,7 @@
       <c r="J911" s="22"/>
       <c r="K911" s="22"/>
     </row>
-    <row r="912" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:11" ht="15.75">
       <c r="A912" s="22"/>
       <c r="B912" s="22"/>
       <c r="C912" s="16" t="s">
@@ -26488,7 +26487,7 @@
       <c r="J912" s="22"/>
       <c r="K912" s="22"/>
     </row>
-    <row r="913" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:11" ht="15.75">
       <c r="A913" s="22"/>
       <c r="B913" s="22"/>
       <c r="C913" s="16" t="s">
@@ -26511,7 +26510,7 @@
       <c r="J913" s="22"/>
       <c r="K913" s="22"/>
     </row>
-    <row r="914" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:11" ht="15.75">
       <c r="A914" s="22"/>
       <c r="B914" s="22"/>
       <c r="C914" s="16" t="s">
@@ -26534,7 +26533,7 @@
       <c r="J914" s="22"/>
       <c r="K914" s="22"/>
     </row>
-    <row r="915" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:11" ht="15.75">
       <c r="A915" s="22"/>
       <c r="B915" s="22"/>
       <c r="C915" s="16" t="s">
@@ -26557,7 +26556,7 @@
       <c r="J915" s="22"/>
       <c r="K915" s="22"/>
     </row>
-    <row r="916" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:11" ht="15.75">
       <c r="A916" s="22"/>
       <c r="B916" s="22"/>
       <c r="C916" s="16" t="s">
@@ -26580,7 +26579,7 @@
       <c r="J916" s="22"/>
       <c r="K916" s="22"/>
     </row>
-    <row r="917" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:11" ht="15.75">
       <c r="A917" s="22"/>
       <c r="B917" s="22"/>
       <c r="C917" s="16" t="s">
@@ -26603,7 +26602,7 @@
       <c r="J917" s="22"/>
       <c r="K917" s="22"/>
     </row>
-    <row r="918" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:11" ht="15.75">
       <c r="A918" s="22"/>
       <c r="B918" s="22"/>
       <c r="C918" s="16" t="s">
@@ -26626,7 +26625,7 @@
       <c r="J918" s="22"/>
       <c r="K918" s="22"/>
     </row>
-    <row r="919" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:11" ht="15.75">
       <c r="A919" s="22"/>
       <c r="B919" s="22"/>
       <c r="C919" s="16" t="s">
@@ -26649,7 +26648,7 @@
       <c r="J919" s="22"/>
       <c r="K919" s="22"/>
     </row>
-    <row r="920" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:11" ht="15.75">
       <c r="A920" s="22"/>
       <c r="B920" s="22"/>
       <c r="C920" s="16" t="s">
@@ -26672,7 +26671,7 @@
       <c r="J920" s="22"/>
       <c r="K920" s="22"/>
     </row>
-    <row r="921" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:11" ht="15.75">
       <c r="A921" s="22"/>
       <c r="B921" s="22"/>
       <c r="C921" s="16" t="s">
@@ -26695,7 +26694,7 @@
       <c r="J921" s="22"/>
       <c r="K921" s="22"/>
     </row>
-    <row r="922" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:11" ht="15.75">
       <c r="A922" s="22"/>
       <c r="B922" s="22"/>
       <c r="C922" s="16" t="s">
@@ -26718,7 +26717,7 @@
       <c r="J922" s="22"/>
       <c r="K922" s="22"/>
     </row>
-    <row r="923" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:11" ht="15.75">
       <c r="A923" s="22"/>
       <c r="B923" s="22"/>
       <c r="C923" s="16" t="s">
@@ -26741,7 +26740,7 @@
       <c r="J923" s="22"/>
       <c r="K923" s="22"/>
     </row>
-    <row r="924" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:11" ht="15.75">
       <c r="A924" s="22"/>
       <c r="B924" s="22"/>
       <c r="C924" s="16" t="s">
@@ -26764,7 +26763,7 @@
       <c r="J924" s="22"/>
       <c r="K924" s="22"/>
     </row>
-    <row r="925" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:11" ht="15.75">
       <c r="A925" s="22"/>
       <c r="B925" s="22"/>
       <c r="C925" s="16" t="s">
@@ -26787,7 +26786,7 @@
       <c r="J925" s="22"/>
       <c r="K925" s="22"/>
     </row>
-    <row r="926" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:11" ht="15.75">
       <c r="A926" s="22"/>
       <c r="B926" s="22"/>
       <c r="C926" s="16" t="s">
@@ -26810,7 +26809,7 @@
       <c r="J926" s="22"/>
       <c r="K926" s="22"/>
     </row>
-    <row r="927" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:11" ht="15.75">
       <c r="A927" s="22"/>
       <c r="B927" s="22"/>
       <c r="C927" s="16" t="s">
@@ -26833,7 +26832,7 @@
       <c r="J927" s="22"/>
       <c r="K927" s="22"/>
     </row>
-    <row r="928" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:11" ht="15.75">
       <c r="A928" s="22"/>
       <c r="B928" s="22"/>
       <c r="C928" s="16" t="s">
@@ -26856,7 +26855,7 @@
       <c r="J928" s="22"/>
       <c r="K928" s="22"/>
     </row>
-    <row r="929" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:11" ht="15.75">
       <c r="A929" s="22"/>
       <c r="B929" s="22"/>
       <c r="C929" s="16" t="s">
@@ -26879,7 +26878,7 @@
       <c r="J929" s="22"/>
       <c r="K929" s="22"/>
     </row>
-    <row r="930" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:11" ht="15.75">
       <c r="A930" s="22"/>
       <c r="B930" s="22"/>
       <c r="C930" s="16" t="s">
@@ -26902,7 +26901,7 @@
       <c r="J930" s="22"/>
       <c r="K930" s="22"/>
     </row>
-    <row r="931" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:11" ht="15.75">
       <c r="A931" s="22"/>
       <c r="B931" s="22"/>
       <c r="C931" s="16" t="s">
@@ -26925,7 +26924,7 @@
       <c r="J931" s="22"/>
       <c r="K931" s="22"/>
     </row>
-    <row r="932" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:11" ht="15.75">
       <c r="A932" s="22"/>
       <c r="B932" s="22"/>
       <c r="C932" s="16" t="s">
@@ -26948,7 +26947,7 @@
       <c r="J932" s="22"/>
       <c r="K932" s="22"/>
     </row>
-    <row r="933" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:11" ht="15.75">
       <c r="A933" s="22"/>
       <c r="B933" s="22"/>
       <c r="C933" s="16" t="s">
@@ -26971,7 +26970,7 @@
       <c r="J933" s="22"/>
       <c r="K933" s="22"/>
     </row>
-    <row r="934" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:11" ht="15.75">
       <c r="A934" s="22"/>
       <c r="B934" s="22"/>
       <c r="C934" s="16" t="s">
@@ -26994,7 +26993,7 @@
       <c r="J934" s="22"/>
       <c r="K934" s="22"/>
     </row>
-    <row r="935" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:11" ht="15.75">
       <c r="A935" s="22"/>
       <c r="B935" s="22"/>
       <c r="C935" s="16" t="s">
@@ -27017,7 +27016,7 @@
       <c r="J935" s="22"/>
       <c r="K935" s="22"/>
     </row>
-    <row r="936" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:11" ht="15.75">
       <c r="A936" s="22"/>
       <c r="B936" s="22"/>
       <c r="C936" s="16" t="s">
@@ -27040,7 +27039,7 @@
       <c r="J936" s="22"/>
       <c r="K936" s="22"/>
     </row>
-    <row r="937" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:11" ht="15.75">
       <c r="A937" s="22"/>
       <c r="B937" s="22"/>
       <c r="C937" s="16" t="s">
@@ -27063,7 +27062,7 @@
       <c r="J937" s="22"/>
       <c r="K937" s="22"/>
     </row>
-    <row r="938" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:11" ht="15.75">
       <c r="A938" s="22"/>
       <c r="B938" s="22"/>
       <c r="C938" s="16" t="s">
@@ -27086,7 +27085,7 @@
       <c r="J938" s="22"/>
       <c r="K938" s="22"/>
     </row>
-    <row r="939" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:11" ht="15.75">
       <c r="A939" s="22"/>
       <c r="B939" s="22"/>
       <c r="C939" s="16" t="s">
@@ -27109,7 +27108,7 @@
       <c r="J939" s="22"/>
       <c r="K939" s="22"/>
     </row>
-    <row r="940" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:11" ht="15.75">
       <c r="A940" s="22"/>
       <c r="B940" s="22"/>
       <c r="C940" s="16" t="s">
@@ -27132,7 +27131,7 @@
       <c r="J940" s="22"/>
       <c r="K940" s="22"/>
     </row>
-    <row r="941" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:11" ht="15.75">
       <c r="A941" s="22"/>
       <c r="B941" s="22"/>
       <c r="C941" s="16" t="s">
@@ -27155,7 +27154,7 @@
       <c r="J941" s="22"/>
       <c r="K941" s="22"/>
     </row>
-    <row r="942" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:11" ht="15.75">
       <c r="A942" s="22"/>
       <c r="B942" s="22"/>
       <c r="C942" s="16" t="s">
@@ -27178,7 +27177,7 @@
       <c r="J942" s="22"/>
       <c r="K942" s="22"/>
     </row>
-    <row r="943" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:11" ht="15.75">
       <c r="A943" s="22"/>
       <c r="B943" s="22"/>
       <c r="C943" s="16" t="s">
@@ -27201,7 +27200,7 @@
       <c r="J943" s="22"/>
       <c r="K943" s="22"/>
     </row>
-    <row r="944" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:11" ht="15.75">
       <c r="A944" s="22"/>
       <c r="B944" s="22"/>
       <c r="C944" s="16" t="s">
@@ -27224,7 +27223,7 @@
       <c r="J944" s="22"/>
       <c r="K944" s="22"/>
     </row>
-    <row r="945" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:11" ht="15.75">
       <c r="A945" s="22"/>
       <c r="B945" s="22"/>
       <c r="C945" s="16" t="s">
@@ -27247,7 +27246,7 @@
       <c r="J945" s="22"/>
       <c r="K945" s="22"/>
     </row>
-    <row r="946" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:11" ht="15.75">
       <c r="A946" s="22"/>
       <c r="B946" s="22"/>
       <c r="C946" s="16" t="s">
@@ -27270,7 +27269,7 @@
       <c r="J946" s="22"/>
       <c r="K946" s="22"/>
     </row>
-    <row r="947" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:11" ht="15.75">
       <c r="A947" s="22"/>
       <c r="B947" s="22"/>
       <c r="C947" s="16" t="s">
@@ -27293,7 +27292,7 @@
       <c r="J947" s="22"/>
       <c r="K947" s="22"/>
     </row>
-    <row r="948" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:11" ht="15.75">
       <c r="A948" s="22"/>
       <c r="B948" s="22"/>
       <c r="C948" s="16" t="s">
@@ -27316,7 +27315,7 @@
       <c r="J948" s="22"/>
       <c r="K948" s="22"/>
     </row>
-    <row r="949" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:11" ht="15.75">
       <c r="A949" s="22"/>
       <c r="B949" s="22"/>
       <c r="C949" s="16" t="s">
@@ -27339,7 +27338,7 @@
       <c r="J949" s="22"/>
       <c r="K949" s="22"/>
     </row>
-    <row r="950" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:11" ht="15.75">
       <c r="A950" s="22"/>
       <c r="B950" s="22"/>
       <c r="C950" s="16" t="s">
@@ -27362,7 +27361,7 @@
       <c r="J950" s="22"/>
       <c r="K950" s="22"/>
     </row>
-    <row r="951" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:11" ht="15.75">
       <c r="A951" s="22"/>
       <c r="B951" s="22"/>
       <c r="C951" s="16" t="s">
@@ -27385,7 +27384,7 @@
       <c r="J951" s="22"/>
       <c r="K951" s="22"/>
     </row>
-    <row r="952" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:11" ht="15.75">
       <c r="A952" s="22"/>
       <c r="B952" s="22"/>
       <c r="C952" s="16" t="s">
@@ -27408,7 +27407,7 @@
       <c r="J952" s="22"/>
       <c r="K952" s="22"/>
     </row>
-    <row r="953" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:11" ht="15.75">
       <c r="A953" s="22"/>
       <c r="B953" s="22"/>
       <c r="C953" s="16" t="s">
@@ -27431,7 +27430,7 @@
       <c r="J953" s="22"/>
       <c r="K953" s="22"/>
     </row>
-    <row r="954" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:11" ht="15.75">
       <c r="A954" s="22"/>
       <c r="B954" s="22"/>
       <c r="C954" s="16" t="s">
@@ -27454,7 +27453,7 @@
       <c r="J954" s="22"/>
       <c r="K954" s="22"/>
     </row>
-    <row r="955" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:11" ht="15.75">
       <c r="A955" s="22"/>
       <c r="B955" s="22"/>
       <c r="C955" s="16" t="s">
@@ -27477,7 +27476,7 @@
       <c r="J955" s="22"/>
       <c r="K955" s="22"/>
     </row>
-    <row r="956" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:11" ht="15.75">
       <c r="A956" s="22"/>
       <c r="B956" s="22"/>
       <c r="C956" s="16" t="s">
@@ -27500,7 +27499,7 @@
       <c r="J956" s="22"/>
       <c r="K956" s="22"/>
     </row>
-    <row r="957" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:11" ht="15.75">
       <c r="A957" s="22"/>
       <c r="B957" s="22"/>
       <c r="C957" s="16" t="s">
@@ -27523,7 +27522,7 @@
       <c r="J957" s="22"/>
       <c r="K957" s="22"/>
     </row>
-    <row r="958" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:11" ht="15.75">
       <c r="A958" s="22"/>
       <c r="B958" s="22"/>
       <c r="C958" s="16" t="s">
@@ -27546,7 +27545,7 @@
       <c r="J958" s="22"/>
       <c r="K958" s="22"/>
     </row>
-    <row r="959" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:11" ht="15.75">
       <c r="A959" s="22"/>
       <c r="B959" s="22"/>
       <c r="C959" s="16" t="s">
@@ -27569,7 +27568,7 @@
       <c r="J959" s="22"/>
       <c r="K959" s="22"/>
     </row>
-    <row r="960" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:11" ht="15.75">
       <c r="A960" s="22"/>
       <c r="B960" s="22"/>
       <c r="C960" s="16" t="s">
@@ -27592,7 +27591,7 @@
       <c r="J960" s="22"/>
       <c r="K960" s="22"/>
     </row>
-    <row r="961" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:11" ht="15.75">
       <c r="A961" s="22"/>
       <c r="B961" s="22"/>
       <c r="C961" s="16" t="s">
@@ -27615,7 +27614,7 @@
       <c r="J961" s="22"/>
       <c r="K961" s="22"/>
     </row>
-    <row r="962" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:11" ht="26.25">
       <c r="A962" s="11"/>
       <c r="B962" s="11"/>
       <c r="C962" s="12" t="s">
@@ -27638,7 +27637,7 @@
       <c r="J962" s="11"/>
       <c r="K962" s="11"/>
     </row>
-    <row r="963" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:11" ht="26.25">
       <c r="A963" s="11"/>
       <c r="B963" s="11"/>
       <c r="C963" s="12" t="s">
@@ -27661,7 +27660,7 @@
       <c r="J963" s="11"/>
       <c r="K963" s="11"/>
     </row>
-    <row r="964" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:11" ht="26.25">
       <c r="A964" s="11"/>
       <c r="B964" s="11"/>
       <c r="C964" s="12" t="s">
@@ -27684,7 +27683,7 @@
       <c r="J964" s="11"/>
       <c r="K964" s="11"/>
     </row>
-    <row r="965" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:11" ht="26.25">
       <c r="A965" s="11"/>
       <c r="B965" s="11"/>
       <c r="C965" s="12" t="s">
@@ -27708,7 +27707,7 @@
       <c r="K965" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{C21DA38B-87BB-4172-892E-63B5B7116781}"/>
+  <autoFilter ref="A1:K1"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
